--- a/VAEE-RI-01 REGISTRO DE ESTANCIA Y ESTADÍA version 03.xlsx
+++ b/VAEE-RI-01 REGISTRO DE ESTANCIA Y ESTADÍA version 03.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UPEMOR\SeptimoCuatrimestre\EstanciaII\Proyecto\EstanciaII\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -257,10 +257,12 @@
   </si>
   <si>
     <t xml:space="preserve">Obtener la atención y el interés en el aula de clases se ha vuelto un reto para los que se encuentran frente al grupo, ya sea profesores o personas que necesiten interactuar con los estudiantes. 
+En el pasado, se hacía uso de las reprimendas hacia los alumnos como aplicar castigos físicos (jalón de orejas, reglazos) y verbales (humillación, insultos) con el fin de hacer tomar consciencia a los estudiantes (la letra con sangre entra) sobre su aprendizaje. Esto por supuesto, es atentar contra la integridad de las personas por lo que se ha optado por métodos de enseñanza distintos. Actualmente existe el uso de las penalizaciones; un ejemplo de éstas es el descontar calificación de trabajos si éstos incumplen algunos aspectos como son ortografía, entrega a tiempo y contenido.
+No es solo sobre trabajos que se realizan penalizaciones: también se hace sobre el desempeño del alumno como puntualidad, asistencia, comportamiento, etc.
+Desafortunadamente esto ya no es suficiente debido al desinterés por parte del alumnado, tal vez por causa de la época en que nos encontramos y las distracciones presentes en la actualidad.
 En la actualidad, los juegos atrapan la atención de cualquier individuo puesto que las generaciones actuales han crecido en una sociedad inmersa en el ocio.
 Ludificación o mejor conocido por el anglicismo gamificación, en un sistema pedagógico, hace uso las mecánicas de los juegos, como puntos, niveles, insignias o tablas de clasificación y los aplica a la forma de enseñanza en un curso.
-La fusión de este sistema con la tecnología es, tal vez, el camino sencillo a la aplicación del mismo, pues el acceso que se tiene actualmente a los sistemas de información es relativamente completo. 
-Contar con un sistema educativo que utilice el enfoque de gamificación a través de las tecnologías de la información (un sistema web) continua con la adaptación a nuestro entorno que parece seguir desarrollándose día con día.
+La fusión de este sistema con la tecnología es, tal vez, el camino sencillo a la aplicación del mismo, pues el acceso que se tiene actualmente a los sistemas de información es relativamente completo. Contar con un sistema educativo que utilice el enfoque de gamificación a través de las tecnologías de la información (un sistema web) continua con la adaptación a nuestro entorno que parece seguir desarrollándose día con día. 
 </t>
   </si>
 </sst>
@@ -1024,490 +1026,490 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1893,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE1167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:AD94"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113:AD122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,206 +1933,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="126"/>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="131" t="s">
+      <c r="A1" s="85"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
-      <c r="V1" s="132"/>
-      <c r="W1" s="132"/>
-      <c r="X1" s="132"/>
-      <c r="Y1" s="132"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="132"/>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="133"/>
-      <c r="AD1" s="137">
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="101">
         <v>43063</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="128"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="136"/>
-      <c r="AD2" s="138"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="108"/>
+      <c r="AD2" s="102"/>
     </row>
     <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="128"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="139" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="140"/>
-      <c r="M3" s="140"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="140"/>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="140"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="140"/>
-      <c r="T3" s="140"/>
-      <c r="U3" s="140"/>
-      <c r="V3" s="140"/>
-      <c r="W3" s="140"/>
-      <c r="X3" s="140"/>
-      <c r="Y3" s="140"/>
-      <c r="Z3" s="140"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="140"/>
-      <c r="AC3" s="141"/>
-      <c r="AD3" s="145" t="s">
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="99" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="129"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143"/>
-      <c r="O4" s="143"/>
-      <c r="P4" s="143"/>
-      <c r="Q4" s="143"/>
-      <c r="R4" s="143"/>
-      <c r="S4" s="143"/>
-      <c r="T4" s="143"/>
-      <c r="U4" s="143"/>
-      <c r="V4" s="143"/>
-      <c r="W4" s="143"/>
-      <c r="X4" s="143"/>
-      <c r="Y4" s="143"/>
-      <c r="Z4" s="143"/>
-      <c r="AA4" s="143"/>
-      <c r="AB4" s="143"/>
-      <c r="AC4" s="144"/>
-      <c r="AD4" s="146"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="113"/>
+      <c r="Q4" s="113"/>
+      <c r="R4" s="113"/>
+      <c r="S4" s="113"/>
+      <c r="T4" s="113"/>
+      <c r="U4" s="113"/>
+      <c r="V4" s="113"/>
+      <c r="W4" s="113"/>
+      <c r="X4" s="113"/>
+      <c r="Y4" s="113"/>
+      <c r="Z4" s="113"/>
+      <c r="AA4" s="113"/>
+      <c r="AB4" s="113"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="100"/>
     </row>
     <row r="5" spans="1:30" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="160"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="161"/>
-      <c r="K5" s="161"/>
-      <c r="L5" s="161"/>
-      <c r="M5" s="161"/>
-      <c r="N5" s="161"/>
-      <c r="O5" s="161"/>
-      <c r="P5" s="161"/>
-      <c r="Q5" s="161"/>
-      <c r="R5" s="161"/>
-      <c r="S5" s="161"/>
-      <c r="T5" s="161"/>
-      <c r="U5" s="161"/>
-      <c r="V5" s="161"/>
-      <c r="W5" s="161"/>
-      <c r="X5" s="161"/>
-      <c r="Y5" s="161"/>
-      <c r="Z5" s="161"/>
-      <c r="AA5" s="161"/>
-      <c r="AB5" s="161"/>
-      <c r="AC5" s="161"/>
-      <c r="AD5" s="162"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="92"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="92"/>
+      <c r="AA5" s="92"/>
+      <c r="AB5" s="92"/>
+      <c r="AC5" s="92"/>
+      <c r="AD5" s="93"/>
     </row>
     <row r="6" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="163" t="s">
+      <c r="A6" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="164"/>
-      <c r="C6" s="164"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="164"/>
-      <c r="K6" s="164"/>
-      <c r="L6" s="164"/>
-      <c r="M6" s="164"/>
-      <c r="N6" s="164"/>
-      <c r="O6" s="164"/>
-      <c r="P6" s="164"/>
-      <c r="Q6" s="164"/>
-      <c r="R6" s="164"/>
-      <c r="S6" s="164"/>
-      <c r="T6" s="164"/>
-      <c r="U6" s="164"/>
-      <c r="V6" s="164"/>
-      <c r="W6" s="164"/>
-      <c r="X6" s="164"/>
-      <c r="Y6" s="164"/>
-      <c r="Z6" s="164"/>
-      <c r="AA6" s="164"/>
-      <c r="AB6" s="164"/>
-      <c r="AC6" s="164"/>
-      <c r="AD6" s="165"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="95"/>
+      <c r="W6" s="95"/>
+      <c r="X6" s="95"/>
+      <c r="Y6" s="95"/>
+      <c r="Z6" s="95"/>
+      <c r="AA6" s="95"/>
+      <c r="AB6" s="95"/>
+      <c r="AC6" s="95"/>
+      <c r="AD6" s="96"/>
     </row>
     <row r="7" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="55" t="s">
@@ -2142,71 +2144,71 @@
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
       <c r="G7" s="39"/>
-      <c r="H7" s="172" t="s">
+      <c r="H7" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="172"/>
-      <c r="J7" s="172"/>
-      <c r="K7" s="172"/>
-      <c r="L7" s="172"/>
-      <c r="M7" s="172"/>
-      <c r="N7" s="172"/>
-      <c r="O7" s="172"/>
-      <c r="P7" s="172"/>
-      <c r="Q7" s="172"/>
-      <c r="R7" s="172"/>
-      <c r="S7" s="172"/>
-      <c r="T7" s="172"/>
-      <c r="U7" s="172"/>
-      <c r="V7" s="172"/>
-      <c r="W7" s="172"/>
-      <c r="X7" s="172"/>
-      <c r="Y7" s="172"/>
-      <c r="Z7" s="172"/>
-      <c r="AA7" s="172"/>
-      <c r="AB7" s="172"/>
-      <c r="AC7" s="172"/>
-      <c r="AD7" s="173"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="119"/>
     </row>
     <row r="8" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="40"/>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="157" t="s">
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="V8" s="157"/>
-      <c r="W8" s="157"/>
-      <c r="X8" s="157"/>
-      <c r="Y8" s="157"/>
-      <c r="Z8" s="157"/>
-      <c r="AA8" s="170" t="s">
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="AB8" s="170"/>
-      <c r="AC8" s="170"/>
-      <c r="AD8" s="171"/>
+      <c r="AB8" s="117"/>
+      <c r="AC8" s="117"/>
+      <c r="AD8" s="118"/>
     </row>
     <row r="9" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="56" t="s">
@@ -2214,31 +2216,31 @@
       </c>
       <c r="B9" s="40"/>
       <c r="C9" s="17"/>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
       <c r="AA9" s="43"/>
       <c r="AB9" s="43"/>
       <c r="AC9" s="27"/>
@@ -2286,8 +2288,8 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="167"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="98"/>
       <c r="J11" s="19" t="s">
         <v>29</v>
       </c>
@@ -2306,111 +2308,111 @@
       <c r="X11" s="20"/>
       <c r="Y11" s="44"/>
       <c r="Z11" s="44"/>
-      <c r="AA11" s="168"/>
-      <c r="AB11" s="169"/>
+      <c r="AA11" s="115"/>
+      <c r="AB11" s="116"/>
       <c r="AC11" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="158" t="s">
+      <c r="A12" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="159"/>
-      <c r="C12" s="159"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="174" t="s">
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="174"/>
-      <c r="J12" s="174"/>
-      <c r="K12" s="174"/>
-      <c r="L12" s="174"/>
-      <c r="M12" s="174"/>
-      <c r="N12" s="174"/>
-      <c r="O12" s="174"/>
-      <c r="P12" s="174"/>
-      <c r="Q12" s="174"/>
-      <c r="R12" s="174"/>
-      <c r="S12" s="174"/>
-      <c r="T12" s="174"/>
-      <c r="U12" s="174"/>
-      <c r="V12" s="174"/>
-      <c r="W12" s="174"/>
-      <c r="X12" s="174"/>
-      <c r="Y12" s="174"/>
-      <c r="Z12" s="174"/>
-      <c r="AA12" s="174"/>
-      <c r="AB12" s="174"/>
-      <c r="AC12" s="174"/>
-      <c r="AD12" s="175"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="120"/>
+      <c r="S12" s="120"/>
+      <c r="T12" s="120"/>
+      <c r="U12" s="120"/>
+      <c r="V12" s="120"/>
+      <c r="W12" s="120"/>
+      <c r="X12" s="120"/>
+      <c r="Y12" s="120"/>
+      <c r="Z12" s="120"/>
+      <c r="AA12" s="120"/>
+      <c r="AB12" s="120"/>
+      <c r="AC12" s="120"/>
+      <c r="AD12" s="121"/>
     </row>
     <row r="13" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="158"/>
-      <c r="B13" s="159"/>
-      <c r="C13" s="159"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="176"/>
-      <c r="K13" s="176"/>
-      <c r="L13" s="176"/>
-      <c r="M13" s="176"/>
-      <c r="N13" s="176"/>
-      <c r="O13" s="176"/>
-      <c r="P13" s="176"/>
-      <c r="Q13" s="176"/>
-      <c r="R13" s="176"/>
-      <c r="S13" s="176"/>
-      <c r="T13" s="176"/>
-      <c r="U13" s="176"/>
-      <c r="V13" s="176"/>
-      <c r="W13" s="176"/>
-      <c r="X13" s="176"/>
-      <c r="Y13" s="176"/>
-      <c r="Z13" s="176"/>
-      <c r="AA13" s="176"/>
-      <c r="AB13" s="176"/>
-      <c r="AC13" s="176"/>
-      <c r="AD13" s="177"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="71"/>
     </row>
     <row r="14" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="158"/>
-      <c r="B14" s="159"/>
-      <c r="C14" s="159"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="176"/>
-      <c r="K14" s="176"/>
-      <c r="L14" s="176"/>
-      <c r="M14" s="176"/>
-      <c r="N14" s="176"/>
-      <c r="O14" s="176"/>
-      <c r="P14" s="176"/>
-      <c r="Q14" s="176"/>
-      <c r="R14" s="176"/>
-      <c r="S14" s="176"/>
-      <c r="T14" s="176"/>
-      <c r="U14" s="176"/>
-      <c r="V14" s="176"/>
-      <c r="W14" s="176"/>
-      <c r="X14" s="176"/>
-      <c r="Y14" s="176"/>
-      <c r="Z14" s="176"/>
-      <c r="AA14" s="176"/>
-      <c r="AB14" s="176"/>
-      <c r="AC14" s="176"/>
-      <c r="AD14" s="177"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="70"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="70"/>
+      <c r="AD14" s="71"/>
     </row>
     <row r="15" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="56" t="s">
@@ -2429,24 +2431,24 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="66" t="s">
+      <c r="O15" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="181"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="77"/>
+      <c r="Y15" s="77"/>
+      <c r="Z15" s="77"/>
+      <c r="AA15" s="77"/>
+      <c r="AB15" s="77"/>
+      <c r="AC15" s="77"/>
+      <c r="AD15" s="78"/>
     </row>
     <row r="16" spans="1:30" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="56"/>
@@ -2481,49 +2483,49 @@
       <c r="AD16" s="63"/>
     </row>
     <row r="17" spans="1:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
       <c r="F17" s="24"/>
       <c r="G17" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="H17" s="147" t="s">
+      <c r="H17" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="68"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
+      <c r="Q17" s="123"/>
+      <c r="R17" s="123"/>
+      <c r="S17" s="123"/>
+      <c r="T17" s="123"/>
+      <c r="U17" s="123"/>
+      <c r="V17" s="123"/>
+      <c r="W17" s="123"/>
+      <c r="X17" s="123"/>
+      <c r="Y17" s="123"/>
+      <c r="Z17" s="123"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="63"/>
     </row>
     <row r="18" spans="1:31" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
+      <c r="A18" s="122"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
@@ -2551,11 +2553,11 @@
       <c r="AD18" s="63"/>
     </row>
     <row r="19" spans="1:31" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
+      <c r="A19" s="122"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
       <c r="F19" s="30"/>
       <c r="G19" s="29"/>
       <c r="H19" s="7"/>
@@ -2583,31 +2585,31 @@
       <c r="AD19" s="63"/>
     </row>
     <row r="20" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
+      <c r="A20" s="122"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="30"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="68" t="s">
+      <c r="G20" s="125"/>
+      <c r="H20" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
+      <c r="M20" s="123"/>
+      <c r="N20" s="123"/>
+      <c r="O20" s="123"/>
+      <c r="P20" s="123"/>
+      <c r="Q20" s="123"/>
+      <c r="R20" s="123"/>
+      <c r="S20" s="123"/>
+      <c r="T20" s="123"/>
+      <c r="U20" s="123"/>
+      <c r="V20" s="123"/>
+      <c r="W20" s="123"/>
       <c r="X20" s="36"/>
       <c r="Y20" s="36"/>
       <c r="Z20" s="33"/>
@@ -2617,29 +2619,29 @@
       <c r="AD20" s="63"/>
     </row>
     <row r="21" spans="1:31" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
+      <c r="A21" s="122"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
       <c r="F21" s="30"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
+      <c r="M21" s="123"/>
+      <c r="N21" s="123"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
+      <c r="Q21" s="123"/>
+      <c r="R21" s="123"/>
+      <c r="S21" s="123"/>
+      <c r="T21" s="123"/>
+      <c r="U21" s="123"/>
+      <c r="V21" s="123"/>
+      <c r="W21" s="123"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="7"/>
@@ -2726,29 +2728,29 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
-      <c r="J24" s="179" t="s">
+      <c r="J24" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="K24" s="179"/>
-      <c r="L24" s="179"/>
-      <c r="M24" s="179"/>
-      <c r="N24" s="179"/>
-      <c r="O24" s="179"/>
-      <c r="P24" s="179"/>
-      <c r="Q24" s="179"/>
-      <c r="R24" s="179"/>
-      <c r="S24" s="179"/>
-      <c r="T24" s="179"/>
-      <c r="U24" s="179"/>
-      <c r="V24" s="179"/>
-      <c r="W24" s="179"/>
-      <c r="X24" s="179"/>
-      <c r="Y24" s="179"/>
-      <c r="Z24" s="179"/>
-      <c r="AA24" s="179"/>
-      <c r="AB24" s="179"/>
-      <c r="AC24" s="179"/>
-      <c r="AD24" s="180"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="72"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="72"/>
+      <c r="AB24" s="72"/>
+      <c r="AC24" s="72"/>
+      <c r="AD24" s="73"/>
     </row>
     <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="57" t="s">
@@ -2762,29 +2764,29 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="179" t="s">
+      <c r="J25" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="K25" s="179"/>
-      <c r="L25" s="179"/>
-      <c r="M25" s="179"/>
-      <c r="N25" s="179"/>
-      <c r="O25" s="179"/>
-      <c r="P25" s="179"/>
-      <c r="Q25" s="179"/>
-      <c r="R25" s="179"/>
-      <c r="S25" s="179"/>
-      <c r="T25" s="179"/>
-      <c r="U25" s="179"/>
-      <c r="V25" s="179"/>
-      <c r="W25" s="179"/>
-      <c r="X25" s="179"/>
-      <c r="Y25" s="179"/>
-      <c r="Z25" s="179"/>
-      <c r="AA25" s="179"/>
-      <c r="AB25" s="179"/>
-      <c r="AC25" s="179"/>
-      <c r="AD25" s="180"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="72"/>
+      <c r="Y25" s="72"/>
+      <c r="Z25" s="72"/>
+      <c r="AA25" s="72"/>
+      <c r="AB25" s="72"/>
+      <c r="AC25" s="72"/>
+      <c r="AD25" s="73"/>
     </row>
     <row r="26" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
@@ -2801,30 +2803,30 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="172" t="s">
+      <c r="M26" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="N26" s="172"/>
-      <c r="O26" s="172"/>
-      <c r="P26" s="172"/>
-      <c r="Q26" s="172"/>
-      <c r="R26" s="172"/>
-      <c r="S26" s="172"/>
-      <c r="T26" s="172"/>
-      <c r="U26" s="172"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
+      <c r="T26" s="74"/>
+      <c r="U26" s="74"/>
       <c r="V26" s="58" t="s">
         <v>12</v>
       </c>
       <c r="W26" s="29"/>
       <c r="X26" s="29"/>
       <c r="Y26" s="29"/>
-      <c r="Z26" s="148" t="s">
+      <c r="Z26" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="AA26" s="148"/>
-      <c r="AB26" s="148"/>
-      <c r="AC26" s="148"/>
-      <c r="AD26" s="149"/>
+      <c r="AA26" s="75"/>
+      <c r="AB26" s="75"/>
+      <c r="AC26" s="75"/>
+      <c r="AD26" s="76"/>
     </row>
     <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
@@ -2835,23 +2837,23 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="178" t="s">
+      <c r="G27" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="P27" s="72"/>
-      <c r="Q27" s="72"/>
-      <c r="R27" s="72"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="69"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="69"/>
       <c r="V27" s="59" t="s">
         <v>14</v>
       </c>
@@ -2859,149 +2861,149 @@
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="54"/>
-      <c r="AA27" s="148"/>
-      <c r="AB27" s="148"/>
-      <c r="AC27" s="148"/>
-      <c r="AD27" s="149"/>
+      <c r="AA27" s="75"/>
+      <c r="AB27" s="75"/>
+      <c r="AC27" s="75"/>
+      <c r="AD27" s="76"/>
     </row>
     <row r="28" spans="1:31" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="128"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="82"/>
-      <c r="U28" s="82"/>
-      <c r="V28" s="82"/>
-      <c r="W28" s="82"/>
-      <c r="X28" s="82"/>
-      <c r="Y28" s="82"/>
-      <c r="Z28" s="82"/>
-      <c r="AA28" s="82"/>
-      <c r="AB28" s="82"/>
-      <c r="AC28" s="82"/>
-      <c r="AD28" s="152"/>
+      <c r="A28" s="87"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="88"/>
+      <c r="T28" s="88"/>
+      <c r="U28" s="88"/>
+      <c r="V28" s="88"/>
+      <c r="W28" s="88"/>
+      <c r="X28" s="88"/>
+      <c r="Y28" s="88"/>
+      <c r="Z28" s="88"/>
+      <c r="AA28" s="88"/>
+      <c r="AB28" s="88"/>
+      <c r="AC28" s="88"/>
+      <c r="AD28" s="129"/>
     </row>
     <row r="29" spans="1:31" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="153" t="s">
+      <c r="A29" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="154"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="154"/>
-      <c r="E29" s="154"/>
+      <c r="B29" s="132"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
       <c r="F29" s="48"/>
       <c r="G29" s="45"/>
-      <c r="H29" s="69" t="s">
+      <c r="H29" s="122" t="s">
         <v>49</v>
       </c>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="68"/>
-      <c r="R29" s="68"/>
-      <c r="S29" s="68"/>
-      <c r="T29" s="68"/>
-      <c r="U29" s="68"/>
-      <c r="V29" s="68"/>
-      <c r="W29" s="68"/>
-      <c r="X29" s="68"/>
-      <c r="Y29" s="68"/>
-      <c r="Z29" s="68"/>
-      <c r="AA29" s="68"/>
-      <c r="AB29" s="68"/>
-      <c r="AC29" s="68"/>
-      <c r="AD29" s="70"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="123"/>
+      <c r="N29" s="123"/>
+      <c r="O29" s="123"/>
+      <c r="P29" s="123"/>
+      <c r="Q29" s="123"/>
+      <c r="R29" s="123"/>
+      <c r="S29" s="123"/>
+      <c r="T29" s="123"/>
+      <c r="U29" s="123"/>
+      <c r="V29" s="123"/>
+      <c r="W29" s="123"/>
+      <c r="X29" s="123"/>
+      <c r="Y29" s="123"/>
+      <c r="Z29" s="123"/>
+      <c r="AA29" s="123"/>
+      <c r="AB29" s="123"/>
+      <c r="AC29" s="123"/>
+      <c r="AD29" s="130"/>
       <c r="AE29" s="35"/>
     </row>
     <row r="30" spans="1:31" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="153"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="154"/>
-      <c r="E30" s="154"/>
+      <c r="A30" s="131"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="132"/>
       <c r="F30" s="48"/>
       <c r="G30" s="45"/>
-      <c r="H30" s="69" t="s">
+      <c r="H30" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="68"/>
-      <c r="S30" s="68"/>
-      <c r="T30" s="68"/>
-      <c r="U30" s="68"/>
-      <c r="V30" s="68"/>
-      <c r="W30" s="68"/>
-      <c r="X30" s="68"/>
-      <c r="Y30" s="68"/>
-      <c r="Z30" s="68"/>
-      <c r="AA30" s="68"/>
-      <c r="AB30" s="68"/>
-      <c r="AC30" s="68"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="123"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="123"/>
+      <c r="N30" s="123"/>
+      <c r="O30" s="123"/>
+      <c r="P30" s="123"/>
+      <c r="Q30" s="123"/>
+      <c r="R30" s="123"/>
+      <c r="S30" s="123"/>
+      <c r="T30" s="123"/>
+      <c r="U30" s="123"/>
+      <c r="V30" s="123"/>
+      <c r="W30" s="123"/>
+      <c r="X30" s="123"/>
+      <c r="Y30" s="123"/>
+      <c r="Z30" s="123"/>
+      <c r="AA30" s="123"/>
+      <c r="AB30" s="123"/>
+      <c r="AC30" s="123"/>
       <c r="AD30" s="60"/>
     </row>
     <row r="31" spans="1:31" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="153"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
+      <c r="A31" s="131"/>
+      <c r="B31" s="132"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="132"/>
       <c r="F31" s="48"/>
       <c r="G31" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="H31" s="69" t="s">
+      <c r="H31" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="68"/>
-      <c r="R31" s="68"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="68"/>
-      <c r="U31" s="68"/>
-      <c r="V31" s="68"/>
-      <c r="W31" s="68"/>
-      <c r="X31" s="68"/>
-      <c r="Y31" s="68"/>
-      <c r="Z31" s="68"/>
-      <c r="AA31" s="68"/>
-      <c r="AB31" s="68"/>
-      <c r="AC31" s="68"/>
-      <c r="AD31" s="70"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="123"/>
+      <c r="N31" s="123"/>
+      <c r="O31" s="123"/>
+      <c r="P31" s="123"/>
+      <c r="Q31" s="123"/>
+      <c r="R31" s="123"/>
+      <c r="S31" s="123"/>
+      <c r="T31" s="123"/>
+      <c r="U31" s="123"/>
+      <c r="V31" s="123"/>
+      <c r="W31" s="123"/>
+      <c r="X31" s="123"/>
+      <c r="Y31" s="123"/>
+      <c r="Z31" s="123"/>
+      <c r="AA31" s="123"/>
+      <c r="AB31" s="123"/>
+      <c r="AC31" s="123"/>
+      <c r="AD31" s="130"/>
     </row>
     <row r="32" spans="1:31" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
@@ -3036,56 +3038,56 @@
       <c r="AD32" s="34"/>
     </row>
     <row r="33" spans="1:30" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="155" t="s">
+      <c r="A33" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="156"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
       <c r="F33" s="48"/>
       <c r="G33" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="H33" s="69" t="s">
+      <c r="H33" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="123"/>
       <c r="K33" s="61"/>
       <c r="L33" s="61"/>
       <c r="M33" s="61"/>
       <c r="N33" s="61"/>
       <c r="O33" s="24"/>
       <c r="P33" s="35"/>
-      <c r="Q33" s="68"/>
-      <c r="R33" s="68"/>
+      <c r="Q33" s="123"/>
+      <c r="R33" s="123"/>
       <c r="S33" s="49"/>
       <c r="T33" s="16"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="71"/>
-      <c r="W33" s="68"/>
-      <c r="X33" s="68"/>
-      <c r="Y33" s="68"/>
-      <c r="Z33" s="68"/>
-      <c r="AA33" s="68"/>
-      <c r="AB33" s="68"/>
+      <c r="U33" s="185"/>
+      <c r="V33" s="185"/>
+      <c r="W33" s="123"/>
+      <c r="X33" s="123"/>
+      <c r="Y33" s="123"/>
+      <c r="Z33" s="123"/>
+      <c r="AA33" s="123"/>
+      <c r="AB33" s="123"/>
       <c r="AC33" s="35"/>
       <c r="AD33" s="50"/>
     </row>
     <row r="34" spans="1:30" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="155"/>
-      <c r="B34" s="156"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="156"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
       <c r="F34" s="24"/>
       <c r="G34" s="45"/>
-      <c r="H34" s="69" t="s">
+      <c r="H34" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="123"/>
       <c r="K34" s="62"/>
       <c r="L34" s="62"/>
       <c r="M34" s="62"/>
@@ -3108,22 +3110,22 @@
       <c r="AD34" s="50"/>
     </row>
     <row r="35" spans="1:30" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="155"/>
-      <c r="B35" s="156"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
       <c r="F35" s="24"/>
       <c r="G35" s="45"/>
-      <c r="H35" s="69" t="s">
+      <c r="H35" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="123"/>
+      <c r="K35" s="123"/>
+      <c r="L35" s="123"/>
+      <c r="M35" s="123"/>
+      <c r="N35" s="123"/>
       <c r="O35" s="24"/>
       <c r="P35" s="35"/>
       <c r="Q35" s="62"/>
@@ -3172,28 +3174,28 @@
       <c r="AD36" s="34"/>
     </row>
     <row r="37" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="155" t="s">
+      <c r="A37" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="156"/>
-      <c r="C37" s="156"/>
-      <c r="D37" s="156"/>
-      <c r="E37" s="156"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
       <c r="F37" s="48"/>
       <c r="G37" s="45"/>
-      <c r="H37" s="69" t="s">
+      <c r="H37" s="122" t="s">
         <v>38</v>
       </c>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="68"/>
-      <c r="N37" s="68"/>
-      <c r="O37" s="68"/>
-      <c r="P37" s="68"/>
-      <c r="Q37" s="68"/>
-      <c r="R37" s="68"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="123"/>
+      <c r="K37" s="123"/>
+      <c r="L37" s="123"/>
+      <c r="M37" s="123"/>
+      <c r="N37" s="123"/>
+      <c r="O37" s="123"/>
+      <c r="P37" s="123"/>
+      <c r="Q37" s="123"/>
+      <c r="R37" s="123"/>
       <c r="S37" s="61"/>
       <c r="T37" s="35"/>
       <c r="U37" s="35"/>
@@ -3208,26 +3210,26 @@
       <c r="AD37" s="34"/>
     </row>
     <row r="38" spans="1:30" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="155"/>
-      <c r="B38" s="156"/>
-      <c r="C38" s="156"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="67"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
       <c r="F38" s="51"/>
       <c r="G38" s="45"/>
-      <c r="H38" s="69" t="s">
+      <c r="H38" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="68"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="68"/>
-      <c r="Q38" s="68"/>
-      <c r="R38" s="68"/>
+      <c r="I38" s="123"/>
+      <c r="J38" s="123"/>
+      <c r="K38" s="123"/>
+      <c r="L38" s="123"/>
+      <c r="M38" s="123"/>
+      <c r="N38" s="123"/>
+      <c r="O38" s="123"/>
+      <c r="P38" s="123"/>
+      <c r="Q38" s="123"/>
+      <c r="R38" s="123"/>
       <c r="S38" s="62"/>
       <c r="T38" s="33"/>
       <c r="U38" s="33"/>
@@ -3242,27 +3244,27 @@
       <c r="AD38" s="34"/>
     </row>
     <row r="39" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="155"/>
-      <c r="B39" s="156"/>
-      <c r="C39" s="156"/>
-      <c r="D39" s="156"/>
-      <c r="E39" s="156"/>
+      <c r="A39" s="66"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
       <c r="F39" s="48"/>
       <c r="G39" s="45"/>
-      <c r="H39" s="69" t="s">
+      <c r="H39" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="68"/>
-      <c r="P39" s="68"/>
-      <c r="Q39" s="68"/>
-      <c r="R39" s="68"/>
-      <c r="S39" s="68"/>
+      <c r="I39" s="123"/>
+      <c r="J39" s="123"/>
+      <c r="K39" s="123"/>
+      <c r="L39" s="123"/>
+      <c r="M39" s="123"/>
+      <c r="N39" s="123"/>
+      <c r="O39" s="123"/>
+      <c r="P39" s="123"/>
+      <c r="Q39" s="123"/>
+      <c r="R39" s="123"/>
+      <c r="S39" s="123"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
@@ -3276,29 +3278,29 @@
       <c r="AD39" s="34"/>
     </row>
     <row r="40" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="155"/>
-      <c r="B40" s="156"/>
-      <c r="C40" s="156"/>
-      <c r="D40" s="156"/>
-      <c r="E40" s="156"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
       <c r="F40" s="48"/>
       <c r="G40" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="H40" s="69" t="s">
+      <c r="H40" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="68"/>
-      <c r="Q40" s="68"/>
-      <c r="R40" s="68"/>
-      <c r="S40" s="68"/>
+      <c r="I40" s="123"/>
+      <c r="J40" s="123"/>
+      <c r="K40" s="123"/>
+      <c r="L40" s="123"/>
+      <c r="M40" s="123"/>
+      <c r="N40" s="123"/>
+      <c r="O40" s="123"/>
+      <c r="P40" s="123"/>
+      <c r="Q40" s="123"/>
+      <c r="R40" s="123"/>
+      <c r="S40" s="123"/>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
@@ -3344,36 +3346,36 @@
       <c r="AD41" s="34"/>
     </row>
     <row r="42" spans="1:30" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="69" t="s">
+      <c r="A42" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
+      <c r="B42" s="123"/>
+      <c r="C42" s="123"/>
+      <c r="D42" s="123"/>
+      <c r="E42" s="123"/>
       <c r="F42" s="24"/>
-      <c r="G42" s="83" t="s">
+      <c r="G42" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="H42" s="84" t="s">
+      <c r="H42" s="125" t="s">
         <v>58</v>
       </c>
       <c r="I42" s="24"/>
-      <c r="J42" s="83" t="s">
+      <c r="J42" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="K42" s="84"/>
-      <c r="L42" s="83" t="s">
+      <c r="K42" s="125"/>
+      <c r="L42" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="M42" s="83"/>
-      <c r="N42" s="83"/>
-      <c r="O42" s="83"/>
-      <c r="P42" s="150"/>
-      <c r="Q42" s="150"/>
-      <c r="R42" s="150"/>
-      <c r="S42" s="150"/>
-      <c r="T42" s="150"/>
+      <c r="M42" s="133"/>
+      <c r="N42" s="133"/>
+      <c r="O42" s="133"/>
+      <c r="P42" s="127"/>
+      <c r="Q42" s="127"/>
+      <c r="R42" s="127"/>
+      <c r="S42" s="127"/>
+      <c r="T42" s="127"/>
       <c r="U42" s="52"/>
       <c r="V42" s="52"/>
       <c r="W42" s="52"/>
@@ -3386,26 +3388,26 @@
       <c r="AD42" s="50"/>
     </row>
     <row r="43" spans="1:30" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="69"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
+      <c r="A43" s="122"/>
+      <c r="B43" s="123"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="123"/>
+      <c r="E43" s="123"/>
       <c r="F43" s="24"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="85"/>
+      <c r="G43" s="133"/>
+      <c r="H43" s="126"/>
       <c r="I43" s="24"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="83"/>
-      <c r="N43" s="83"/>
-      <c r="O43" s="83"/>
-      <c r="P43" s="151"/>
-      <c r="Q43" s="151"/>
-      <c r="R43" s="151"/>
-      <c r="S43" s="151"/>
-      <c r="T43" s="151"/>
+      <c r="J43" s="133"/>
+      <c r="K43" s="126"/>
+      <c r="L43" s="133"/>
+      <c r="M43" s="133"/>
+      <c r="N43" s="133"/>
+      <c r="O43" s="133"/>
+      <c r="P43" s="128"/>
+      <c r="Q43" s="128"/>
+      <c r="R43" s="128"/>
+      <c r="S43" s="128"/>
+      <c r="T43" s="128"/>
       <c r="U43" s="52"/>
       <c r="V43" s="52"/>
       <c r="W43" s="52"/>
@@ -3594,13 +3596,13 @@
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
-      <c r="O49" s="72"/>
-      <c r="P49" s="72"/>
-      <c r="Q49" s="72"/>
-      <c r="R49" s="72"/>
-      <c r="S49" s="72"/>
-      <c r="T49" s="72"/>
-      <c r="U49" s="72"/>
+      <c r="O49" s="69"/>
+      <c r="P49" s="69"/>
+      <c r="Q49" s="69"/>
+      <c r="R49" s="69"/>
+      <c r="S49" s="69"/>
+      <c r="T49" s="69"/>
+      <c r="U49" s="69"/>
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
       <c r="X49" s="13"/>
@@ -3626,15 +3628,15 @@
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
-      <c r="O50" s="73" t="s">
+      <c r="O50" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="P50" s="73"/>
-      <c r="Q50" s="73"/>
-      <c r="R50" s="73"/>
-      <c r="S50" s="73"/>
-      <c r="T50" s="73"/>
-      <c r="U50" s="73"/>
+      <c r="P50" s="184"/>
+      <c r="Q50" s="184"/>
+      <c r="R50" s="184"/>
+      <c r="S50" s="184"/>
+      <c r="T50" s="184"/>
+      <c r="U50" s="184"/>
       <c r="V50" s="25"/>
       <c r="W50" s="22"/>
       <c r="X50" s="22"/>
@@ -3660,15 +3662,15 @@
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
-      <c r="O51" s="82" t="s">
+      <c r="O51" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="P51" s="82"/>
-      <c r="Q51" s="82"/>
-      <c r="R51" s="82"/>
-      <c r="S51" s="82"/>
-      <c r="T51" s="82"/>
-      <c r="U51" s="82"/>
+      <c r="P51" s="88"/>
+      <c r="Q51" s="88"/>
+      <c r="R51" s="88"/>
+      <c r="S51" s="88"/>
+      <c r="T51" s="88"/>
+      <c r="U51" s="88"/>
       <c r="V51" s="12"/>
       <c r="W51" s="21"/>
       <c r="X51" s="21"/>
@@ -3780,17 +3782,17 @@
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="72"/>
-      <c r="K55" s="72"/>
-      <c r="L55" s="72"/>
-      <c r="M55" s="72"/>
-      <c r="N55" s="72"/>
-      <c r="O55" s="72"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="69"/>
+      <c r="J55" s="69"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="69"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="69"/>
+      <c r="O55" s="69"/>
       <c r="P55" s="9"/>
       <c r="Q55" s="9"/>
       <c r="R55" s="9"/>
@@ -3810,74 +3812,74 @@
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
-      <c r="C56" s="74" t="s">
+      <c r="C56" s="178" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
-      <c r="G56" s="74"/>
-      <c r="H56" s="74"/>
-      <c r="I56" s="74"/>
-      <c r="J56" s="74"/>
-      <c r="K56" s="74"/>
-      <c r="L56" s="74"/>
-      <c r="M56" s="74"/>
-      <c r="N56" s="74"/>
-      <c r="O56" s="74"/>
-      <c r="P56" s="74"/>
+      <c r="D56" s="178"/>
+      <c r="E56" s="178"/>
+      <c r="F56" s="178"/>
+      <c r="G56" s="178"/>
+      <c r="H56" s="178"/>
+      <c r="I56" s="178"/>
+      <c r="J56" s="178"/>
+      <c r="K56" s="178"/>
+      <c r="L56" s="178"/>
+      <c r="M56" s="178"/>
+      <c r="N56" s="178"/>
+      <c r="O56" s="178"/>
+      <c r="P56" s="178"/>
       <c r="Q56" s="22"/>
       <c r="R56" s="9"/>
-      <c r="S56" s="75" t="s">
+      <c r="S56" s="180" t="s">
         <v>19</v>
       </c>
-      <c r="T56" s="75"/>
-      <c r="U56" s="75"/>
-      <c r="V56" s="75"/>
-      <c r="W56" s="75"/>
-      <c r="X56" s="76"/>
-      <c r="Y56" s="76"/>
-      <c r="Z56" s="76"/>
-      <c r="AA56" s="76"/>
-      <c r="AB56" s="76"/>
-      <c r="AC56" s="76"/>
-      <c r="AD56" s="77"/>
+      <c r="T56" s="180"/>
+      <c r="U56" s="180"/>
+      <c r="V56" s="180"/>
+      <c r="W56" s="180"/>
+      <c r="X56" s="181"/>
+      <c r="Y56" s="181"/>
+      <c r="Z56" s="181"/>
+      <c r="AA56" s="181"/>
+      <c r="AB56" s="181"/>
+      <c r="AC56" s="181"/>
+      <c r="AD56" s="182"/>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="9"/>
-      <c r="C57" s="67" t="s">
+      <c r="C57" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="67"/>
-      <c r="L57" s="67"/>
-      <c r="M57" s="67"/>
-      <c r="N57" s="67"/>
-      <c r="O57" s="67"/>
-      <c r="P57" s="67"/>
+      <c r="D57" s="179"/>
+      <c r="E57" s="179"/>
+      <c r="F57" s="179"/>
+      <c r="G57" s="179"/>
+      <c r="H57" s="179"/>
+      <c r="I57" s="179"/>
+      <c r="J57" s="179"/>
+      <c r="K57" s="179"/>
+      <c r="L57" s="179"/>
+      <c r="M57" s="179"/>
+      <c r="N57" s="179"/>
+      <c r="O57" s="179"/>
+      <c r="P57" s="179"/>
       <c r="Q57" s="32"/>
       <c r="R57" s="9"/>
-      <c r="S57" s="67" t="s">
+      <c r="S57" s="179" t="s">
         <v>65</v>
       </c>
-      <c r="T57" s="67"/>
-      <c r="U57" s="67"/>
-      <c r="V57" s="67"/>
-      <c r="W57" s="67"/>
-      <c r="X57" s="67"/>
-      <c r="Y57" s="67"/>
-      <c r="Z57" s="67"/>
-      <c r="AA57" s="67"/>
-      <c r="AB57" s="67"/>
-      <c r="AC57" s="67"/>
-      <c r="AD57" s="78"/>
+      <c r="T57" s="179"/>
+      <c r="U57" s="179"/>
+      <c r="V57" s="179"/>
+      <c r="W57" s="179"/>
+      <c r="X57" s="179"/>
+      <c r="Y57" s="179"/>
+      <c r="Z57" s="179"/>
+      <c r="AA57" s="179"/>
+      <c r="AB57" s="179"/>
+      <c r="AC57" s="179"/>
+      <c r="AD57" s="183"/>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -3989,14 +3991,14 @@
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
-      <c r="N61" s="72"/>
-      <c r="O61" s="72"/>
-      <c r="P61" s="72"/>
-      <c r="Q61" s="72"/>
-      <c r="R61" s="72"/>
-      <c r="S61" s="72"/>
-      <c r="T61" s="72"/>
-      <c r="U61" s="72"/>
+      <c r="N61" s="69"/>
+      <c r="O61" s="69"/>
+      <c r="P61" s="69"/>
+      <c r="Q61" s="69"/>
+      <c r="R61" s="69"/>
+      <c r="S61" s="69"/>
+      <c r="T61" s="69"/>
+      <c r="U61" s="69"/>
       <c r="V61" s="9"/>
       <c r="W61" s="9"/>
       <c r="X61" s="9"/>
@@ -4021,16 +4023,16 @@
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
-      <c r="N62" s="73" t="s">
+      <c r="N62" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="O62" s="73"/>
-      <c r="P62" s="73"/>
-      <c r="Q62" s="73"/>
-      <c r="R62" s="73"/>
-      <c r="S62" s="73"/>
-      <c r="T62" s="73"/>
-      <c r="U62" s="73"/>
+      <c r="O62" s="184"/>
+      <c r="P62" s="184"/>
+      <c r="Q62" s="184"/>
+      <c r="R62" s="184"/>
+      <c r="S62" s="184"/>
+      <c r="T62" s="184"/>
+      <c r="U62" s="184"/>
       <c r="V62" s="25"/>
       <c r="W62" s="22"/>
       <c r="X62" s="22"/>
@@ -4055,16 +4057,16 @@
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
-      <c r="N63" s="67" t="s">
+      <c r="N63" s="179" t="s">
         <v>54</v>
       </c>
-      <c r="O63" s="67"/>
-      <c r="P63" s="67"/>
-      <c r="Q63" s="67"/>
-      <c r="R63" s="67"/>
-      <c r="S63" s="67"/>
-      <c r="T63" s="67"/>
-      <c r="U63" s="67"/>
+      <c r="O63" s="179"/>
+      <c r="P63" s="179"/>
+      <c r="Q63" s="179"/>
+      <c r="R63" s="179"/>
+      <c r="S63" s="179"/>
+      <c r="T63" s="179"/>
+      <c r="U63" s="179"/>
       <c r="V63" s="11"/>
       <c r="W63" s="32"/>
       <c r="X63" s="32"/>
@@ -4076,1958 +4078,1958 @@
       <c r="AD63" s="10"/>
     </row>
     <row r="64" spans="1:30" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="116" t="s">
+      <c r="A64" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="117"/>
-      <c r="C64" s="117"/>
-      <c r="D64" s="117"/>
-      <c r="E64" s="117"/>
-      <c r="F64" s="117"/>
-      <c r="G64" s="117"/>
-      <c r="H64" s="117"/>
-      <c r="I64" s="117"/>
-      <c r="J64" s="117"/>
-      <c r="K64" s="117"/>
-      <c r="L64" s="117"/>
-      <c r="M64" s="117"/>
-      <c r="N64" s="117"/>
-      <c r="O64" s="117"/>
-      <c r="P64" s="117"/>
-      <c r="Q64" s="117"/>
-      <c r="R64" s="117"/>
-      <c r="S64" s="117"/>
-      <c r="T64" s="117"/>
-      <c r="U64" s="117"/>
-      <c r="V64" s="117"/>
-      <c r="W64" s="117"/>
-      <c r="X64" s="117"/>
-      <c r="Y64" s="117"/>
-      <c r="Z64" s="117"/>
-      <c r="AA64" s="117"/>
-      <c r="AB64" s="117"/>
-      <c r="AC64" s="117"/>
-      <c r="AD64" s="118"/>
+      <c r="B64" s="169"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="169"/>
+      <c r="E64" s="169"/>
+      <c r="F64" s="169"/>
+      <c r="G64" s="169"/>
+      <c r="H64" s="169"/>
+      <c r="I64" s="169"/>
+      <c r="J64" s="169"/>
+      <c r="K64" s="169"/>
+      <c r="L64" s="169"/>
+      <c r="M64" s="169"/>
+      <c r="N64" s="169"/>
+      <c r="O64" s="169"/>
+      <c r="P64" s="169"/>
+      <c r="Q64" s="169"/>
+      <c r="R64" s="169"/>
+      <c r="S64" s="169"/>
+      <c r="T64" s="169"/>
+      <c r="U64" s="169"/>
+      <c r="V64" s="169"/>
+      <c r="W64" s="169"/>
+      <c r="X64" s="169"/>
+      <c r="Y64" s="169"/>
+      <c r="Z64" s="169"/>
+      <c r="AA64" s="169"/>
+      <c r="AB64" s="169"/>
+      <c r="AC64" s="169"/>
+      <c r="AD64" s="170"/>
     </row>
     <row r="65" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="119"/>
-      <c r="B65" s="119"/>
-      <c r="C65" s="119"/>
-      <c r="D65" s="119"/>
-      <c r="E65" s="119"/>
-      <c r="F65" s="119"/>
-      <c r="G65" s="119"/>
-      <c r="H65" s="119"/>
-      <c r="I65" s="119"/>
-      <c r="J65" s="119"/>
-      <c r="K65" s="119"/>
-      <c r="L65" s="119"/>
-      <c r="M65" s="119"/>
-      <c r="N65" s="119"/>
-      <c r="O65" s="119"/>
-      <c r="P65" s="119"/>
-      <c r="Q65" s="119"/>
-      <c r="R65" s="119"/>
-      <c r="S65" s="119"/>
-      <c r="T65" s="119"/>
-      <c r="U65" s="119"/>
-      <c r="V65" s="119"/>
-      <c r="W65" s="119"/>
-      <c r="X65" s="119"/>
-      <c r="Y65" s="119"/>
-      <c r="Z65" s="119"/>
-      <c r="AA65" s="119"/>
-      <c r="AB65" s="119"/>
-      <c r="AC65" s="119"/>
-      <c r="AD65" s="119"/>
+      <c r="A65" s="171"/>
+      <c r="B65" s="171"/>
+      <c r="C65" s="171"/>
+      <c r="D65" s="171"/>
+      <c r="E65" s="171"/>
+      <c r="F65" s="171"/>
+      <c r="G65" s="171"/>
+      <c r="H65" s="171"/>
+      <c r="I65" s="171"/>
+      <c r="J65" s="171"/>
+      <c r="K65" s="171"/>
+      <c r="L65" s="171"/>
+      <c r="M65" s="171"/>
+      <c r="N65" s="171"/>
+      <c r="O65" s="171"/>
+      <c r="P65" s="171"/>
+      <c r="Q65" s="171"/>
+      <c r="R65" s="171"/>
+      <c r="S65" s="171"/>
+      <c r="T65" s="171"/>
+      <c r="U65" s="171"/>
+      <c r="V65" s="171"/>
+      <c r="W65" s="171"/>
+      <c r="X65" s="171"/>
+      <c r="Y65" s="171"/>
+      <c r="Z65" s="171"/>
+      <c r="AA65" s="171"/>
+      <c r="AB65" s="171"/>
+      <c r="AC65" s="171"/>
+      <c r="AD65" s="171"/>
     </row>
     <row r="66" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="126"/>
-      <c r="B66" s="127"/>
-      <c r="C66" s="127"/>
-      <c r="D66" s="127"/>
-      <c r="E66" s="127"/>
-      <c r="F66" s="127"/>
-      <c r="G66" s="127"/>
-      <c r="H66" s="127"/>
-      <c r="I66" s="127"/>
-      <c r="J66" s="127"/>
-      <c r="K66" s="131" t="s">
+      <c r="A66" s="85"/>
+      <c r="B66" s="86"/>
+      <c r="C66" s="86"/>
+      <c r="D66" s="86"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="H66" s="86"/>
+      <c r="I66" s="86"/>
+      <c r="J66" s="86"/>
+      <c r="K66" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="L66" s="132"/>
-      <c r="M66" s="132"/>
-      <c r="N66" s="132"/>
-      <c r="O66" s="132"/>
-      <c r="P66" s="132"/>
-      <c r="Q66" s="132"/>
-      <c r="R66" s="132"/>
-      <c r="S66" s="132"/>
-      <c r="T66" s="132"/>
-      <c r="U66" s="132"/>
-      <c r="V66" s="132"/>
-      <c r="W66" s="132"/>
-      <c r="X66" s="132"/>
-      <c r="Y66" s="132"/>
-      <c r="Z66" s="132"/>
-      <c r="AA66" s="132"/>
-      <c r="AB66" s="132"/>
-      <c r="AC66" s="133"/>
-      <c r="AD66" s="137">
+      <c r="L66" s="104"/>
+      <c r="M66" s="104"/>
+      <c r="N66" s="104"/>
+      <c r="O66" s="104"/>
+      <c r="P66" s="104"/>
+      <c r="Q66" s="104"/>
+      <c r="R66" s="104"/>
+      <c r="S66" s="104"/>
+      <c r="T66" s="104"/>
+      <c r="U66" s="104"/>
+      <c r="V66" s="104"/>
+      <c r="W66" s="104"/>
+      <c r="X66" s="104"/>
+      <c r="Y66" s="104"/>
+      <c r="Z66" s="104"/>
+      <c r="AA66" s="104"/>
+      <c r="AB66" s="104"/>
+      <c r="AC66" s="105"/>
+      <c r="AD66" s="101">
         <v>43063</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="128"/>
-      <c r="B67" s="82"/>
-      <c r="C67" s="82"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="82"/>
-      <c r="F67" s="82"/>
-      <c r="G67" s="82"/>
-      <c r="H67" s="82"/>
-      <c r="I67" s="82"/>
-      <c r="J67" s="82"/>
-      <c r="K67" s="134"/>
-      <c r="L67" s="135"/>
-      <c r="M67" s="135"/>
-      <c r="N67" s="135"/>
-      <c r="O67" s="135"/>
-      <c r="P67" s="135"/>
-      <c r="Q67" s="135"/>
-      <c r="R67" s="135"/>
-      <c r="S67" s="135"/>
-      <c r="T67" s="135"/>
-      <c r="U67" s="135"/>
-      <c r="V67" s="135"/>
-      <c r="W67" s="135"/>
-      <c r="X67" s="135"/>
-      <c r="Y67" s="135"/>
-      <c r="Z67" s="135"/>
-      <c r="AA67" s="135"/>
-      <c r="AB67" s="135"/>
-      <c r="AC67" s="136"/>
-      <c r="AD67" s="138"/>
+      <c r="A67" s="87"/>
+      <c r="B67" s="88"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="88"/>
+      <c r="E67" s="88"/>
+      <c r="F67" s="88"/>
+      <c r="G67" s="88"/>
+      <c r="H67" s="88"/>
+      <c r="I67" s="88"/>
+      <c r="J67" s="88"/>
+      <c r="K67" s="106"/>
+      <c r="L67" s="107"/>
+      <c r="M67" s="107"/>
+      <c r="N67" s="107"/>
+      <c r="O67" s="107"/>
+      <c r="P67" s="107"/>
+      <c r="Q67" s="107"/>
+      <c r="R67" s="107"/>
+      <c r="S67" s="107"/>
+      <c r="T67" s="107"/>
+      <c r="U67" s="107"/>
+      <c r="V67" s="107"/>
+      <c r="W67" s="107"/>
+      <c r="X67" s="107"/>
+      <c r="Y67" s="107"/>
+      <c r="Z67" s="107"/>
+      <c r="AA67" s="107"/>
+      <c r="AB67" s="107"/>
+      <c r="AC67" s="108"/>
+      <c r="AD67" s="102"/>
     </row>
     <row r="68" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="128"/>
-      <c r="B68" s="82"/>
-      <c r="C68" s="82"/>
-      <c r="D68" s="82"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="82"/>
-      <c r="G68" s="82"/>
-      <c r="H68" s="82"/>
-      <c r="I68" s="82"/>
-      <c r="J68" s="82"/>
-      <c r="K68" s="139" t="s">
+      <c r="A68" s="87"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="88"/>
+      <c r="E68" s="88"/>
+      <c r="F68" s="88"/>
+      <c r="G68" s="88"/>
+      <c r="H68" s="88"/>
+      <c r="I68" s="88"/>
+      <c r="J68" s="88"/>
+      <c r="K68" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="L68" s="140"/>
-      <c r="M68" s="140"/>
-      <c r="N68" s="140"/>
-      <c r="O68" s="140"/>
-      <c r="P68" s="140"/>
-      <c r="Q68" s="140"/>
-      <c r="R68" s="140"/>
-      <c r="S68" s="140"/>
-      <c r="T68" s="140"/>
-      <c r="U68" s="140"/>
-      <c r="V68" s="140"/>
-      <c r="W68" s="140"/>
-      <c r="X68" s="140"/>
-      <c r="Y68" s="140"/>
-      <c r="Z68" s="140"/>
-      <c r="AA68" s="140"/>
-      <c r="AB68" s="140"/>
-      <c r="AC68" s="141"/>
-      <c r="AD68" s="145" t="s">
+      <c r="L68" s="110"/>
+      <c r="M68" s="110"/>
+      <c r="N68" s="110"/>
+      <c r="O68" s="110"/>
+      <c r="P68" s="110"/>
+      <c r="Q68" s="110"/>
+      <c r="R68" s="110"/>
+      <c r="S68" s="110"/>
+      <c r="T68" s="110"/>
+      <c r="U68" s="110"/>
+      <c r="V68" s="110"/>
+      <c r="W68" s="110"/>
+      <c r="X68" s="110"/>
+      <c r="Y68" s="110"/>
+      <c r="Z68" s="110"/>
+      <c r="AA68" s="110"/>
+      <c r="AB68" s="110"/>
+      <c r="AC68" s="111"/>
+      <c r="AD68" s="99" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="129"/>
-      <c r="B69" s="130"/>
-      <c r="C69" s="130"/>
-      <c r="D69" s="130"/>
-      <c r="E69" s="130"/>
-      <c r="F69" s="130"/>
-      <c r="G69" s="130"/>
-      <c r="H69" s="130"/>
-      <c r="I69" s="130"/>
-      <c r="J69" s="130"/>
-      <c r="K69" s="142"/>
-      <c r="L69" s="143"/>
-      <c r="M69" s="143"/>
-      <c r="N69" s="143"/>
-      <c r="O69" s="143"/>
-      <c r="P69" s="143"/>
-      <c r="Q69" s="143"/>
-      <c r="R69" s="143"/>
-      <c r="S69" s="143"/>
-      <c r="T69" s="143"/>
-      <c r="U69" s="143"/>
-      <c r="V69" s="143"/>
-      <c r="W69" s="143"/>
-      <c r="X69" s="143"/>
-      <c r="Y69" s="143"/>
-      <c r="Z69" s="143"/>
-      <c r="AA69" s="143"/>
-      <c r="AB69" s="143"/>
-      <c r="AC69" s="144"/>
-      <c r="AD69" s="146"/>
+      <c r="A69" s="89"/>
+      <c r="B69" s="90"/>
+      <c r="C69" s="90"/>
+      <c r="D69" s="90"/>
+      <c r="E69" s="90"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="90"/>
+      <c r="I69" s="90"/>
+      <c r="J69" s="90"/>
+      <c r="K69" s="112"/>
+      <c r="L69" s="113"/>
+      <c r="M69" s="113"/>
+      <c r="N69" s="113"/>
+      <c r="O69" s="113"/>
+      <c r="P69" s="113"/>
+      <c r="Q69" s="113"/>
+      <c r="R69" s="113"/>
+      <c r="S69" s="113"/>
+      <c r="T69" s="113"/>
+      <c r="U69" s="113"/>
+      <c r="V69" s="113"/>
+      <c r="W69" s="113"/>
+      <c r="X69" s="113"/>
+      <c r="Y69" s="113"/>
+      <c r="Z69" s="113"/>
+      <c r="AA69" s="113"/>
+      <c r="AB69" s="113"/>
+      <c r="AC69" s="114"/>
+      <c r="AD69" s="100"/>
     </row>
     <row r="70" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="120" t="s">
+      <c r="A70" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="B70" s="121"/>
-      <c r="C70" s="121"/>
-      <c r="D70" s="121"/>
-      <c r="E70" s="121"/>
-      <c r="F70" s="121"/>
-      <c r="G70" s="121"/>
-      <c r="H70" s="121"/>
-      <c r="I70" s="121"/>
-      <c r="J70" s="121"/>
-      <c r="K70" s="121"/>
-      <c r="L70" s="121"/>
-      <c r="M70" s="121"/>
-      <c r="N70" s="121"/>
-      <c r="O70" s="121"/>
-      <c r="P70" s="121"/>
-      <c r="Q70" s="121"/>
-      <c r="R70" s="121"/>
-      <c r="S70" s="121"/>
-      <c r="T70" s="121"/>
-      <c r="U70" s="121"/>
-      <c r="V70" s="121"/>
-      <c r="W70" s="121"/>
-      <c r="X70" s="121"/>
-      <c r="Y70" s="121"/>
-      <c r="Z70" s="121"/>
-      <c r="AA70" s="121"/>
-      <c r="AB70" s="121"/>
-      <c r="AC70" s="121"/>
-      <c r="AD70" s="122"/>
+      <c r="B70" s="173"/>
+      <c r="C70" s="173"/>
+      <c r="D70" s="173"/>
+      <c r="E70" s="173"/>
+      <c r="F70" s="173"/>
+      <c r="G70" s="173"/>
+      <c r="H70" s="173"/>
+      <c r="I70" s="173"/>
+      <c r="J70" s="173"/>
+      <c r="K70" s="173"/>
+      <c r="L70" s="173"/>
+      <c r="M70" s="173"/>
+      <c r="N70" s="173"/>
+      <c r="O70" s="173"/>
+      <c r="P70" s="173"/>
+      <c r="Q70" s="173"/>
+      <c r="R70" s="173"/>
+      <c r="S70" s="173"/>
+      <c r="T70" s="173"/>
+      <c r="U70" s="173"/>
+      <c r="V70" s="173"/>
+      <c r="W70" s="173"/>
+      <c r="X70" s="173"/>
+      <c r="Y70" s="173"/>
+      <c r="Z70" s="173"/>
+      <c r="AA70" s="173"/>
+      <c r="AB70" s="173"/>
+      <c r="AC70" s="173"/>
+      <c r="AD70" s="174"/>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A71" s="123" t="s">
+      <c r="A71" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="B71" s="124"/>
-      <c r="C71" s="124"/>
-      <c r="D71" s="124"/>
-      <c r="E71" s="124"/>
-      <c r="F71" s="124"/>
-      <c r="G71" s="124"/>
-      <c r="H71" s="124"/>
-      <c r="I71" s="124"/>
-      <c r="J71" s="124"/>
-      <c r="K71" s="124"/>
-      <c r="L71" s="124"/>
-      <c r="M71" s="124"/>
-      <c r="N71" s="124"/>
-      <c r="O71" s="124"/>
-      <c r="P71" s="124"/>
-      <c r="Q71" s="124"/>
-      <c r="R71" s="124"/>
-      <c r="S71" s="124"/>
-      <c r="T71" s="124"/>
-      <c r="U71" s="124"/>
-      <c r="V71" s="124"/>
-      <c r="W71" s="124"/>
-      <c r="X71" s="124"/>
-      <c r="Y71" s="124"/>
-      <c r="Z71" s="124"/>
-      <c r="AA71" s="124"/>
-      <c r="AB71" s="124"/>
-      <c r="AC71" s="124"/>
-      <c r="AD71" s="125"/>
+      <c r="B71" s="176"/>
+      <c r="C71" s="176"/>
+      <c r="D71" s="176"/>
+      <c r="E71" s="176"/>
+      <c r="F71" s="176"/>
+      <c r="G71" s="176"/>
+      <c r="H71" s="176"/>
+      <c r="I71" s="176"/>
+      <c r="J71" s="176"/>
+      <c r="K71" s="176"/>
+      <c r="L71" s="176"/>
+      <c r="M71" s="176"/>
+      <c r="N71" s="176"/>
+      <c r="O71" s="176"/>
+      <c r="P71" s="176"/>
+      <c r="Q71" s="176"/>
+      <c r="R71" s="176"/>
+      <c r="S71" s="176"/>
+      <c r="T71" s="176"/>
+      <c r="U71" s="176"/>
+      <c r="V71" s="176"/>
+      <c r="W71" s="176"/>
+      <c r="X71" s="176"/>
+      <c r="Y71" s="176"/>
+      <c r="Z71" s="176"/>
+      <c r="AA71" s="176"/>
+      <c r="AB71" s="176"/>
+      <c r="AC71" s="176"/>
+      <c r="AD71" s="177"/>
     </row>
     <row r="72" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="107" t="s">
+      <c r="A72" s="159" t="s">
         <v>66</v>
       </c>
-      <c r="B72" s="108"/>
-      <c r="C72" s="108"/>
-      <c r="D72" s="108"/>
-      <c r="E72" s="108"/>
-      <c r="F72" s="108"/>
-      <c r="G72" s="108"/>
-      <c r="H72" s="108"/>
-      <c r="I72" s="108"/>
-      <c r="J72" s="108"/>
-      <c r="K72" s="108"/>
-      <c r="L72" s="108"/>
-      <c r="M72" s="108"/>
-      <c r="N72" s="108"/>
-      <c r="O72" s="108"/>
-      <c r="P72" s="108"/>
-      <c r="Q72" s="108"/>
-      <c r="R72" s="108"/>
-      <c r="S72" s="108"/>
-      <c r="T72" s="108"/>
-      <c r="U72" s="108"/>
-      <c r="V72" s="108"/>
-      <c r="W72" s="108"/>
-      <c r="X72" s="108"/>
-      <c r="Y72" s="108"/>
-      <c r="Z72" s="108"/>
-      <c r="AA72" s="108"/>
-      <c r="AB72" s="108"/>
-      <c r="AC72" s="108"/>
-      <c r="AD72" s="109"/>
+      <c r="B72" s="160"/>
+      <c r="C72" s="160"/>
+      <c r="D72" s="160"/>
+      <c r="E72" s="160"/>
+      <c r="F72" s="160"/>
+      <c r="G72" s="160"/>
+      <c r="H72" s="160"/>
+      <c r="I72" s="160"/>
+      <c r="J72" s="160"/>
+      <c r="K72" s="160"/>
+      <c r="L72" s="160"/>
+      <c r="M72" s="160"/>
+      <c r="N72" s="160"/>
+      <c r="O72" s="160"/>
+      <c r="P72" s="160"/>
+      <c r="Q72" s="160"/>
+      <c r="R72" s="160"/>
+      <c r="S72" s="160"/>
+      <c r="T72" s="160"/>
+      <c r="U72" s="160"/>
+      <c r="V72" s="160"/>
+      <c r="W72" s="160"/>
+      <c r="X72" s="160"/>
+      <c r="Y72" s="160"/>
+      <c r="Z72" s="160"/>
+      <c r="AA72" s="160"/>
+      <c r="AB72" s="160"/>
+      <c r="AC72" s="160"/>
+      <c r="AD72" s="161"/>
     </row>
     <row r="73" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="110"/>
-      <c r="B73" s="111"/>
-      <c r="C73" s="111"/>
-      <c r="D73" s="111"/>
-      <c r="E73" s="111"/>
-      <c r="F73" s="111"/>
-      <c r="G73" s="111"/>
-      <c r="H73" s="111"/>
-      <c r="I73" s="111"/>
-      <c r="J73" s="111"/>
-      <c r="K73" s="111"/>
-      <c r="L73" s="111"/>
-      <c r="M73" s="111"/>
-      <c r="N73" s="111"/>
-      <c r="O73" s="111"/>
-      <c r="P73" s="111"/>
-      <c r="Q73" s="111"/>
-      <c r="R73" s="111"/>
-      <c r="S73" s="111"/>
-      <c r="T73" s="111"/>
-      <c r="U73" s="111"/>
-      <c r="V73" s="111"/>
-      <c r="W73" s="111"/>
-      <c r="X73" s="111"/>
-      <c r="Y73" s="111"/>
-      <c r="Z73" s="111"/>
-      <c r="AA73" s="111"/>
-      <c r="AB73" s="111"/>
-      <c r="AC73" s="111"/>
-      <c r="AD73" s="112"/>
+      <c r="A73" s="162"/>
+      <c r="B73" s="163"/>
+      <c r="C73" s="163"/>
+      <c r="D73" s="163"/>
+      <c r="E73" s="163"/>
+      <c r="F73" s="163"/>
+      <c r="G73" s="163"/>
+      <c r="H73" s="163"/>
+      <c r="I73" s="163"/>
+      <c r="J73" s="163"/>
+      <c r="K73" s="163"/>
+      <c r="L73" s="163"/>
+      <c r="M73" s="163"/>
+      <c r="N73" s="163"/>
+      <c r="O73" s="163"/>
+      <c r="P73" s="163"/>
+      <c r="Q73" s="163"/>
+      <c r="R73" s="163"/>
+      <c r="S73" s="163"/>
+      <c r="T73" s="163"/>
+      <c r="U73" s="163"/>
+      <c r="V73" s="163"/>
+      <c r="W73" s="163"/>
+      <c r="X73" s="163"/>
+      <c r="Y73" s="163"/>
+      <c r="Z73" s="163"/>
+      <c r="AA73" s="163"/>
+      <c r="AB73" s="163"/>
+      <c r="AC73" s="163"/>
+      <c r="AD73" s="164"/>
     </row>
     <row r="74" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="110"/>
-      <c r="B74" s="111"/>
-      <c r="C74" s="111"/>
-      <c r="D74" s="111"/>
-      <c r="E74" s="111"/>
-      <c r="F74" s="111"/>
-      <c r="G74" s="111"/>
-      <c r="H74" s="111"/>
-      <c r="I74" s="111"/>
-      <c r="J74" s="111"/>
-      <c r="K74" s="111"/>
-      <c r="L74" s="111"/>
-      <c r="M74" s="111"/>
-      <c r="N74" s="111"/>
-      <c r="O74" s="111"/>
-      <c r="P74" s="111"/>
-      <c r="Q74" s="111"/>
-      <c r="R74" s="111"/>
-      <c r="S74" s="111"/>
-      <c r="T74" s="111"/>
-      <c r="U74" s="111"/>
-      <c r="V74" s="111"/>
-      <c r="W74" s="111"/>
-      <c r="X74" s="111"/>
-      <c r="Y74" s="111"/>
-      <c r="Z74" s="111"/>
-      <c r="AA74" s="111"/>
-      <c r="AB74" s="111"/>
-      <c r="AC74" s="111"/>
-      <c r="AD74" s="112"/>
+      <c r="A74" s="162"/>
+      <c r="B74" s="163"/>
+      <c r="C74" s="163"/>
+      <c r="D74" s="163"/>
+      <c r="E74" s="163"/>
+      <c r="F74" s="163"/>
+      <c r="G74" s="163"/>
+      <c r="H74" s="163"/>
+      <c r="I74" s="163"/>
+      <c r="J74" s="163"/>
+      <c r="K74" s="163"/>
+      <c r="L74" s="163"/>
+      <c r="M74" s="163"/>
+      <c r="N74" s="163"/>
+      <c r="O74" s="163"/>
+      <c r="P74" s="163"/>
+      <c r="Q74" s="163"/>
+      <c r="R74" s="163"/>
+      <c r="S74" s="163"/>
+      <c r="T74" s="163"/>
+      <c r="U74" s="163"/>
+      <c r="V74" s="163"/>
+      <c r="W74" s="163"/>
+      <c r="X74" s="163"/>
+      <c r="Y74" s="163"/>
+      <c r="Z74" s="163"/>
+      <c r="AA74" s="163"/>
+      <c r="AB74" s="163"/>
+      <c r="AC74" s="163"/>
+      <c r="AD74" s="164"/>
     </row>
     <row r="75" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="110"/>
-      <c r="B75" s="111"/>
-      <c r="C75" s="111"/>
-      <c r="D75" s="111"/>
-      <c r="E75" s="111"/>
-      <c r="F75" s="111"/>
-      <c r="G75" s="111"/>
-      <c r="H75" s="111"/>
-      <c r="I75" s="111"/>
-      <c r="J75" s="111"/>
-      <c r="K75" s="111"/>
-      <c r="L75" s="111"/>
-      <c r="M75" s="111"/>
-      <c r="N75" s="111"/>
-      <c r="O75" s="111"/>
-      <c r="P75" s="111"/>
-      <c r="Q75" s="111"/>
-      <c r="R75" s="111"/>
-      <c r="S75" s="111"/>
-      <c r="T75" s="111"/>
-      <c r="U75" s="111"/>
-      <c r="V75" s="111"/>
-      <c r="W75" s="111"/>
-      <c r="X75" s="111"/>
-      <c r="Y75" s="111"/>
-      <c r="Z75" s="111"/>
-      <c r="AA75" s="111"/>
-      <c r="AB75" s="111"/>
-      <c r="AC75" s="111"/>
-      <c r="AD75" s="112"/>
+      <c r="A75" s="162"/>
+      <c r="B75" s="163"/>
+      <c r="C75" s="163"/>
+      <c r="D75" s="163"/>
+      <c r="E75" s="163"/>
+      <c r="F75" s="163"/>
+      <c r="G75" s="163"/>
+      <c r="H75" s="163"/>
+      <c r="I75" s="163"/>
+      <c r="J75" s="163"/>
+      <c r="K75" s="163"/>
+      <c r="L75" s="163"/>
+      <c r="M75" s="163"/>
+      <c r="N75" s="163"/>
+      <c r="O75" s="163"/>
+      <c r="P75" s="163"/>
+      <c r="Q75" s="163"/>
+      <c r="R75" s="163"/>
+      <c r="S75" s="163"/>
+      <c r="T75" s="163"/>
+      <c r="U75" s="163"/>
+      <c r="V75" s="163"/>
+      <c r="W75" s="163"/>
+      <c r="X75" s="163"/>
+      <c r="Y75" s="163"/>
+      <c r="Z75" s="163"/>
+      <c r="AA75" s="163"/>
+      <c r="AB75" s="163"/>
+      <c r="AC75" s="163"/>
+      <c r="AD75" s="164"/>
     </row>
     <row r="76" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="110"/>
-      <c r="B76" s="111"/>
-      <c r="C76" s="111"/>
-      <c r="D76" s="111"/>
-      <c r="E76" s="111"/>
-      <c r="F76" s="111"/>
-      <c r="G76" s="111"/>
-      <c r="H76" s="111"/>
-      <c r="I76" s="111"/>
-      <c r="J76" s="111"/>
-      <c r="K76" s="111"/>
-      <c r="L76" s="111"/>
-      <c r="M76" s="111"/>
-      <c r="N76" s="111"/>
-      <c r="O76" s="111"/>
-      <c r="P76" s="111"/>
-      <c r="Q76" s="111"/>
-      <c r="R76" s="111"/>
-      <c r="S76" s="111"/>
-      <c r="T76" s="111"/>
-      <c r="U76" s="111"/>
-      <c r="V76" s="111"/>
-      <c r="W76" s="111"/>
-      <c r="X76" s="111"/>
-      <c r="Y76" s="111"/>
-      <c r="Z76" s="111"/>
-      <c r="AA76" s="111"/>
-      <c r="AB76" s="111"/>
-      <c r="AC76" s="111"/>
-      <c r="AD76" s="112"/>
+      <c r="A76" s="162"/>
+      <c r="B76" s="163"/>
+      <c r="C76" s="163"/>
+      <c r="D76" s="163"/>
+      <c r="E76" s="163"/>
+      <c r="F76" s="163"/>
+      <c r="G76" s="163"/>
+      <c r="H76" s="163"/>
+      <c r="I76" s="163"/>
+      <c r="J76" s="163"/>
+      <c r="K76" s="163"/>
+      <c r="L76" s="163"/>
+      <c r="M76" s="163"/>
+      <c r="N76" s="163"/>
+      <c r="O76" s="163"/>
+      <c r="P76" s="163"/>
+      <c r="Q76" s="163"/>
+      <c r="R76" s="163"/>
+      <c r="S76" s="163"/>
+      <c r="T76" s="163"/>
+      <c r="U76" s="163"/>
+      <c r="V76" s="163"/>
+      <c r="W76" s="163"/>
+      <c r="X76" s="163"/>
+      <c r="Y76" s="163"/>
+      <c r="Z76" s="163"/>
+      <c r="AA76" s="163"/>
+      <c r="AB76" s="163"/>
+      <c r="AC76" s="163"/>
+      <c r="AD76" s="164"/>
     </row>
     <row r="77" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="110"/>
-      <c r="B77" s="111"/>
-      <c r="C77" s="111"/>
-      <c r="D77" s="111"/>
-      <c r="E77" s="111"/>
-      <c r="F77" s="111"/>
-      <c r="G77" s="111"/>
-      <c r="H77" s="111"/>
-      <c r="I77" s="111"/>
-      <c r="J77" s="111"/>
-      <c r="K77" s="111"/>
-      <c r="L77" s="111"/>
-      <c r="M77" s="111"/>
-      <c r="N77" s="111"/>
-      <c r="O77" s="111"/>
-      <c r="P77" s="111"/>
-      <c r="Q77" s="111"/>
-      <c r="R77" s="111"/>
-      <c r="S77" s="111"/>
-      <c r="T77" s="111"/>
-      <c r="U77" s="111"/>
-      <c r="V77" s="111"/>
-      <c r="W77" s="111"/>
-      <c r="X77" s="111"/>
-      <c r="Y77" s="111"/>
-      <c r="Z77" s="111"/>
-      <c r="AA77" s="111"/>
-      <c r="AB77" s="111"/>
-      <c r="AC77" s="111"/>
-      <c r="AD77" s="112"/>
+      <c r="A77" s="162"/>
+      <c r="B77" s="163"/>
+      <c r="C77" s="163"/>
+      <c r="D77" s="163"/>
+      <c r="E77" s="163"/>
+      <c r="F77" s="163"/>
+      <c r="G77" s="163"/>
+      <c r="H77" s="163"/>
+      <c r="I77" s="163"/>
+      <c r="J77" s="163"/>
+      <c r="K77" s="163"/>
+      <c r="L77" s="163"/>
+      <c r="M77" s="163"/>
+      <c r="N77" s="163"/>
+      <c r="O77" s="163"/>
+      <c r="P77" s="163"/>
+      <c r="Q77" s="163"/>
+      <c r="R77" s="163"/>
+      <c r="S77" s="163"/>
+      <c r="T77" s="163"/>
+      <c r="U77" s="163"/>
+      <c r="V77" s="163"/>
+      <c r="W77" s="163"/>
+      <c r="X77" s="163"/>
+      <c r="Y77" s="163"/>
+      <c r="Z77" s="163"/>
+      <c r="AA77" s="163"/>
+      <c r="AB77" s="163"/>
+      <c r="AC77" s="163"/>
+      <c r="AD77" s="164"/>
     </row>
     <row r="78" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="110"/>
-      <c r="B78" s="111"/>
-      <c r="C78" s="111"/>
-      <c r="D78" s="111"/>
-      <c r="E78" s="111"/>
-      <c r="F78" s="111"/>
-      <c r="G78" s="111"/>
-      <c r="H78" s="111"/>
-      <c r="I78" s="111"/>
-      <c r="J78" s="111"/>
-      <c r="K78" s="111"/>
-      <c r="L78" s="111"/>
-      <c r="M78" s="111"/>
-      <c r="N78" s="111"/>
-      <c r="O78" s="111"/>
-      <c r="P78" s="111"/>
-      <c r="Q78" s="111"/>
-      <c r="R78" s="111"/>
-      <c r="S78" s="111"/>
-      <c r="T78" s="111"/>
-      <c r="U78" s="111"/>
-      <c r="V78" s="111"/>
-      <c r="W78" s="111"/>
-      <c r="X78" s="111"/>
-      <c r="Y78" s="111"/>
-      <c r="Z78" s="111"/>
-      <c r="AA78" s="111"/>
-      <c r="AB78" s="111"/>
-      <c r="AC78" s="111"/>
-      <c r="AD78" s="112"/>
+      <c r="A78" s="162"/>
+      <c r="B78" s="163"/>
+      <c r="C78" s="163"/>
+      <c r="D78" s="163"/>
+      <c r="E78" s="163"/>
+      <c r="F78" s="163"/>
+      <c r="G78" s="163"/>
+      <c r="H78" s="163"/>
+      <c r="I78" s="163"/>
+      <c r="J78" s="163"/>
+      <c r="K78" s="163"/>
+      <c r="L78" s="163"/>
+      <c r="M78" s="163"/>
+      <c r="N78" s="163"/>
+      <c r="O78" s="163"/>
+      <c r="P78" s="163"/>
+      <c r="Q78" s="163"/>
+      <c r="R78" s="163"/>
+      <c r="S78" s="163"/>
+      <c r="T78" s="163"/>
+      <c r="U78" s="163"/>
+      <c r="V78" s="163"/>
+      <c r="W78" s="163"/>
+      <c r="X78" s="163"/>
+      <c r="Y78" s="163"/>
+      <c r="Z78" s="163"/>
+      <c r="AA78" s="163"/>
+      <c r="AB78" s="163"/>
+      <c r="AC78" s="163"/>
+      <c r="AD78" s="164"/>
     </row>
     <row r="79" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="110"/>
-      <c r="B79" s="111"/>
-      <c r="C79" s="111"/>
-      <c r="D79" s="111"/>
-      <c r="E79" s="111"/>
-      <c r="F79" s="111"/>
-      <c r="G79" s="111"/>
-      <c r="H79" s="111"/>
-      <c r="I79" s="111"/>
-      <c r="J79" s="111"/>
-      <c r="K79" s="111"/>
-      <c r="L79" s="111"/>
-      <c r="M79" s="111"/>
-      <c r="N79" s="111"/>
-      <c r="O79" s="111"/>
-      <c r="P79" s="111"/>
-      <c r="Q79" s="111"/>
-      <c r="R79" s="111"/>
-      <c r="S79" s="111"/>
-      <c r="T79" s="111"/>
-      <c r="U79" s="111"/>
-      <c r="V79" s="111"/>
-      <c r="W79" s="111"/>
-      <c r="X79" s="111"/>
-      <c r="Y79" s="111"/>
-      <c r="Z79" s="111"/>
-      <c r="AA79" s="111"/>
-      <c r="AB79" s="111"/>
-      <c r="AC79" s="111"/>
-      <c r="AD79" s="112"/>
+      <c r="A79" s="162"/>
+      <c r="B79" s="163"/>
+      <c r="C79" s="163"/>
+      <c r="D79" s="163"/>
+      <c r="E79" s="163"/>
+      <c r="F79" s="163"/>
+      <c r="G79" s="163"/>
+      <c r="H79" s="163"/>
+      <c r="I79" s="163"/>
+      <c r="J79" s="163"/>
+      <c r="K79" s="163"/>
+      <c r="L79" s="163"/>
+      <c r="M79" s="163"/>
+      <c r="N79" s="163"/>
+      <c r="O79" s="163"/>
+      <c r="P79" s="163"/>
+      <c r="Q79" s="163"/>
+      <c r="R79" s="163"/>
+      <c r="S79" s="163"/>
+      <c r="T79" s="163"/>
+      <c r="U79" s="163"/>
+      <c r="V79" s="163"/>
+      <c r="W79" s="163"/>
+      <c r="X79" s="163"/>
+      <c r="Y79" s="163"/>
+      <c r="Z79" s="163"/>
+      <c r="AA79" s="163"/>
+      <c r="AB79" s="163"/>
+      <c r="AC79" s="163"/>
+      <c r="AD79" s="164"/>
     </row>
     <row r="80" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="110"/>
-      <c r="B80" s="111"/>
-      <c r="C80" s="111"/>
-      <c r="D80" s="111"/>
-      <c r="E80" s="111"/>
-      <c r="F80" s="111"/>
-      <c r="G80" s="111"/>
-      <c r="H80" s="111"/>
-      <c r="I80" s="111"/>
-      <c r="J80" s="111"/>
-      <c r="K80" s="111"/>
-      <c r="L80" s="111"/>
-      <c r="M80" s="111"/>
-      <c r="N80" s="111"/>
-      <c r="O80" s="111"/>
-      <c r="P80" s="111"/>
-      <c r="Q80" s="111"/>
-      <c r="R80" s="111"/>
-      <c r="S80" s="111"/>
-      <c r="T80" s="111"/>
-      <c r="U80" s="111"/>
-      <c r="V80" s="111"/>
-      <c r="W80" s="111"/>
-      <c r="X80" s="111"/>
-      <c r="Y80" s="111"/>
-      <c r="Z80" s="111"/>
-      <c r="AA80" s="111"/>
-      <c r="AB80" s="111"/>
-      <c r="AC80" s="111"/>
-      <c r="AD80" s="112"/>
+      <c r="A80" s="162"/>
+      <c r="B80" s="163"/>
+      <c r="C80" s="163"/>
+      <c r="D80" s="163"/>
+      <c r="E80" s="163"/>
+      <c r="F80" s="163"/>
+      <c r="G80" s="163"/>
+      <c r="H80" s="163"/>
+      <c r="I80" s="163"/>
+      <c r="J80" s="163"/>
+      <c r="K80" s="163"/>
+      <c r="L80" s="163"/>
+      <c r="M80" s="163"/>
+      <c r="N80" s="163"/>
+      <c r="O80" s="163"/>
+      <c r="P80" s="163"/>
+      <c r="Q80" s="163"/>
+      <c r="R80" s="163"/>
+      <c r="S80" s="163"/>
+      <c r="T80" s="163"/>
+      <c r="U80" s="163"/>
+      <c r="V80" s="163"/>
+      <c r="W80" s="163"/>
+      <c r="X80" s="163"/>
+      <c r="Y80" s="163"/>
+      <c r="Z80" s="163"/>
+      <c r="AA80" s="163"/>
+      <c r="AB80" s="163"/>
+      <c r="AC80" s="163"/>
+      <c r="AD80" s="164"/>
     </row>
     <row r="81" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="110"/>
-      <c r="B81" s="111"/>
-      <c r="C81" s="111"/>
-      <c r="D81" s="111"/>
-      <c r="E81" s="111"/>
-      <c r="F81" s="111"/>
-      <c r="G81" s="111"/>
-      <c r="H81" s="111"/>
-      <c r="I81" s="111"/>
-      <c r="J81" s="111"/>
-      <c r="K81" s="111"/>
-      <c r="L81" s="111"/>
-      <c r="M81" s="111"/>
-      <c r="N81" s="111"/>
-      <c r="O81" s="111"/>
-      <c r="P81" s="111"/>
-      <c r="Q81" s="111"/>
-      <c r="R81" s="111"/>
-      <c r="S81" s="111"/>
-      <c r="T81" s="111"/>
-      <c r="U81" s="111"/>
-      <c r="V81" s="111"/>
-      <c r="W81" s="111"/>
-      <c r="X81" s="111"/>
-      <c r="Y81" s="111"/>
-      <c r="Z81" s="111"/>
-      <c r="AA81" s="111"/>
-      <c r="AB81" s="111"/>
-      <c r="AC81" s="111"/>
-      <c r="AD81" s="112"/>
+      <c r="A81" s="162"/>
+      <c r="B81" s="163"/>
+      <c r="C81" s="163"/>
+      <c r="D81" s="163"/>
+      <c r="E81" s="163"/>
+      <c r="F81" s="163"/>
+      <c r="G81" s="163"/>
+      <c r="H81" s="163"/>
+      <c r="I81" s="163"/>
+      <c r="J81" s="163"/>
+      <c r="K81" s="163"/>
+      <c r="L81" s="163"/>
+      <c r="M81" s="163"/>
+      <c r="N81" s="163"/>
+      <c r="O81" s="163"/>
+      <c r="P81" s="163"/>
+      <c r="Q81" s="163"/>
+      <c r="R81" s="163"/>
+      <c r="S81" s="163"/>
+      <c r="T81" s="163"/>
+      <c r="U81" s="163"/>
+      <c r="V81" s="163"/>
+      <c r="W81" s="163"/>
+      <c r="X81" s="163"/>
+      <c r="Y81" s="163"/>
+      <c r="Z81" s="163"/>
+      <c r="AA81" s="163"/>
+      <c r="AB81" s="163"/>
+      <c r="AC81" s="163"/>
+      <c r="AD81" s="164"/>
     </row>
     <row r="82" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="113"/>
-      <c r="B82" s="114"/>
-      <c r="C82" s="114"/>
-      <c r="D82" s="114"/>
-      <c r="E82" s="114"/>
-      <c r="F82" s="114"/>
-      <c r="G82" s="114"/>
-      <c r="H82" s="114"/>
-      <c r="I82" s="114"/>
-      <c r="J82" s="114"/>
-      <c r="K82" s="114"/>
-      <c r="L82" s="114"/>
-      <c r="M82" s="114"/>
-      <c r="N82" s="114"/>
-      <c r="O82" s="114"/>
-      <c r="P82" s="114"/>
-      <c r="Q82" s="114"/>
-      <c r="R82" s="114"/>
-      <c r="S82" s="114"/>
-      <c r="T82" s="114"/>
-      <c r="U82" s="114"/>
-      <c r="V82" s="114"/>
-      <c r="W82" s="114"/>
-      <c r="X82" s="114"/>
-      <c r="Y82" s="114"/>
-      <c r="Z82" s="114"/>
-      <c r="AA82" s="114"/>
-      <c r="AB82" s="114"/>
-      <c r="AC82" s="114"/>
-      <c r="AD82" s="115"/>
+      <c r="A82" s="165"/>
+      <c r="B82" s="166"/>
+      <c r="C82" s="166"/>
+      <c r="D82" s="166"/>
+      <c r="E82" s="166"/>
+      <c r="F82" s="166"/>
+      <c r="G82" s="166"/>
+      <c r="H82" s="166"/>
+      <c r="I82" s="166"/>
+      <c r="J82" s="166"/>
+      <c r="K82" s="166"/>
+      <c r="L82" s="166"/>
+      <c r="M82" s="166"/>
+      <c r="N82" s="166"/>
+      <c r="O82" s="166"/>
+      <c r="P82" s="166"/>
+      <c r="Q82" s="166"/>
+      <c r="R82" s="166"/>
+      <c r="S82" s="166"/>
+      <c r="T82" s="166"/>
+      <c r="U82" s="166"/>
+      <c r="V82" s="166"/>
+      <c r="W82" s="166"/>
+      <c r="X82" s="166"/>
+      <c r="Y82" s="166"/>
+      <c r="Z82" s="166"/>
+      <c r="AA82" s="166"/>
+      <c r="AB82" s="166"/>
+      <c r="AC82" s="166"/>
+      <c r="AD82" s="167"/>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A83" s="86" t="s">
+      <c r="A83" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="B83" s="87"/>
-      <c r="C83" s="87"/>
-      <c r="D83" s="87"/>
-      <c r="E83" s="87"/>
-      <c r="F83" s="87"/>
-      <c r="G83" s="87"/>
-      <c r="H83" s="87"/>
-      <c r="I83" s="87"/>
-      <c r="J83" s="87"/>
-      <c r="K83" s="87"/>
-      <c r="L83" s="87"/>
-      <c r="M83" s="87"/>
-      <c r="N83" s="87"/>
-      <c r="O83" s="87"/>
-      <c r="P83" s="87"/>
-      <c r="Q83" s="87"/>
-      <c r="R83" s="87"/>
-      <c r="S83" s="87"/>
-      <c r="T83" s="87"/>
-      <c r="U83" s="87"/>
-      <c r="V83" s="87"/>
-      <c r="W83" s="87"/>
-      <c r="X83" s="87"/>
-      <c r="Y83" s="87"/>
-      <c r="Z83" s="87"/>
-      <c r="AA83" s="87"/>
-      <c r="AB83" s="87"/>
-      <c r="AC83" s="87"/>
-      <c r="AD83" s="88"/>
+      <c r="B83" s="135"/>
+      <c r="C83" s="135"/>
+      <c r="D83" s="135"/>
+      <c r="E83" s="135"/>
+      <c r="F83" s="135"/>
+      <c r="G83" s="135"/>
+      <c r="H83" s="135"/>
+      <c r="I83" s="135"/>
+      <c r="J83" s="135"/>
+      <c r="K83" s="135"/>
+      <c r="L83" s="135"/>
+      <c r="M83" s="135"/>
+      <c r="N83" s="135"/>
+      <c r="O83" s="135"/>
+      <c r="P83" s="135"/>
+      <c r="Q83" s="135"/>
+      <c r="R83" s="135"/>
+      <c r="S83" s="135"/>
+      <c r="T83" s="135"/>
+      <c r="U83" s="135"/>
+      <c r="V83" s="135"/>
+      <c r="W83" s="135"/>
+      <c r="X83" s="135"/>
+      <c r="Y83" s="135"/>
+      <c r="Z83" s="135"/>
+      <c r="AA83" s="135"/>
+      <c r="AB83" s="135"/>
+      <c r="AC83" s="135"/>
+      <c r="AD83" s="136"/>
     </row>
     <row r="84" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="92" t="s">
+      <c r="A84" s="186" t="s">
         <v>70</v>
       </c>
-      <c r="B84" s="93"/>
-      <c r="C84" s="93"/>
-      <c r="D84" s="93"/>
-      <c r="E84" s="93"/>
-      <c r="F84" s="93"/>
-      <c r="G84" s="93"/>
-      <c r="H84" s="93"/>
-      <c r="I84" s="93"/>
-      <c r="J84" s="93"/>
-      <c r="K84" s="93"/>
-      <c r="L84" s="93"/>
-      <c r="M84" s="93"/>
-      <c r="N84" s="93"/>
-      <c r="O84" s="93"/>
-      <c r="P84" s="93"/>
-      <c r="Q84" s="93"/>
-      <c r="R84" s="93"/>
-      <c r="S84" s="93"/>
-      <c r="T84" s="93"/>
-      <c r="U84" s="93"/>
-      <c r="V84" s="93"/>
-      <c r="W84" s="93"/>
-      <c r="X84" s="93"/>
-      <c r="Y84" s="93"/>
-      <c r="Z84" s="93"/>
-      <c r="AA84" s="93"/>
-      <c r="AB84" s="93"/>
-      <c r="AC84" s="93"/>
-      <c r="AD84" s="94"/>
+      <c r="B84" s="187"/>
+      <c r="C84" s="187"/>
+      <c r="D84" s="187"/>
+      <c r="E84" s="187"/>
+      <c r="F84" s="187"/>
+      <c r="G84" s="187"/>
+      <c r="H84" s="187"/>
+      <c r="I84" s="187"/>
+      <c r="J84" s="187"/>
+      <c r="K84" s="187"/>
+      <c r="L84" s="187"/>
+      <c r="M84" s="187"/>
+      <c r="N84" s="187"/>
+      <c r="O84" s="187"/>
+      <c r="P84" s="187"/>
+      <c r="Q84" s="187"/>
+      <c r="R84" s="187"/>
+      <c r="S84" s="187"/>
+      <c r="T84" s="187"/>
+      <c r="U84" s="187"/>
+      <c r="V84" s="187"/>
+      <c r="W84" s="187"/>
+      <c r="X84" s="187"/>
+      <c r="Y84" s="187"/>
+      <c r="Z84" s="187"/>
+      <c r="AA84" s="187"/>
+      <c r="AB84" s="187"/>
+      <c r="AC84" s="187"/>
+      <c r="AD84" s="188"/>
     </row>
     <row r="85" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="92"/>
-      <c r="B85" s="93"/>
-      <c r="C85" s="93"/>
-      <c r="D85" s="93"/>
-      <c r="E85" s="93"/>
-      <c r="F85" s="93"/>
-      <c r="G85" s="93"/>
-      <c r="H85" s="93"/>
-      <c r="I85" s="93"/>
-      <c r="J85" s="93"/>
-      <c r="K85" s="93"/>
-      <c r="L85" s="93"/>
-      <c r="M85" s="93"/>
-      <c r="N85" s="93"/>
-      <c r="O85" s="93"/>
-      <c r="P85" s="93"/>
-      <c r="Q85" s="93"/>
-      <c r="R85" s="93"/>
-      <c r="S85" s="93"/>
-      <c r="T85" s="93"/>
-      <c r="U85" s="93"/>
-      <c r="V85" s="93"/>
-      <c r="W85" s="93"/>
-      <c r="X85" s="93"/>
-      <c r="Y85" s="93"/>
-      <c r="Z85" s="93"/>
-      <c r="AA85" s="93"/>
-      <c r="AB85" s="93"/>
-      <c r="AC85" s="93"/>
-      <c r="AD85" s="94"/>
+      <c r="A85" s="186"/>
+      <c r="B85" s="187"/>
+      <c r="C85" s="187"/>
+      <c r="D85" s="187"/>
+      <c r="E85" s="187"/>
+      <c r="F85" s="187"/>
+      <c r="G85" s="187"/>
+      <c r="H85" s="187"/>
+      <c r="I85" s="187"/>
+      <c r="J85" s="187"/>
+      <c r="K85" s="187"/>
+      <c r="L85" s="187"/>
+      <c r="M85" s="187"/>
+      <c r="N85" s="187"/>
+      <c r="O85" s="187"/>
+      <c r="P85" s="187"/>
+      <c r="Q85" s="187"/>
+      <c r="R85" s="187"/>
+      <c r="S85" s="187"/>
+      <c r="T85" s="187"/>
+      <c r="U85" s="187"/>
+      <c r="V85" s="187"/>
+      <c r="W85" s="187"/>
+      <c r="X85" s="187"/>
+      <c r="Y85" s="187"/>
+      <c r="Z85" s="187"/>
+      <c r="AA85" s="187"/>
+      <c r="AB85" s="187"/>
+      <c r="AC85" s="187"/>
+      <c r="AD85" s="188"/>
     </row>
     <row r="86" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="92"/>
-      <c r="B86" s="93"/>
-      <c r="C86" s="93"/>
-      <c r="D86" s="93"/>
-      <c r="E86" s="93"/>
-      <c r="F86" s="93"/>
-      <c r="G86" s="93"/>
-      <c r="H86" s="93"/>
-      <c r="I86" s="93"/>
-      <c r="J86" s="93"/>
-      <c r="K86" s="93"/>
-      <c r="L86" s="93"/>
-      <c r="M86" s="93"/>
-      <c r="N86" s="93"/>
-      <c r="O86" s="93"/>
-      <c r="P86" s="93"/>
-      <c r="Q86" s="93"/>
-      <c r="R86" s="93"/>
-      <c r="S86" s="93"/>
-      <c r="T86" s="93"/>
-      <c r="U86" s="93"/>
-      <c r="V86" s="93"/>
-      <c r="W86" s="93"/>
-      <c r="X86" s="93"/>
-      <c r="Y86" s="93"/>
-      <c r="Z86" s="93"/>
-      <c r="AA86" s="93"/>
-      <c r="AB86" s="93"/>
-      <c r="AC86" s="93"/>
-      <c r="AD86" s="94"/>
+      <c r="A86" s="186"/>
+      <c r="B86" s="187"/>
+      <c r="C86" s="187"/>
+      <c r="D86" s="187"/>
+      <c r="E86" s="187"/>
+      <c r="F86" s="187"/>
+      <c r="G86" s="187"/>
+      <c r="H86" s="187"/>
+      <c r="I86" s="187"/>
+      <c r="J86" s="187"/>
+      <c r="K86" s="187"/>
+      <c r="L86" s="187"/>
+      <c r="M86" s="187"/>
+      <c r="N86" s="187"/>
+      <c r="O86" s="187"/>
+      <c r="P86" s="187"/>
+      <c r="Q86" s="187"/>
+      <c r="R86" s="187"/>
+      <c r="S86" s="187"/>
+      <c r="T86" s="187"/>
+      <c r="U86" s="187"/>
+      <c r="V86" s="187"/>
+      <c r="W86" s="187"/>
+      <c r="X86" s="187"/>
+      <c r="Y86" s="187"/>
+      <c r="Z86" s="187"/>
+      <c r="AA86" s="187"/>
+      <c r="AB86" s="187"/>
+      <c r="AC86" s="187"/>
+      <c r="AD86" s="188"/>
     </row>
     <row r="87" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="92"/>
-      <c r="B87" s="93"/>
-      <c r="C87" s="93"/>
-      <c r="D87" s="93"/>
-      <c r="E87" s="93"/>
-      <c r="F87" s="93"/>
-      <c r="G87" s="93"/>
-      <c r="H87" s="93"/>
-      <c r="I87" s="93"/>
-      <c r="J87" s="93"/>
-      <c r="K87" s="93"/>
-      <c r="L87" s="93"/>
-      <c r="M87" s="93"/>
-      <c r="N87" s="93"/>
-      <c r="O87" s="93"/>
-      <c r="P87" s="93"/>
-      <c r="Q87" s="93"/>
-      <c r="R87" s="93"/>
-      <c r="S87" s="93"/>
-      <c r="T87" s="93"/>
-      <c r="U87" s="93"/>
-      <c r="V87" s="93"/>
-      <c r="W87" s="93"/>
-      <c r="X87" s="93"/>
-      <c r="Y87" s="93"/>
-      <c r="Z87" s="93"/>
-      <c r="AA87" s="93"/>
-      <c r="AB87" s="93"/>
-      <c r="AC87" s="93"/>
-      <c r="AD87" s="94"/>
+      <c r="A87" s="186"/>
+      <c r="B87" s="187"/>
+      <c r="C87" s="187"/>
+      <c r="D87" s="187"/>
+      <c r="E87" s="187"/>
+      <c r="F87" s="187"/>
+      <c r="G87" s="187"/>
+      <c r="H87" s="187"/>
+      <c r="I87" s="187"/>
+      <c r="J87" s="187"/>
+      <c r="K87" s="187"/>
+      <c r="L87" s="187"/>
+      <c r="M87" s="187"/>
+      <c r="N87" s="187"/>
+      <c r="O87" s="187"/>
+      <c r="P87" s="187"/>
+      <c r="Q87" s="187"/>
+      <c r="R87" s="187"/>
+      <c r="S87" s="187"/>
+      <c r="T87" s="187"/>
+      <c r="U87" s="187"/>
+      <c r="V87" s="187"/>
+      <c r="W87" s="187"/>
+      <c r="X87" s="187"/>
+      <c r="Y87" s="187"/>
+      <c r="Z87" s="187"/>
+      <c r="AA87" s="187"/>
+      <c r="AB87" s="187"/>
+      <c r="AC87" s="187"/>
+      <c r="AD87" s="188"/>
     </row>
     <row r="88" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="92"/>
-      <c r="B88" s="93"/>
-      <c r="C88" s="93"/>
-      <c r="D88" s="93"/>
-      <c r="E88" s="93"/>
-      <c r="F88" s="93"/>
-      <c r="G88" s="93"/>
-      <c r="H88" s="93"/>
-      <c r="I88" s="93"/>
-      <c r="J88" s="93"/>
-      <c r="K88" s="93"/>
-      <c r="L88" s="93"/>
-      <c r="M88" s="93"/>
-      <c r="N88" s="93"/>
-      <c r="O88" s="93"/>
-      <c r="P88" s="93"/>
-      <c r="Q88" s="93"/>
-      <c r="R88" s="93"/>
-      <c r="S88" s="93"/>
-      <c r="T88" s="93"/>
-      <c r="U88" s="93"/>
-      <c r="V88" s="93"/>
-      <c r="W88" s="93"/>
-      <c r="X88" s="93"/>
-      <c r="Y88" s="93"/>
-      <c r="Z88" s="93"/>
-      <c r="AA88" s="93"/>
-      <c r="AB88" s="93"/>
-      <c r="AC88" s="93"/>
-      <c r="AD88" s="94"/>
+      <c r="A88" s="186"/>
+      <c r="B88" s="187"/>
+      <c r="C88" s="187"/>
+      <c r="D88" s="187"/>
+      <c r="E88" s="187"/>
+      <c r="F88" s="187"/>
+      <c r="G88" s="187"/>
+      <c r="H88" s="187"/>
+      <c r="I88" s="187"/>
+      <c r="J88" s="187"/>
+      <c r="K88" s="187"/>
+      <c r="L88" s="187"/>
+      <c r="M88" s="187"/>
+      <c r="N88" s="187"/>
+      <c r="O88" s="187"/>
+      <c r="P88" s="187"/>
+      <c r="Q88" s="187"/>
+      <c r="R88" s="187"/>
+      <c r="S88" s="187"/>
+      <c r="T88" s="187"/>
+      <c r="U88" s="187"/>
+      <c r="V88" s="187"/>
+      <c r="W88" s="187"/>
+      <c r="X88" s="187"/>
+      <c r="Y88" s="187"/>
+      <c r="Z88" s="187"/>
+      <c r="AA88" s="187"/>
+      <c r="AB88" s="187"/>
+      <c r="AC88" s="187"/>
+      <c r="AD88" s="188"/>
     </row>
     <row r="89" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="92"/>
-      <c r="B89" s="93"/>
-      <c r="C89" s="93"/>
-      <c r="D89" s="93"/>
-      <c r="E89" s="93"/>
-      <c r="F89" s="93"/>
-      <c r="G89" s="93"/>
-      <c r="H89" s="93"/>
-      <c r="I89" s="93"/>
-      <c r="J89" s="93"/>
-      <c r="K89" s="93"/>
-      <c r="L89" s="93"/>
-      <c r="M89" s="93"/>
-      <c r="N89" s="93"/>
-      <c r="O89" s="93"/>
-      <c r="P89" s="93"/>
-      <c r="Q89" s="93"/>
-      <c r="R89" s="93"/>
-      <c r="S89" s="93"/>
-      <c r="T89" s="93"/>
-      <c r="U89" s="93"/>
-      <c r="V89" s="93"/>
-      <c r="W89" s="93"/>
-      <c r="X89" s="93"/>
-      <c r="Y89" s="93"/>
-      <c r="Z89" s="93"/>
-      <c r="AA89" s="93"/>
-      <c r="AB89" s="93"/>
-      <c r="AC89" s="93"/>
-      <c r="AD89" s="94"/>
+      <c r="A89" s="186"/>
+      <c r="B89" s="187"/>
+      <c r="C89" s="187"/>
+      <c r="D89" s="187"/>
+      <c r="E89" s="187"/>
+      <c r="F89" s="187"/>
+      <c r="G89" s="187"/>
+      <c r="H89" s="187"/>
+      <c r="I89" s="187"/>
+      <c r="J89" s="187"/>
+      <c r="K89" s="187"/>
+      <c r="L89" s="187"/>
+      <c r="M89" s="187"/>
+      <c r="N89" s="187"/>
+      <c r="O89" s="187"/>
+      <c r="P89" s="187"/>
+      <c r="Q89" s="187"/>
+      <c r="R89" s="187"/>
+      <c r="S89" s="187"/>
+      <c r="T89" s="187"/>
+      <c r="U89" s="187"/>
+      <c r="V89" s="187"/>
+      <c r="W89" s="187"/>
+      <c r="X89" s="187"/>
+      <c r="Y89" s="187"/>
+      <c r="Z89" s="187"/>
+      <c r="AA89" s="187"/>
+      <c r="AB89" s="187"/>
+      <c r="AC89" s="187"/>
+      <c r="AD89" s="188"/>
     </row>
     <row r="90" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="92"/>
-      <c r="B90" s="93"/>
-      <c r="C90" s="93"/>
-      <c r="D90" s="93"/>
-      <c r="E90" s="93"/>
-      <c r="F90" s="93"/>
-      <c r="G90" s="93"/>
-      <c r="H90" s="93"/>
-      <c r="I90" s="93"/>
-      <c r="J90" s="93"/>
-      <c r="K90" s="93"/>
-      <c r="L90" s="93"/>
-      <c r="M90" s="93"/>
-      <c r="N90" s="93"/>
-      <c r="O90" s="93"/>
-      <c r="P90" s="93"/>
-      <c r="Q90" s="93"/>
-      <c r="R90" s="93"/>
-      <c r="S90" s="93"/>
-      <c r="T90" s="93"/>
-      <c r="U90" s="93"/>
-      <c r="V90" s="93"/>
-      <c r="W90" s="93"/>
-      <c r="X90" s="93"/>
-      <c r="Y90" s="93"/>
-      <c r="Z90" s="93"/>
-      <c r="AA90" s="93"/>
-      <c r="AB90" s="93"/>
-      <c r="AC90" s="93"/>
-      <c r="AD90" s="94"/>
+      <c r="A90" s="186"/>
+      <c r="B90" s="187"/>
+      <c r="C90" s="187"/>
+      <c r="D90" s="187"/>
+      <c r="E90" s="187"/>
+      <c r="F90" s="187"/>
+      <c r="G90" s="187"/>
+      <c r="H90" s="187"/>
+      <c r="I90" s="187"/>
+      <c r="J90" s="187"/>
+      <c r="K90" s="187"/>
+      <c r="L90" s="187"/>
+      <c r="M90" s="187"/>
+      <c r="N90" s="187"/>
+      <c r="O90" s="187"/>
+      <c r="P90" s="187"/>
+      <c r="Q90" s="187"/>
+      <c r="R90" s="187"/>
+      <c r="S90" s="187"/>
+      <c r="T90" s="187"/>
+      <c r="U90" s="187"/>
+      <c r="V90" s="187"/>
+      <c r="W90" s="187"/>
+      <c r="X90" s="187"/>
+      <c r="Y90" s="187"/>
+      <c r="Z90" s="187"/>
+      <c r="AA90" s="187"/>
+      <c r="AB90" s="187"/>
+      <c r="AC90" s="187"/>
+      <c r="AD90" s="188"/>
     </row>
     <row r="91" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="92"/>
-      <c r="B91" s="93"/>
-      <c r="C91" s="93"/>
-      <c r="D91" s="93"/>
-      <c r="E91" s="93"/>
-      <c r="F91" s="93"/>
-      <c r="G91" s="93"/>
-      <c r="H91" s="93"/>
-      <c r="I91" s="93"/>
-      <c r="J91" s="93"/>
-      <c r="K91" s="93"/>
-      <c r="L91" s="93"/>
-      <c r="M91" s="93"/>
-      <c r="N91" s="93"/>
-      <c r="O91" s="93"/>
-      <c r="P91" s="93"/>
-      <c r="Q91" s="93"/>
-      <c r="R91" s="93"/>
-      <c r="S91" s="93"/>
-      <c r="T91" s="93"/>
-      <c r="U91" s="93"/>
-      <c r="V91" s="93"/>
-      <c r="W91" s="93"/>
-      <c r="X91" s="93"/>
-      <c r="Y91" s="93"/>
-      <c r="Z91" s="93"/>
-      <c r="AA91" s="93"/>
-      <c r="AB91" s="93"/>
-      <c r="AC91" s="93"/>
-      <c r="AD91" s="94"/>
+      <c r="A91" s="186"/>
+      <c r="B91" s="187"/>
+      <c r="C91" s="187"/>
+      <c r="D91" s="187"/>
+      <c r="E91" s="187"/>
+      <c r="F91" s="187"/>
+      <c r="G91" s="187"/>
+      <c r="H91" s="187"/>
+      <c r="I91" s="187"/>
+      <c r="J91" s="187"/>
+      <c r="K91" s="187"/>
+      <c r="L91" s="187"/>
+      <c r="M91" s="187"/>
+      <c r="N91" s="187"/>
+      <c r="O91" s="187"/>
+      <c r="P91" s="187"/>
+      <c r="Q91" s="187"/>
+      <c r="R91" s="187"/>
+      <c r="S91" s="187"/>
+      <c r="T91" s="187"/>
+      <c r="U91" s="187"/>
+      <c r="V91" s="187"/>
+      <c r="W91" s="187"/>
+      <c r="X91" s="187"/>
+      <c r="Y91" s="187"/>
+      <c r="Z91" s="187"/>
+      <c r="AA91" s="187"/>
+      <c r="AB91" s="187"/>
+      <c r="AC91" s="187"/>
+      <c r="AD91" s="188"/>
     </row>
     <row r="92" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="92"/>
-      <c r="B92" s="93"/>
-      <c r="C92" s="93"/>
-      <c r="D92" s="93"/>
-      <c r="E92" s="93"/>
-      <c r="F92" s="93"/>
-      <c r="G92" s="93"/>
-      <c r="H92" s="93"/>
-      <c r="I92" s="93"/>
-      <c r="J92" s="93"/>
-      <c r="K92" s="93"/>
-      <c r="L92" s="93"/>
-      <c r="M92" s="93"/>
-      <c r="N92" s="93"/>
-      <c r="O92" s="93"/>
-      <c r="P92" s="93"/>
-      <c r="Q92" s="93"/>
-      <c r="R92" s="93"/>
-      <c r="S92" s="93"/>
-      <c r="T92" s="93"/>
-      <c r="U92" s="93"/>
-      <c r="V92" s="93"/>
-      <c r="W92" s="93"/>
-      <c r="X92" s="93"/>
-      <c r="Y92" s="93"/>
-      <c r="Z92" s="93"/>
-      <c r="AA92" s="93"/>
-      <c r="AB92" s="93"/>
-      <c r="AC92" s="93"/>
-      <c r="AD92" s="94"/>
+      <c r="A92" s="186"/>
+      <c r="B92" s="187"/>
+      <c r="C92" s="187"/>
+      <c r="D92" s="187"/>
+      <c r="E92" s="187"/>
+      <c r="F92" s="187"/>
+      <c r="G92" s="187"/>
+      <c r="H92" s="187"/>
+      <c r="I92" s="187"/>
+      <c r="J92" s="187"/>
+      <c r="K92" s="187"/>
+      <c r="L92" s="187"/>
+      <c r="M92" s="187"/>
+      <c r="N92" s="187"/>
+      <c r="O92" s="187"/>
+      <c r="P92" s="187"/>
+      <c r="Q92" s="187"/>
+      <c r="R92" s="187"/>
+      <c r="S92" s="187"/>
+      <c r="T92" s="187"/>
+      <c r="U92" s="187"/>
+      <c r="V92" s="187"/>
+      <c r="W92" s="187"/>
+      <c r="X92" s="187"/>
+      <c r="Y92" s="187"/>
+      <c r="Z92" s="187"/>
+      <c r="AA92" s="187"/>
+      <c r="AB92" s="187"/>
+      <c r="AC92" s="187"/>
+      <c r="AD92" s="188"/>
     </row>
     <row r="93" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="92"/>
-      <c r="B93" s="93"/>
-      <c r="C93" s="93"/>
-      <c r="D93" s="93"/>
-      <c r="E93" s="93"/>
-      <c r="F93" s="93"/>
-      <c r="G93" s="93"/>
-      <c r="H93" s="93"/>
-      <c r="I93" s="93"/>
-      <c r="J93" s="93"/>
-      <c r="K93" s="93"/>
-      <c r="L93" s="93"/>
-      <c r="M93" s="93"/>
-      <c r="N93" s="93"/>
-      <c r="O93" s="93"/>
-      <c r="P93" s="93"/>
-      <c r="Q93" s="93"/>
-      <c r="R93" s="93"/>
-      <c r="S93" s="93"/>
-      <c r="T93" s="93"/>
-      <c r="U93" s="93"/>
-      <c r="V93" s="93"/>
-      <c r="W93" s="93"/>
-      <c r="X93" s="93"/>
-      <c r="Y93" s="93"/>
-      <c r="Z93" s="93"/>
-      <c r="AA93" s="93"/>
-      <c r="AB93" s="93"/>
-      <c r="AC93" s="93"/>
-      <c r="AD93" s="94"/>
+      <c r="A93" s="186"/>
+      <c r="B93" s="187"/>
+      <c r="C93" s="187"/>
+      <c r="D93" s="187"/>
+      <c r="E93" s="187"/>
+      <c r="F93" s="187"/>
+      <c r="G93" s="187"/>
+      <c r="H93" s="187"/>
+      <c r="I93" s="187"/>
+      <c r="J93" s="187"/>
+      <c r="K93" s="187"/>
+      <c r="L93" s="187"/>
+      <c r="M93" s="187"/>
+      <c r="N93" s="187"/>
+      <c r="O93" s="187"/>
+      <c r="P93" s="187"/>
+      <c r="Q93" s="187"/>
+      <c r="R93" s="187"/>
+      <c r="S93" s="187"/>
+      <c r="T93" s="187"/>
+      <c r="U93" s="187"/>
+      <c r="V93" s="187"/>
+      <c r="W93" s="187"/>
+      <c r="X93" s="187"/>
+      <c r="Y93" s="187"/>
+      <c r="Z93" s="187"/>
+      <c r="AA93" s="187"/>
+      <c r="AB93" s="187"/>
+      <c r="AC93" s="187"/>
+      <c r="AD93" s="188"/>
     </row>
     <row r="94" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="92"/>
-      <c r="B94" s="93"/>
-      <c r="C94" s="93"/>
-      <c r="D94" s="93"/>
-      <c r="E94" s="93"/>
-      <c r="F94" s="93"/>
-      <c r="G94" s="93"/>
-      <c r="H94" s="93"/>
-      <c r="I94" s="93"/>
-      <c r="J94" s="93"/>
-      <c r="K94" s="93"/>
-      <c r="L94" s="93"/>
-      <c r="M94" s="93"/>
-      <c r="N94" s="93"/>
-      <c r="O94" s="93"/>
-      <c r="P94" s="93"/>
-      <c r="Q94" s="93"/>
-      <c r="R94" s="93"/>
-      <c r="S94" s="93"/>
-      <c r="T94" s="93"/>
-      <c r="U94" s="93"/>
-      <c r="V94" s="93"/>
-      <c r="W94" s="93"/>
-      <c r="X94" s="93"/>
-      <c r="Y94" s="93"/>
-      <c r="Z94" s="93"/>
-      <c r="AA94" s="93"/>
-      <c r="AB94" s="93"/>
-      <c r="AC94" s="93"/>
-      <c r="AD94" s="94"/>
+      <c r="A94" s="186"/>
+      <c r="B94" s="187"/>
+      <c r="C94" s="187"/>
+      <c r="D94" s="187"/>
+      <c r="E94" s="187"/>
+      <c r="F94" s="187"/>
+      <c r="G94" s="187"/>
+      <c r="H94" s="187"/>
+      <c r="I94" s="187"/>
+      <c r="J94" s="187"/>
+      <c r="K94" s="187"/>
+      <c r="L94" s="187"/>
+      <c r="M94" s="187"/>
+      <c r="N94" s="187"/>
+      <c r="O94" s="187"/>
+      <c r="P94" s="187"/>
+      <c r="Q94" s="187"/>
+      <c r="R94" s="187"/>
+      <c r="S94" s="187"/>
+      <c r="T94" s="187"/>
+      <c r="U94" s="187"/>
+      <c r="V94" s="187"/>
+      <c r="W94" s="187"/>
+      <c r="X94" s="187"/>
+      <c r="Y94" s="187"/>
+      <c r="Z94" s="187"/>
+      <c r="AA94" s="187"/>
+      <c r="AB94" s="187"/>
+      <c r="AC94" s="187"/>
+      <c r="AD94" s="188"/>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A95" s="95" t="s">
+      <c r="A95" s="147" t="s">
         <v>25</v>
       </c>
-      <c r="B95" s="96"/>
-      <c r="C95" s="96"/>
-      <c r="D95" s="96"/>
-      <c r="E95" s="96"/>
-      <c r="F95" s="96"/>
-      <c r="G95" s="96"/>
-      <c r="H95" s="96"/>
-      <c r="I95" s="96"/>
-      <c r="J95" s="96"/>
-      <c r="K95" s="96"/>
-      <c r="L95" s="96"/>
-      <c r="M95" s="96"/>
-      <c r="N95" s="96"/>
-      <c r="O95" s="96"/>
-      <c r="P95" s="96"/>
-      <c r="Q95" s="96"/>
-      <c r="R95" s="96"/>
-      <c r="S95" s="96"/>
-      <c r="T95" s="96"/>
-      <c r="U95" s="96"/>
-      <c r="V95" s="96"/>
-      <c r="W95" s="96"/>
-      <c r="X95" s="96"/>
-      <c r="Y95" s="96"/>
-      <c r="Z95" s="96"/>
-      <c r="AA95" s="96"/>
-      <c r="AB95" s="96"/>
-      <c r="AC95" s="96"/>
-      <c r="AD95" s="97"/>
+      <c r="B95" s="148"/>
+      <c r="C95" s="148"/>
+      <c r="D95" s="148"/>
+      <c r="E95" s="148"/>
+      <c r="F95" s="148"/>
+      <c r="G95" s="148"/>
+      <c r="H95" s="148"/>
+      <c r="I95" s="148"/>
+      <c r="J95" s="148"/>
+      <c r="K95" s="148"/>
+      <c r="L95" s="148"/>
+      <c r="M95" s="148"/>
+      <c r="N95" s="148"/>
+      <c r="O95" s="148"/>
+      <c r="P95" s="148"/>
+      <c r="Q95" s="148"/>
+      <c r="R95" s="148"/>
+      <c r="S95" s="148"/>
+      <c r="T95" s="148"/>
+      <c r="U95" s="148"/>
+      <c r="V95" s="148"/>
+      <c r="W95" s="148"/>
+      <c r="X95" s="148"/>
+      <c r="Y95" s="148"/>
+      <c r="Z95" s="148"/>
+      <c r="AA95" s="148"/>
+      <c r="AB95" s="148"/>
+      <c r="AC95" s="148"/>
+      <c r="AD95" s="149"/>
     </row>
     <row r="96" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="98" t="s">
+      <c r="A96" s="150" t="s">
         <v>67</v>
       </c>
-      <c r="B96" s="99"/>
-      <c r="C96" s="99"/>
-      <c r="D96" s="99"/>
-      <c r="E96" s="99"/>
-      <c r="F96" s="99"/>
-      <c r="G96" s="99"/>
-      <c r="H96" s="99"/>
-      <c r="I96" s="99"/>
-      <c r="J96" s="99"/>
-      <c r="K96" s="99"/>
-      <c r="L96" s="99"/>
-      <c r="M96" s="99"/>
-      <c r="N96" s="99"/>
-      <c r="O96" s="99"/>
-      <c r="P96" s="99"/>
-      <c r="Q96" s="99"/>
-      <c r="R96" s="99"/>
-      <c r="S96" s="99"/>
-      <c r="T96" s="99"/>
-      <c r="U96" s="99"/>
-      <c r="V96" s="99"/>
-      <c r="W96" s="99"/>
-      <c r="X96" s="99"/>
-      <c r="Y96" s="99"/>
-      <c r="Z96" s="99"/>
-      <c r="AA96" s="99"/>
-      <c r="AB96" s="99"/>
-      <c r="AC96" s="99"/>
-      <c r="AD96" s="100"/>
+      <c r="B96" s="151"/>
+      <c r="C96" s="151"/>
+      <c r="D96" s="151"/>
+      <c r="E96" s="151"/>
+      <c r="F96" s="151"/>
+      <c r="G96" s="151"/>
+      <c r="H96" s="151"/>
+      <c r="I96" s="151"/>
+      <c r="J96" s="151"/>
+      <c r="K96" s="151"/>
+      <c r="L96" s="151"/>
+      <c r="M96" s="151"/>
+      <c r="N96" s="151"/>
+      <c r="O96" s="151"/>
+      <c r="P96" s="151"/>
+      <c r="Q96" s="151"/>
+      <c r="R96" s="151"/>
+      <c r="S96" s="151"/>
+      <c r="T96" s="151"/>
+      <c r="U96" s="151"/>
+      <c r="V96" s="151"/>
+      <c r="W96" s="151"/>
+      <c r="X96" s="151"/>
+      <c r="Y96" s="151"/>
+      <c r="Z96" s="151"/>
+      <c r="AA96" s="151"/>
+      <c r="AB96" s="151"/>
+      <c r="AC96" s="151"/>
+      <c r="AD96" s="152"/>
     </row>
     <row r="97" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="101"/>
-      <c r="B97" s="102"/>
-      <c r="C97" s="102"/>
-      <c r="D97" s="102"/>
-      <c r="E97" s="102"/>
-      <c r="F97" s="102"/>
-      <c r="G97" s="102"/>
-      <c r="H97" s="102"/>
-      <c r="I97" s="102"/>
-      <c r="J97" s="102"/>
-      <c r="K97" s="102"/>
-      <c r="L97" s="102"/>
-      <c r="M97" s="102"/>
-      <c r="N97" s="102"/>
-      <c r="O97" s="102"/>
-      <c r="P97" s="102"/>
-      <c r="Q97" s="102"/>
-      <c r="R97" s="102"/>
-      <c r="S97" s="102"/>
-      <c r="T97" s="102"/>
-      <c r="U97" s="102"/>
-      <c r="V97" s="102"/>
-      <c r="W97" s="102"/>
-      <c r="X97" s="102"/>
-      <c r="Y97" s="102"/>
-      <c r="Z97" s="102"/>
-      <c r="AA97" s="102"/>
-      <c r="AB97" s="102"/>
-      <c r="AC97" s="102"/>
-      <c r="AD97" s="103"/>
+      <c r="A97" s="153"/>
+      <c r="B97" s="154"/>
+      <c r="C97" s="154"/>
+      <c r="D97" s="154"/>
+      <c r="E97" s="154"/>
+      <c r="F97" s="154"/>
+      <c r="G97" s="154"/>
+      <c r="H97" s="154"/>
+      <c r="I97" s="154"/>
+      <c r="J97" s="154"/>
+      <c r="K97" s="154"/>
+      <c r="L97" s="154"/>
+      <c r="M97" s="154"/>
+      <c r="N97" s="154"/>
+      <c r="O97" s="154"/>
+      <c r="P97" s="154"/>
+      <c r="Q97" s="154"/>
+      <c r="R97" s="154"/>
+      <c r="S97" s="154"/>
+      <c r="T97" s="154"/>
+      <c r="U97" s="154"/>
+      <c r="V97" s="154"/>
+      <c r="W97" s="154"/>
+      <c r="X97" s="154"/>
+      <c r="Y97" s="154"/>
+      <c r="Z97" s="154"/>
+      <c r="AA97" s="154"/>
+      <c r="AB97" s="154"/>
+      <c r="AC97" s="154"/>
+      <c r="AD97" s="155"/>
     </row>
     <row r="98" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="101"/>
-      <c r="B98" s="102"/>
-      <c r="C98" s="102"/>
-      <c r="D98" s="102"/>
-      <c r="E98" s="102"/>
-      <c r="F98" s="102"/>
-      <c r="G98" s="102"/>
-      <c r="H98" s="102"/>
-      <c r="I98" s="102"/>
-      <c r="J98" s="102"/>
-      <c r="K98" s="102"/>
-      <c r="L98" s="102"/>
-      <c r="M98" s="102"/>
-      <c r="N98" s="102"/>
-      <c r="O98" s="102"/>
-      <c r="P98" s="102"/>
-      <c r="Q98" s="102"/>
-      <c r="R98" s="102"/>
-      <c r="S98" s="102"/>
-      <c r="T98" s="102"/>
-      <c r="U98" s="102"/>
-      <c r="V98" s="102"/>
-      <c r="W98" s="102"/>
-      <c r="X98" s="102"/>
-      <c r="Y98" s="102"/>
-      <c r="Z98" s="102"/>
-      <c r="AA98" s="102"/>
-      <c r="AB98" s="102"/>
-      <c r="AC98" s="102"/>
-      <c r="AD98" s="103"/>
+      <c r="A98" s="153"/>
+      <c r="B98" s="154"/>
+      <c r="C98" s="154"/>
+      <c r="D98" s="154"/>
+      <c r="E98" s="154"/>
+      <c r="F98" s="154"/>
+      <c r="G98" s="154"/>
+      <c r="H98" s="154"/>
+      <c r="I98" s="154"/>
+      <c r="J98" s="154"/>
+      <c r="K98" s="154"/>
+      <c r="L98" s="154"/>
+      <c r="M98" s="154"/>
+      <c r="N98" s="154"/>
+      <c r="O98" s="154"/>
+      <c r="P98" s="154"/>
+      <c r="Q98" s="154"/>
+      <c r="R98" s="154"/>
+      <c r="S98" s="154"/>
+      <c r="T98" s="154"/>
+      <c r="U98" s="154"/>
+      <c r="V98" s="154"/>
+      <c r="W98" s="154"/>
+      <c r="X98" s="154"/>
+      <c r="Y98" s="154"/>
+      <c r="Z98" s="154"/>
+      <c r="AA98" s="154"/>
+      <c r="AB98" s="154"/>
+      <c r="AC98" s="154"/>
+      <c r="AD98" s="155"/>
     </row>
     <row r="99" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="101"/>
-      <c r="B99" s="102"/>
-      <c r="C99" s="102"/>
-      <c r="D99" s="102"/>
-      <c r="E99" s="102"/>
-      <c r="F99" s="102"/>
-      <c r="G99" s="102"/>
-      <c r="H99" s="102"/>
-      <c r="I99" s="102"/>
-      <c r="J99" s="102"/>
-      <c r="K99" s="102"/>
-      <c r="L99" s="102"/>
-      <c r="M99" s="102"/>
-      <c r="N99" s="102"/>
-      <c r="O99" s="102"/>
-      <c r="P99" s="102"/>
-      <c r="Q99" s="102"/>
-      <c r="R99" s="102"/>
-      <c r="S99" s="102"/>
-      <c r="T99" s="102"/>
-      <c r="U99" s="102"/>
-      <c r="V99" s="102"/>
-      <c r="W99" s="102"/>
-      <c r="X99" s="102"/>
-      <c r="Y99" s="102"/>
-      <c r="Z99" s="102"/>
-      <c r="AA99" s="102"/>
-      <c r="AB99" s="102"/>
-      <c r="AC99" s="102"/>
-      <c r="AD99" s="103"/>
+      <c r="A99" s="153"/>
+      <c r="B99" s="154"/>
+      <c r="C99" s="154"/>
+      <c r="D99" s="154"/>
+      <c r="E99" s="154"/>
+      <c r="F99" s="154"/>
+      <c r="G99" s="154"/>
+      <c r="H99" s="154"/>
+      <c r="I99" s="154"/>
+      <c r="J99" s="154"/>
+      <c r="K99" s="154"/>
+      <c r="L99" s="154"/>
+      <c r="M99" s="154"/>
+      <c r="N99" s="154"/>
+      <c r="O99" s="154"/>
+      <c r="P99" s="154"/>
+      <c r="Q99" s="154"/>
+      <c r="R99" s="154"/>
+      <c r="S99" s="154"/>
+      <c r="T99" s="154"/>
+      <c r="U99" s="154"/>
+      <c r="V99" s="154"/>
+      <c r="W99" s="154"/>
+      <c r="X99" s="154"/>
+      <c r="Y99" s="154"/>
+      <c r="Z99" s="154"/>
+      <c r="AA99" s="154"/>
+      <c r="AB99" s="154"/>
+      <c r="AC99" s="154"/>
+      <c r="AD99" s="155"/>
     </row>
     <row r="100" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="101"/>
-      <c r="B100" s="102"/>
-      <c r="C100" s="102"/>
-      <c r="D100" s="102"/>
-      <c r="E100" s="102"/>
-      <c r="F100" s="102"/>
-      <c r="G100" s="102"/>
-      <c r="H100" s="102"/>
-      <c r="I100" s="102"/>
-      <c r="J100" s="102"/>
-      <c r="K100" s="102"/>
-      <c r="L100" s="102"/>
-      <c r="M100" s="102"/>
-      <c r="N100" s="102"/>
-      <c r="O100" s="102"/>
-      <c r="P100" s="102"/>
-      <c r="Q100" s="102"/>
-      <c r="R100" s="102"/>
-      <c r="S100" s="102"/>
-      <c r="T100" s="102"/>
-      <c r="U100" s="102"/>
-      <c r="V100" s="102"/>
-      <c r="W100" s="102"/>
-      <c r="X100" s="102"/>
-      <c r="Y100" s="102"/>
-      <c r="Z100" s="102"/>
-      <c r="AA100" s="102"/>
-      <c r="AB100" s="102"/>
-      <c r="AC100" s="102"/>
-      <c r="AD100" s="103"/>
+      <c r="A100" s="153"/>
+      <c r="B100" s="154"/>
+      <c r="C100" s="154"/>
+      <c r="D100" s="154"/>
+      <c r="E100" s="154"/>
+      <c r="F100" s="154"/>
+      <c r="G100" s="154"/>
+      <c r="H100" s="154"/>
+      <c r="I100" s="154"/>
+      <c r="J100" s="154"/>
+      <c r="K100" s="154"/>
+      <c r="L100" s="154"/>
+      <c r="M100" s="154"/>
+      <c r="N100" s="154"/>
+      <c r="O100" s="154"/>
+      <c r="P100" s="154"/>
+      <c r="Q100" s="154"/>
+      <c r="R100" s="154"/>
+      <c r="S100" s="154"/>
+      <c r="T100" s="154"/>
+      <c r="U100" s="154"/>
+      <c r="V100" s="154"/>
+      <c r="W100" s="154"/>
+      <c r="X100" s="154"/>
+      <c r="Y100" s="154"/>
+      <c r="Z100" s="154"/>
+      <c r="AA100" s="154"/>
+      <c r="AB100" s="154"/>
+      <c r="AC100" s="154"/>
+      <c r="AD100" s="155"/>
     </row>
     <row r="101" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="101"/>
-      <c r="B101" s="102"/>
-      <c r="C101" s="102"/>
-      <c r="D101" s="102"/>
-      <c r="E101" s="102"/>
-      <c r="F101" s="102"/>
-      <c r="G101" s="102"/>
-      <c r="H101" s="102"/>
-      <c r="I101" s="102"/>
-      <c r="J101" s="102"/>
-      <c r="K101" s="102"/>
-      <c r="L101" s="102"/>
-      <c r="M101" s="102"/>
-      <c r="N101" s="102"/>
-      <c r="O101" s="102"/>
-      <c r="P101" s="102"/>
-      <c r="Q101" s="102"/>
-      <c r="R101" s="102"/>
-      <c r="S101" s="102"/>
-      <c r="T101" s="102"/>
-      <c r="U101" s="102"/>
-      <c r="V101" s="102"/>
-      <c r="W101" s="102"/>
-      <c r="X101" s="102"/>
-      <c r="Y101" s="102"/>
-      <c r="Z101" s="102"/>
-      <c r="AA101" s="102"/>
-      <c r="AB101" s="102"/>
-      <c r="AC101" s="102"/>
-      <c r="AD101" s="103"/>
+      <c r="A101" s="153"/>
+      <c r="B101" s="154"/>
+      <c r="C101" s="154"/>
+      <c r="D101" s="154"/>
+      <c r="E101" s="154"/>
+      <c r="F101" s="154"/>
+      <c r="G101" s="154"/>
+      <c r="H101" s="154"/>
+      <c r="I101" s="154"/>
+      <c r="J101" s="154"/>
+      <c r="K101" s="154"/>
+      <c r="L101" s="154"/>
+      <c r="M101" s="154"/>
+      <c r="N101" s="154"/>
+      <c r="O101" s="154"/>
+      <c r="P101" s="154"/>
+      <c r="Q101" s="154"/>
+      <c r="R101" s="154"/>
+      <c r="S101" s="154"/>
+      <c r="T101" s="154"/>
+      <c r="U101" s="154"/>
+      <c r="V101" s="154"/>
+      <c r="W101" s="154"/>
+      <c r="X101" s="154"/>
+      <c r="Y101" s="154"/>
+      <c r="Z101" s="154"/>
+      <c r="AA101" s="154"/>
+      <c r="AB101" s="154"/>
+      <c r="AC101" s="154"/>
+      <c r="AD101" s="155"/>
     </row>
     <row r="102" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="101"/>
-      <c r="B102" s="102"/>
-      <c r="C102" s="102"/>
-      <c r="D102" s="102"/>
-      <c r="E102" s="102"/>
-      <c r="F102" s="102"/>
-      <c r="G102" s="102"/>
-      <c r="H102" s="102"/>
-      <c r="I102" s="102"/>
-      <c r="J102" s="102"/>
-      <c r="K102" s="102"/>
-      <c r="L102" s="102"/>
-      <c r="M102" s="102"/>
-      <c r="N102" s="102"/>
-      <c r="O102" s="102"/>
-      <c r="P102" s="102"/>
-      <c r="Q102" s="102"/>
-      <c r="R102" s="102"/>
-      <c r="S102" s="102"/>
-      <c r="T102" s="102"/>
-      <c r="U102" s="102"/>
-      <c r="V102" s="102"/>
-      <c r="W102" s="102"/>
-      <c r="X102" s="102"/>
-      <c r="Y102" s="102"/>
-      <c r="Z102" s="102"/>
-      <c r="AA102" s="102"/>
-      <c r="AB102" s="102"/>
-      <c r="AC102" s="102"/>
-      <c r="AD102" s="103"/>
+      <c r="A102" s="153"/>
+      <c r="B102" s="154"/>
+      <c r="C102" s="154"/>
+      <c r="D102" s="154"/>
+      <c r="E102" s="154"/>
+      <c r="F102" s="154"/>
+      <c r="G102" s="154"/>
+      <c r="H102" s="154"/>
+      <c r="I102" s="154"/>
+      <c r="J102" s="154"/>
+      <c r="K102" s="154"/>
+      <c r="L102" s="154"/>
+      <c r="M102" s="154"/>
+      <c r="N102" s="154"/>
+      <c r="O102" s="154"/>
+      <c r="P102" s="154"/>
+      <c r="Q102" s="154"/>
+      <c r="R102" s="154"/>
+      <c r="S102" s="154"/>
+      <c r="T102" s="154"/>
+      <c r="U102" s="154"/>
+      <c r="V102" s="154"/>
+      <c r="W102" s="154"/>
+      <c r="X102" s="154"/>
+      <c r="Y102" s="154"/>
+      <c r="Z102" s="154"/>
+      <c r="AA102" s="154"/>
+      <c r="AB102" s="154"/>
+      <c r="AC102" s="154"/>
+      <c r="AD102" s="155"/>
     </row>
     <row r="103" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="101"/>
-      <c r="B103" s="102"/>
-      <c r="C103" s="102"/>
-      <c r="D103" s="102"/>
-      <c r="E103" s="102"/>
-      <c r="F103" s="102"/>
-      <c r="G103" s="102"/>
-      <c r="H103" s="102"/>
-      <c r="I103" s="102"/>
-      <c r="J103" s="102"/>
-      <c r="K103" s="102"/>
-      <c r="L103" s="102"/>
-      <c r="M103" s="102"/>
-      <c r="N103" s="102"/>
-      <c r="O103" s="102"/>
-      <c r="P103" s="102"/>
-      <c r="Q103" s="102"/>
-      <c r="R103" s="102"/>
-      <c r="S103" s="102"/>
-      <c r="T103" s="102"/>
-      <c r="U103" s="102"/>
-      <c r="V103" s="102"/>
-      <c r="W103" s="102"/>
-      <c r="X103" s="102"/>
-      <c r="Y103" s="102"/>
-      <c r="Z103" s="102"/>
-      <c r="AA103" s="102"/>
-      <c r="AB103" s="102"/>
-      <c r="AC103" s="102"/>
-      <c r="AD103" s="103"/>
+      <c r="A103" s="153"/>
+      <c r="B103" s="154"/>
+      <c r="C103" s="154"/>
+      <c r="D103" s="154"/>
+      <c r="E103" s="154"/>
+      <c r="F103" s="154"/>
+      <c r="G103" s="154"/>
+      <c r="H103" s="154"/>
+      <c r="I103" s="154"/>
+      <c r="J103" s="154"/>
+      <c r="K103" s="154"/>
+      <c r="L103" s="154"/>
+      <c r="M103" s="154"/>
+      <c r="N103" s="154"/>
+      <c r="O103" s="154"/>
+      <c r="P103" s="154"/>
+      <c r="Q103" s="154"/>
+      <c r="R103" s="154"/>
+      <c r="S103" s="154"/>
+      <c r="T103" s="154"/>
+      <c r="U103" s="154"/>
+      <c r="V103" s="154"/>
+      <c r="W103" s="154"/>
+      <c r="X103" s="154"/>
+      <c r="Y103" s="154"/>
+      <c r="Z103" s="154"/>
+      <c r="AA103" s="154"/>
+      <c r="AB103" s="154"/>
+      <c r="AC103" s="154"/>
+      <c r="AD103" s="155"/>
     </row>
     <row r="104" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="101"/>
-      <c r="B104" s="102"/>
-      <c r="C104" s="102"/>
-      <c r="D104" s="102"/>
-      <c r="E104" s="102"/>
-      <c r="F104" s="102"/>
-      <c r="G104" s="102"/>
-      <c r="H104" s="102"/>
-      <c r="I104" s="102"/>
-      <c r="J104" s="102"/>
-      <c r="K104" s="102"/>
-      <c r="L104" s="102"/>
-      <c r="M104" s="102"/>
-      <c r="N104" s="102"/>
-      <c r="O104" s="102"/>
-      <c r="P104" s="102"/>
-      <c r="Q104" s="102"/>
-      <c r="R104" s="102"/>
-      <c r="S104" s="102"/>
-      <c r="T104" s="102"/>
-      <c r="U104" s="102"/>
-      <c r="V104" s="102"/>
-      <c r="W104" s="102"/>
-      <c r="X104" s="102"/>
-      <c r="Y104" s="102"/>
-      <c r="Z104" s="102"/>
-      <c r="AA104" s="102"/>
-      <c r="AB104" s="102"/>
-      <c r="AC104" s="102"/>
-      <c r="AD104" s="103"/>
+      <c r="A104" s="153"/>
+      <c r="B104" s="154"/>
+      <c r="C104" s="154"/>
+      <c r="D104" s="154"/>
+      <c r="E104" s="154"/>
+      <c r="F104" s="154"/>
+      <c r="G104" s="154"/>
+      <c r="H104" s="154"/>
+      <c r="I104" s="154"/>
+      <c r="J104" s="154"/>
+      <c r="K104" s="154"/>
+      <c r="L104" s="154"/>
+      <c r="M104" s="154"/>
+      <c r="N104" s="154"/>
+      <c r="O104" s="154"/>
+      <c r="P104" s="154"/>
+      <c r="Q104" s="154"/>
+      <c r="R104" s="154"/>
+      <c r="S104" s="154"/>
+      <c r="T104" s="154"/>
+      <c r="U104" s="154"/>
+      <c r="V104" s="154"/>
+      <c r="W104" s="154"/>
+      <c r="X104" s="154"/>
+      <c r="Y104" s="154"/>
+      <c r="Z104" s="154"/>
+      <c r="AA104" s="154"/>
+      <c r="AB104" s="154"/>
+      <c r="AC104" s="154"/>
+      <c r="AD104" s="155"/>
     </row>
     <row r="105" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="104"/>
-      <c r="B105" s="105"/>
-      <c r="C105" s="105"/>
-      <c r="D105" s="105"/>
-      <c r="E105" s="105"/>
-      <c r="F105" s="105"/>
-      <c r="G105" s="105"/>
-      <c r="H105" s="105"/>
-      <c r="I105" s="105"/>
-      <c r="J105" s="105"/>
-      <c r="K105" s="105"/>
-      <c r="L105" s="105"/>
-      <c r="M105" s="105"/>
-      <c r="N105" s="105"/>
-      <c r="O105" s="105"/>
-      <c r="P105" s="105"/>
-      <c r="Q105" s="105"/>
-      <c r="R105" s="105"/>
-      <c r="S105" s="105"/>
-      <c r="T105" s="105"/>
-      <c r="U105" s="105"/>
-      <c r="V105" s="105"/>
-      <c r="W105" s="105"/>
-      <c r="X105" s="105"/>
-      <c r="Y105" s="105"/>
-      <c r="Z105" s="105"/>
-      <c r="AA105" s="105"/>
-      <c r="AB105" s="105"/>
-      <c r="AC105" s="105"/>
-      <c r="AD105" s="106"/>
+      <c r="A105" s="156"/>
+      <c r="B105" s="157"/>
+      <c r="C105" s="157"/>
+      <c r="D105" s="157"/>
+      <c r="E105" s="157"/>
+      <c r="F105" s="157"/>
+      <c r="G105" s="157"/>
+      <c r="H105" s="157"/>
+      <c r="I105" s="157"/>
+      <c r="J105" s="157"/>
+      <c r="K105" s="157"/>
+      <c r="L105" s="157"/>
+      <c r="M105" s="157"/>
+      <c r="N105" s="157"/>
+      <c r="O105" s="157"/>
+      <c r="P105" s="157"/>
+      <c r="Q105" s="157"/>
+      <c r="R105" s="157"/>
+      <c r="S105" s="157"/>
+      <c r="T105" s="157"/>
+      <c r="U105" s="157"/>
+      <c r="V105" s="157"/>
+      <c r="W105" s="157"/>
+      <c r="X105" s="157"/>
+      <c r="Y105" s="157"/>
+      <c r="Z105" s="157"/>
+      <c r="AA105" s="157"/>
+      <c r="AB105" s="157"/>
+      <c r="AC105" s="157"/>
+      <c r="AD105" s="158"/>
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A106" s="86" t="s">
+      <c r="A106" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="B106" s="87"/>
-      <c r="C106" s="87"/>
-      <c r="D106" s="87"/>
-      <c r="E106" s="87"/>
-      <c r="F106" s="87"/>
-      <c r="G106" s="87"/>
-      <c r="H106" s="87"/>
-      <c r="I106" s="87"/>
-      <c r="J106" s="87"/>
-      <c r="K106" s="87"/>
-      <c r="L106" s="87"/>
-      <c r="M106" s="87"/>
-      <c r="N106" s="87"/>
-      <c r="O106" s="87"/>
-      <c r="P106" s="87"/>
-      <c r="Q106" s="87"/>
-      <c r="R106" s="87"/>
-      <c r="S106" s="87"/>
-      <c r="T106" s="87"/>
-      <c r="U106" s="87"/>
-      <c r="V106" s="87"/>
-      <c r="W106" s="87"/>
-      <c r="X106" s="87"/>
-      <c r="Y106" s="87"/>
-      <c r="Z106" s="87"/>
-      <c r="AA106" s="87"/>
-      <c r="AB106" s="87"/>
-      <c r="AC106" s="87"/>
-      <c r="AD106" s="88"/>
+      <c r="B106" s="135"/>
+      <c r="C106" s="135"/>
+      <c r="D106" s="135"/>
+      <c r="E106" s="135"/>
+      <c r="F106" s="135"/>
+      <c r="G106" s="135"/>
+      <c r="H106" s="135"/>
+      <c r="I106" s="135"/>
+      <c r="J106" s="135"/>
+      <c r="K106" s="135"/>
+      <c r="L106" s="135"/>
+      <c r="M106" s="135"/>
+      <c r="N106" s="135"/>
+      <c r="O106" s="135"/>
+      <c r="P106" s="135"/>
+      <c r="Q106" s="135"/>
+      <c r="R106" s="135"/>
+      <c r="S106" s="135"/>
+      <c r="T106" s="135"/>
+      <c r="U106" s="135"/>
+      <c r="V106" s="135"/>
+      <c r="W106" s="135"/>
+      <c r="X106" s="135"/>
+      <c r="Y106" s="135"/>
+      <c r="Z106" s="135"/>
+      <c r="AA106" s="135"/>
+      <c r="AB106" s="135"/>
+      <c r="AC106" s="135"/>
+      <c r="AD106" s="136"/>
     </row>
     <row r="107" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="107" t="s">
+      <c r="A107" s="159" t="s">
         <v>68</v>
       </c>
-      <c r="B107" s="108"/>
-      <c r="C107" s="108"/>
-      <c r="D107" s="108"/>
-      <c r="E107" s="108"/>
-      <c r="F107" s="108"/>
-      <c r="G107" s="108"/>
-      <c r="H107" s="108"/>
-      <c r="I107" s="108"/>
-      <c r="J107" s="108"/>
-      <c r="K107" s="108"/>
-      <c r="L107" s="108"/>
-      <c r="M107" s="108"/>
-      <c r="N107" s="108"/>
-      <c r="O107" s="108"/>
-      <c r="P107" s="108"/>
-      <c r="Q107" s="108"/>
-      <c r="R107" s="108"/>
-      <c r="S107" s="108"/>
-      <c r="T107" s="108"/>
-      <c r="U107" s="108"/>
-      <c r="V107" s="108"/>
-      <c r="W107" s="108"/>
-      <c r="X107" s="108"/>
-      <c r="Y107" s="108"/>
-      <c r="Z107" s="108"/>
-      <c r="AA107" s="108"/>
-      <c r="AB107" s="108"/>
-      <c r="AC107" s="108"/>
-      <c r="AD107" s="109"/>
+      <c r="B107" s="160"/>
+      <c r="C107" s="160"/>
+      <c r="D107" s="160"/>
+      <c r="E107" s="160"/>
+      <c r="F107" s="160"/>
+      <c r="G107" s="160"/>
+      <c r="H107" s="160"/>
+      <c r="I107" s="160"/>
+      <c r="J107" s="160"/>
+      <c r="K107" s="160"/>
+      <c r="L107" s="160"/>
+      <c r="M107" s="160"/>
+      <c r="N107" s="160"/>
+      <c r="O107" s="160"/>
+      <c r="P107" s="160"/>
+      <c r="Q107" s="160"/>
+      <c r="R107" s="160"/>
+      <c r="S107" s="160"/>
+      <c r="T107" s="160"/>
+      <c r="U107" s="160"/>
+      <c r="V107" s="160"/>
+      <c r="W107" s="160"/>
+      <c r="X107" s="160"/>
+      <c r="Y107" s="160"/>
+      <c r="Z107" s="160"/>
+      <c r="AA107" s="160"/>
+      <c r="AB107" s="160"/>
+      <c r="AC107" s="160"/>
+      <c r="AD107" s="161"/>
     </row>
     <row r="108" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="110"/>
-      <c r="B108" s="111"/>
-      <c r="C108" s="111"/>
-      <c r="D108" s="111"/>
-      <c r="E108" s="111"/>
-      <c r="F108" s="111"/>
-      <c r="G108" s="111"/>
-      <c r="H108" s="111"/>
-      <c r="I108" s="111"/>
-      <c r="J108" s="111"/>
-      <c r="K108" s="111"/>
-      <c r="L108" s="111"/>
-      <c r="M108" s="111"/>
-      <c r="N108" s="111"/>
-      <c r="O108" s="111"/>
-      <c r="P108" s="111"/>
-      <c r="Q108" s="111"/>
-      <c r="R108" s="111"/>
-      <c r="S108" s="111"/>
-      <c r="T108" s="111"/>
-      <c r="U108" s="111"/>
-      <c r="V108" s="111"/>
-      <c r="W108" s="111"/>
-      <c r="X108" s="111"/>
-      <c r="Y108" s="111"/>
-      <c r="Z108" s="111"/>
-      <c r="AA108" s="111"/>
-      <c r="AB108" s="111"/>
-      <c r="AC108" s="111"/>
-      <c r="AD108" s="112"/>
+      <c r="A108" s="162"/>
+      <c r="B108" s="163"/>
+      <c r="C108" s="163"/>
+      <c r="D108" s="163"/>
+      <c r="E108" s="163"/>
+      <c r="F108" s="163"/>
+      <c r="G108" s="163"/>
+      <c r="H108" s="163"/>
+      <c r="I108" s="163"/>
+      <c r="J108" s="163"/>
+      <c r="K108" s="163"/>
+      <c r="L108" s="163"/>
+      <c r="M108" s="163"/>
+      <c r="N108" s="163"/>
+      <c r="O108" s="163"/>
+      <c r="P108" s="163"/>
+      <c r="Q108" s="163"/>
+      <c r="R108" s="163"/>
+      <c r="S108" s="163"/>
+      <c r="T108" s="163"/>
+      <c r="U108" s="163"/>
+      <c r="V108" s="163"/>
+      <c r="W108" s="163"/>
+      <c r="X108" s="163"/>
+      <c r="Y108" s="163"/>
+      <c r="Z108" s="163"/>
+      <c r="AA108" s="163"/>
+      <c r="AB108" s="163"/>
+      <c r="AC108" s="163"/>
+      <c r="AD108" s="164"/>
     </row>
     <row r="109" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="110"/>
-      <c r="B109" s="111"/>
-      <c r="C109" s="111"/>
-      <c r="D109" s="111"/>
-      <c r="E109" s="111"/>
-      <c r="F109" s="111"/>
-      <c r="G109" s="111"/>
-      <c r="H109" s="111"/>
-      <c r="I109" s="111"/>
-      <c r="J109" s="111"/>
-      <c r="K109" s="111"/>
-      <c r="L109" s="111"/>
-      <c r="M109" s="111"/>
-      <c r="N109" s="111"/>
-      <c r="O109" s="111"/>
-      <c r="P109" s="111"/>
-      <c r="Q109" s="111"/>
-      <c r="R109" s="111"/>
-      <c r="S109" s="111"/>
-      <c r="T109" s="111"/>
-      <c r="U109" s="111"/>
-      <c r="V109" s="111"/>
-      <c r="W109" s="111"/>
-      <c r="X109" s="111"/>
-      <c r="Y109" s="111"/>
-      <c r="Z109" s="111"/>
-      <c r="AA109" s="111"/>
-      <c r="AB109" s="111"/>
-      <c r="AC109" s="111"/>
-      <c r="AD109" s="112"/>
+      <c r="A109" s="162"/>
+      <c r="B109" s="163"/>
+      <c r="C109" s="163"/>
+      <c r="D109" s="163"/>
+      <c r="E109" s="163"/>
+      <c r="F109" s="163"/>
+      <c r="G109" s="163"/>
+      <c r="H109" s="163"/>
+      <c r="I109" s="163"/>
+      <c r="J109" s="163"/>
+      <c r="K109" s="163"/>
+      <c r="L109" s="163"/>
+      <c r="M109" s="163"/>
+      <c r="N109" s="163"/>
+      <c r="O109" s="163"/>
+      <c r="P109" s="163"/>
+      <c r="Q109" s="163"/>
+      <c r="R109" s="163"/>
+      <c r="S109" s="163"/>
+      <c r="T109" s="163"/>
+      <c r="U109" s="163"/>
+      <c r="V109" s="163"/>
+      <c r="W109" s="163"/>
+      <c r="X109" s="163"/>
+      <c r="Y109" s="163"/>
+      <c r="Z109" s="163"/>
+      <c r="AA109" s="163"/>
+      <c r="AB109" s="163"/>
+      <c r="AC109" s="163"/>
+      <c r="AD109" s="164"/>
     </row>
     <row r="110" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="110"/>
-      <c r="B110" s="111"/>
-      <c r="C110" s="111"/>
-      <c r="D110" s="111"/>
-      <c r="E110" s="111"/>
-      <c r="F110" s="111"/>
-      <c r="G110" s="111"/>
-      <c r="H110" s="111"/>
-      <c r="I110" s="111"/>
-      <c r="J110" s="111"/>
-      <c r="K110" s="111"/>
-      <c r="L110" s="111"/>
-      <c r="M110" s="111"/>
-      <c r="N110" s="111"/>
-      <c r="O110" s="111"/>
-      <c r="P110" s="111"/>
-      <c r="Q110" s="111"/>
-      <c r="R110" s="111"/>
-      <c r="S110" s="111"/>
-      <c r="T110" s="111"/>
-      <c r="U110" s="111"/>
-      <c r="V110" s="111"/>
-      <c r="W110" s="111"/>
-      <c r="X110" s="111"/>
-      <c r="Y110" s="111"/>
-      <c r="Z110" s="111"/>
-      <c r="AA110" s="111"/>
-      <c r="AB110" s="111"/>
-      <c r="AC110" s="111"/>
-      <c r="AD110" s="112"/>
+      <c r="A110" s="162"/>
+      <c r="B110" s="163"/>
+      <c r="C110" s="163"/>
+      <c r="D110" s="163"/>
+      <c r="E110" s="163"/>
+      <c r="F110" s="163"/>
+      <c r="G110" s="163"/>
+      <c r="H110" s="163"/>
+      <c r="I110" s="163"/>
+      <c r="J110" s="163"/>
+      <c r="K110" s="163"/>
+      <c r="L110" s="163"/>
+      <c r="M110" s="163"/>
+      <c r="N110" s="163"/>
+      <c r="O110" s="163"/>
+      <c r="P110" s="163"/>
+      <c r="Q110" s="163"/>
+      <c r="R110" s="163"/>
+      <c r="S110" s="163"/>
+      <c r="T110" s="163"/>
+      <c r="U110" s="163"/>
+      <c r="V110" s="163"/>
+      <c r="W110" s="163"/>
+      <c r="X110" s="163"/>
+      <c r="Y110" s="163"/>
+      <c r="Z110" s="163"/>
+      <c r="AA110" s="163"/>
+      <c r="AB110" s="163"/>
+      <c r="AC110" s="163"/>
+      <c r="AD110" s="164"/>
     </row>
     <row r="111" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="113"/>
-      <c r="B111" s="114"/>
-      <c r="C111" s="114"/>
-      <c r="D111" s="114"/>
-      <c r="E111" s="114"/>
-      <c r="F111" s="114"/>
-      <c r="G111" s="114"/>
-      <c r="H111" s="114"/>
-      <c r="I111" s="114"/>
-      <c r="J111" s="114"/>
-      <c r="K111" s="114"/>
-      <c r="L111" s="114"/>
-      <c r="M111" s="114"/>
-      <c r="N111" s="114"/>
-      <c r="O111" s="114"/>
-      <c r="P111" s="114"/>
-      <c r="Q111" s="114"/>
-      <c r="R111" s="114"/>
-      <c r="S111" s="114"/>
-      <c r="T111" s="114"/>
-      <c r="U111" s="114"/>
-      <c r="V111" s="114"/>
-      <c r="W111" s="114"/>
-      <c r="X111" s="114"/>
-      <c r="Y111" s="114"/>
-      <c r="Z111" s="114"/>
-      <c r="AA111" s="114"/>
-      <c r="AB111" s="114"/>
-      <c r="AC111" s="114"/>
-      <c r="AD111" s="115"/>
+      <c r="A111" s="165"/>
+      <c r="B111" s="166"/>
+      <c r="C111" s="166"/>
+      <c r="D111" s="166"/>
+      <c r="E111" s="166"/>
+      <c r="F111" s="166"/>
+      <c r="G111" s="166"/>
+      <c r="H111" s="166"/>
+      <c r="I111" s="166"/>
+      <c r="J111" s="166"/>
+      <c r="K111" s="166"/>
+      <c r="L111" s="166"/>
+      <c r="M111" s="166"/>
+      <c r="N111" s="166"/>
+      <c r="O111" s="166"/>
+      <c r="P111" s="166"/>
+      <c r="Q111" s="166"/>
+      <c r="R111" s="166"/>
+      <c r="S111" s="166"/>
+      <c r="T111" s="166"/>
+      <c r="U111" s="166"/>
+      <c r="V111" s="166"/>
+      <c r="W111" s="166"/>
+      <c r="X111" s="166"/>
+      <c r="Y111" s="166"/>
+      <c r="Z111" s="166"/>
+      <c r="AA111" s="166"/>
+      <c r="AB111" s="166"/>
+      <c r="AC111" s="166"/>
+      <c r="AD111" s="167"/>
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A112" s="86" t="s">
+      <c r="A112" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="B112" s="87"/>
-      <c r="C112" s="87"/>
-      <c r="D112" s="87"/>
-      <c r="E112" s="87"/>
-      <c r="F112" s="87"/>
-      <c r="G112" s="87"/>
-      <c r="H112" s="87"/>
-      <c r="I112" s="87"/>
-      <c r="J112" s="87"/>
-      <c r="K112" s="87"/>
-      <c r="L112" s="87"/>
-      <c r="M112" s="87"/>
-      <c r="N112" s="87"/>
-      <c r="O112" s="87"/>
-      <c r="P112" s="87"/>
-      <c r="Q112" s="87"/>
-      <c r="R112" s="87"/>
-      <c r="S112" s="87"/>
-      <c r="T112" s="87"/>
-      <c r="U112" s="87"/>
-      <c r="V112" s="87"/>
-      <c r="W112" s="87"/>
-      <c r="X112" s="87"/>
-      <c r="Y112" s="87"/>
-      <c r="Z112" s="87"/>
-      <c r="AA112" s="87"/>
-      <c r="AB112" s="87"/>
-      <c r="AC112" s="87"/>
-      <c r="AD112" s="88"/>
+      <c r="B112" s="135"/>
+      <c r="C112" s="135"/>
+      <c r="D112" s="135"/>
+      <c r="E112" s="135"/>
+      <c r="F112" s="135"/>
+      <c r="G112" s="135"/>
+      <c r="H112" s="135"/>
+      <c r="I112" s="135"/>
+      <c r="J112" s="135"/>
+      <c r="K112" s="135"/>
+      <c r="L112" s="135"/>
+      <c r="M112" s="135"/>
+      <c r="N112" s="135"/>
+      <c r="O112" s="135"/>
+      <c r="P112" s="135"/>
+      <c r="Q112" s="135"/>
+      <c r="R112" s="135"/>
+      <c r="S112" s="135"/>
+      <c r="T112" s="135"/>
+      <c r="U112" s="135"/>
+      <c r="V112" s="135"/>
+      <c r="W112" s="135"/>
+      <c r="X112" s="135"/>
+      <c r="Y112" s="135"/>
+      <c r="Z112" s="135"/>
+      <c r="AA112" s="135"/>
+      <c r="AB112" s="135"/>
+      <c r="AC112" s="135"/>
+      <c r="AD112" s="136"/>
     </row>
     <row r="113" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="182" t="s">
+      <c r="A113" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="B113" s="183"/>
-      <c r="C113" s="183"/>
-      <c r="D113" s="183"/>
-      <c r="E113" s="183"/>
-      <c r="F113" s="183"/>
-      <c r="G113" s="183"/>
-      <c r="H113" s="183"/>
-      <c r="I113" s="183"/>
-      <c r="J113" s="183"/>
-      <c r="K113" s="183"/>
-      <c r="L113" s="183"/>
-      <c r="M113" s="183"/>
-      <c r="N113" s="183"/>
-      <c r="O113" s="183"/>
-      <c r="P113" s="183"/>
-      <c r="Q113" s="183"/>
-      <c r="R113" s="183"/>
-      <c r="S113" s="183"/>
-      <c r="T113" s="183"/>
-      <c r="U113" s="183"/>
-      <c r="V113" s="183"/>
-      <c r="W113" s="183"/>
-      <c r="X113" s="183"/>
-      <c r="Y113" s="183"/>
-      <c r="Z113" s="183"/>
-      <c r="AA113" s="183"/>
-      <c r="AB113" s="183"/>
-      <c r="AC113" s="183"/>
-      <c r="AD113" s="184"/>
+      <c r="B113" s="138"/>
+      <c r="C113" s="138"/>
+      <c r="D113" s="138"/>
+      <c r="E113" s="138"/>
+      <c r="F113" s="138"/>
+      <c r="G113" s="138"/>
+      <c r="H113" s="138"/>
+      <c r="I113" s="138"/>
+      <c r="J113" s="138"/>
+      <c r="K113" s="138"/>
+      <c r="L113" s="138"/>
+      <c r="M113" s="138"/>
+      <c r="N113" s="138"/>
+      <c r="O113" s="138"/>
+      <c r="P113" s="138"/>
+      <c r="Q113" s="138"/>
+      <c r="R113" s="138"/>
+      <c r="S113" s="138"/>
+      <c r="T113" s="138"/>
+      <c r="U113" s="138"/>
+      <c r="V113" s="138"/>
+      <c r="W113" s="138"/>
+      <c r="X113" s="138"/>
+      <c r="Y113" s="138"/>
+      <c r="Z113" s="138"/>
+      <c r="AA113" s="138"/>
+      <c r="AB113" s="138"/>
+      <c r="AC113" s="138"/>
+      <c r="AD113" s="139"/>
     </row>
     <row r="114" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="185"/>
-      <c r="B114" s="183"/>
-      <c r="C114" s="183"/>
-      <c r="D114" s="183"/>
-      <c r="E114" s="183"/>
-      <c r="F114" s="183"/>
-      <c r="G114" s="183"/>
-      <c r="H114" s="183"/>
-      <c r="I114" s="183"/>
-      <c r="J114" s="183"/>
-      <c r="K114" s="183"/>
-      <c r="L114" s="183"/>
-      <c r="M114" s="183"/>
-      <c r="N114" s="183"/>
-      <c r="O114" s="183"/>
-      <c r="P114" s="183"/>
-      <c r="Q114" s="183"/>
-      <c r="R114" s="183"/>
-      <c r="S114" s="183"/>
-      <c r="T114" s="183"/>
-      <c r="U114" s="183"/>
-      <c r="V114" s="183"/>
-      <c r="W114" s="183"/>
-      <c r="X114" s="183"/>
-      <c r="Y114" s="183"/>
-      <c r="Z114" s="183"/>
-      <c r="AA114" s="183"/>
-      <c r="AB114" s="183"/>
-      <c r="AC114" s="183"/>
-      <c r="AD114" s="184"/>
+      <c r="A114" s="140"/>
+      <c r="B114" s="138"/>
+      <c r="C114" s="138"/>
+      <c r="D114" s="138"/>
+      <c r="E114" s="138"/>
+      <c r="F114" s="138"/>
+      <c r="G114" s="138"/>
+      <c r="H114" s="138"/>
+      <c r="I114" s="138"/>
+      <c r="J114" s="138"/>
+      <c r="K114" s="138"/>
+      <c r="L114" s="138"/>
+      <c r="M114" s="138"/>
+      <c r="N114" s="138"/>
+      <c r="O114" s="138"/>
+      <c r="P114" s="138"/>
+      <c r="Q114" s="138"/>
+      <c r="R114" s="138"/>
+      <c r="S114" s="138"/>
+      <c r="T114" s="138"/>
+      <c r="U114" s="138"/>
+      <c r="V114" s="138"/>
+      <c r="W114" s="138"/>
+      <c r="X114" s="138"/>
+      <c r="Y114" s="138"/>
+      <c r="Z114" s="138"/>
+      <c r="AA114" s="138"/>
+      <c r="AB114" s="138"/>
+      <c r="AC114" s="138"/>
+      <c r="AD114" s="139"/>
     </row>
     <row r="115" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="185"/>
-      <c r="B115" s="183"/>
-      <c r="C115" s="183"/>
-      <c r="D115" s="183"/>
-      <c r="E115" s="183"/>
-      <c r="F115" s="183"/>
-      <c r="G115" s="183"/>
-      <c r="H115" s="183"/>
-      <c r="I115" s="183"/>
-      <c r="J115" s="183"/>
-      <c r="K115" s="183"/>
-      <c r="L115" s="183"/>
-      <c r="M115" s="183"/>
-      <c r="N115" s="183"/>
-      <c r="O115" s="183"/>
-      <c r="P115" s="183"/>
-      <c r="Q115" s="183"/>
-      <c r="R115" s="183"/>
-      <c r="S115" s="183"/>
-      <c r="T115" s="183"/>
-      <c r="U115" s="183"/>
-      <c r="V115" s="183"/>
-      <c r="W115" s="183"/>
-      <c r="X115" s="183"/>
-      <c r="Y115" s="183"/>
-      <c r="Z115" s="183"/>
-      <c r="AA115" s="183"/>
-      <c r="AB115" s="183"/>
-      <c r="AC115" s="183"/>
-      <c r="AD115" s="184"/>
+      <c r="A115" s="140"/>
+      <c r="B115" s="138"/>
+      <c r="C115" s="138"/>
+      <c r="D115" s="138"/>
+      <c r="E115" s="138"/>
+      <c r="F115" s="138"/>
+      <c r="G115" s="138"/>
+      <c r="H115" s="138"/>
+      <c r="I115" s="138"/>
+      <c r="J115" s="138"/>
+      <c r="K115" s="138"/>
+      <c r="L115" s="138"/>
+      <c r="M115" s="138"/>
+      <c r="N115" s="138"/>
+      <c r="O115" s="138"/>
+      <c r="P115" s="138"/>
+      <c r="Q115" s="138"/>
+      <c r="R115" s="138"/>
+      <c r="S115" s="138"/>
+      <c r="T115" s="138"/>
+      <c r="U115" s="138"/>
+      <c r="V115" s="138"/>
+      <c r="W115" s="138"/>
+      <c r="X115" s="138"/>
+      <c r="Y115" s="138"/>
+      <c r="Z115" s="138"/>
+      <c r="AA115" s="138"/>
+      <c r="AB115" s="138"/>
+      <c r="AC115" s="138"/>
+      <c r="AD115" s="139"/>
     </row>
     <row r="116" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="185"/>
-      <c r="B116" s="183"/>
-      <c r="C116" s="183"/>
-      <c r="D116" s="183"/>
-      <c r="E116" s="183"/>
-      <c r="F116" s="183"/>
-      <c r="G116" s="183"/>
-      <c r="H116" s="183"/>
-      <c r="I116" s="183"/>
-      <c r="J116" s="183"/>
-      <c r="K116" s="183"/>
-      <c r="L116" s="183"/>
-      <c r="M116" s="183"/>
-      <c r="N116" s="183"/>
-      <c r="O116" s="183"/>
-      <c r="P116" s="183"/>
-      <c r="Q116" s="183"/>
-      <c r="R116" s="183"/>
-      <c r="S116" s="183"/>
-      <c r="T116" s="183"/>
-      <c r="U116" s="183"/>
-      <c r="V116" s="183"/>
-      <c r="W116" s="183"/>
-      <c r="X116" s="183"/>
-      <c r="Y116" s="183"/>
-      <c r="Z116" s="183"/>
-      <c r="AA116" s="183"/>
-      <c r="AB116" s="183"/>
-      <c r="AC116" s="183"/>
-      <c r="AD116" s="184"/>
+      <c r="A116" s="140"/>
+      <c r="B116" s="138"/>
+      <c r="C116" s="138"/>
+      <c r="D116" s="138"/>
+      <c r="E116" s="138"/>
+      <c r="F116" s="138"/>
+      <c r="G116" s="138"/>
+      <c r="H116" s="138"/>
+      <c r="I116" s="138"/>
+      <c r="J116" s="138"/>
+      <c r="K116" s="138"/>
+      <c r="L116" s="138"/>
+      <c r="M116" s="138"/>
+      <c r="N116" s="138"/>
+      <c r="O116" s="138"/>
+      <c r="P116" s="138"/>
+      <c r="Q116" s="138"/>
+      <c r="R116" s="138"/>
+      <c r="S116" s="138"/>
+      <c r="T116" s="138"/>
+      <c r="U116" s="138"/>
+      <c r="V116" s="138"/>
+      <c r="W116" s="138"/>
+      <c r="X116" s="138"/>
+      <c r="Y116" s="138"/>
+      <c r="Z116" s="138"/>
+      <c r="AA116" s="138"/>
+      <c r="AB116" s="138"/>
+      <c r="AC116" s="138"/>
+      <c r="AD116" s="139"/>
     </row>
     <row r="117" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="185"/>
-      <c r="B117" s="183"/>
-      <c r="C117" s="183"/>
-      <c r="D117" s="183"/>
-      <c r="E117" s="183"/>
-      <c r="F117" s="183"/>
-      <c r="G117" s="183"/>
-      <c r="H117" s="183"/>
-      <c r="I117" s="183"/>
-      <c r="J117" s="183"/>
-      <c r="K117" s="183"/>
-      <c r="L117" s="183"/>
-      <c r="M117" s="183"/>
-      <c r="N117" s="183"/>
-      <c r="O117" s="183"/>
-      <c r="P117" s="183"/>
-      <c r="Q117" s="183"/>
-      <c r="R117" s="183"/>
-      <c r="S117" s="183"/>
-      <c r="T117" s="183"/>
-      <c r="U117" s="183"/>
-      <c r="V117" s="183"/>
-      <c r="W117" s="183"/>
-      <c r="X117" s="183"/>
-      <c r="Y117" s="183"/>
-      <c r="Z117" s="183"/>
-      <c r="AA117" s="183"/>
-      <c r="AB117" s="183"/>
-      <c r="AC117" s="183"/>
-      <c r="AD117" s="184"/>
+      <c r="A117" s="140"/>
+      <c r="B117" s="138"/>
+      <c r="C117" s="138"/>
+      <c r="D117" s="138"/>
+      <c r="E117" s="138"/>
+      <c r="F117" s="138"/>
+      <c r="G117" s="138"/>
+      <c r="H117" s="138"/>
+      <c r="I117" s="138"/>
+      <c r="J117" s="138"/>
+      <c r="K117" s="138"/>
+      <c r="L117" s="138"/>
+      <c r="M117" s="138"/>
+      <c r="N117" s="138"/>
+      <c r="O117" s="138"/>
+      <c r="P117" s="138"/>
+      <c r="Q117" s="138"/>
+      <c r="R117" s="138"/>
+      <c r="S117" s="138"/>
+      <c r="T117" s="138"/>
+      <c r="U117" s="138"/>
+      <c r="V117" s="138"/>
+      <c r="W117" s="138"/>
+      <c r="X117" s="138"/>
+      <c r="Y117" s="138"/>
+      <c r="Z117" s="138"/>
+      <c r="AA117" s="138"/>
+      <c r="AB117" s="138"/>
+      <c r="AC117" s="138"/>
+      <c r="AD117" s="139"/>
     </row>
     <row r="118" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="185"/>
-      <c r="B118" s="183"/>
-      <c r="C118" s="183"/>
-      <c r="D118" s="183"/>
-      <c r="E118" s="183"/>
-      <c r="F118" s="183"/>
-      <c r="G118" s="183"/>
-      <c r="H118" s="183"/>
-      <c r="I118" s="183"/>
-      <c r="J118" s="183"/>
-      <c r="K118" s="183"/>
-      <c r="L118" s="183"/>
-      <c r="M118" s="183"/>
-      <c r="N118" s="183"/>
-      <c r="O118" s="183"/>
-      <c r="P118" s="183"/>
-      <c r="Q118" s="183"/>
-      <c r="R118" s="183"/>
-      <c r="S118" s="183"/>
-      <c r="T118" s="183"/>
-      <c r="U118" s="183"/>
-      <c r="V118" s="183"/>
-      <c r="W118" s="183"/>
-      <c r="X118" s="183"/>
-      <c r="Y118" s="183"/>
-      <c r="Z118" s="183"/>
-      <c r="AA118" s="183"/>
-      <c r="AB118" s="183"/>
-      <c r="AC118" s="183"/>
-      <c r="AD118" s="184"/>
+      <c r="A118" s="140"/>
+      <c r="B118" s="138"/>
+      <c r="C118" s="138"/>
+      <c r="D118" s="138"/>
+      <c r="E118" s="138"/>
+      <c r="F118" s="138"/>
+      <c r="G118" s="138"/>
+      <c r="H118" s="138"/>
+      <c r="I118" s="138"/>
+      <c r="J118" s="138"/>
+      <c r="K118" s="138"/>
+      <c r="L118" s="138"/>
+      <c r="M118" s="138"/>
+      <c r="N118" s="138"/>
+      <c r="O118" s="138"/>
+      <c r="P118" s="138"/>
+      <c r="Q118" s="138"/>
+      <c r="R118" s="138"/>
+      <c r="S118" s="138"/>
+      <c r="T118" s="138"/>
+      <c r="U118" s="138"/>
+      <c r="V118" s="138"/>
+      <c r="W118" s="138"/>
+      <c r="X118" s="138"/>
+      <c r="Y118" s="138"/>
+      <c r="Z118" s="138"/>
+      <c r="AA118" s="138"/>
+      <c r="AB118" s="138"/>
+      <c r="AC118" s="138"/>
+      <c r="AD118" s="139"/>
     </row>
     <row r="119" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="185"/>
-      <c r="B119" s="183"/>
-      <c r="C119" s="183"/>
-      <c r="D119" s="183"/>
-      <c r="E119" s="183"/>
-      <c r="F119" s="183"/>
-      <c r="G119" s="183"/>
-      <c r="H119" s="183"/>
-      <c r="I119" s="183"/>
-      <c r="J119" s="183"/>
-      <c r="K119" s="183"/>
-      <c r="L119" s="183"/>
-      <c r="M119" s="183"/>
-      <c r="N119" s="183"/>
-      <c r="O119" s="183"/>
-      <c r="P119" s="183"/>
-      <c r="Q119" s="183"/>
-      <c r="R119" s="183"/>
-      <c r="S119" s="183"/>
-      <c r="T119" s="183"/>
-      <c r="U119" s="183"/>
-      <c r="V119" s="183"/>
-      <c r="W119" s="183"/>
-      <c r="X119" s="183"/>
-      <c r="Y119" s="183"/>
-      <c r="Z119" s="183"/>
-      <c r="AA119" s="183"/>
-      <c r="AB119" s="183"/>
-      <c r="AC119" s="183"/>
-      <c r="AD119" s="184"/>
+      <c r="A119" s="140"/>
+      <c r="B119" s="138"/>
+      <c r="C119" s="138"/>
+      <c r="D119" s="138"/>
+      <c r="E119" s="138"/>
+      <c r="F119" s="138"/>
+      <c r="G119" s="138"/>
+      <c r="H119" s="138"/>
+      <c r="I119" s="138"/>
+      <c r="J119" s="138"/>
+      <c r="K119" s="138"/>
+      <c r="L119" s="138"/>
+      <c r="M119" s="138"/>
+      <c r="N119" s="138"/>
+      <c r="O119" s="138"/>
+      <c r="P119" s="138"/>
+      <c r="Q119" s="138"/>
+      <c r="R119" s="138"/>
+      <c r="S119" s="138"/>
+      <c r="T119" s="138"/>
+      <c r="U119" s="138"/>
+      <c r="V119" s="138"/>
+      <c r="W119" s="138"/>
+      <c r="X119" s="138"/>
+      <c r="Y119" s="138"/>
+      <c r="Z119" s="138"/>
+      <c r="AA119" s="138"/>
+      <c r="AB119" s="138"/>
+      <c r="AC119" s="138"/>
+      <c r="AD119" s="139"/>
     </row>
     <row r="120" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="185"/>
-      <c r="B120" s="183"/>
-      <c r="C120" s="183"/>
-      <c r="D120" s="183"/>
-      <c r="E120" s="183"/>
-      <c r="F120" s="183"/>
-      <c r="G120" s="183"/>
-      <c r="H120" s="183"/>
-      <c r="I120" s="183"/>
-      <c r="J120" s="183"/>
-      <c r="K120" s="183"/>
-      <c r="L120" s="183"/>
-      <c r="M120" s="183"/>
-      <c r="N120" s="183"/>
-      <c r="O120" s="183"/>
-      <c r="P120" s="183"/>
-      <c r="Q120" s="183"/>
-      <c r="R120" s="183"/>
-      <c r="S120" s="183"/>
-      <c r="T120" s="183"/>
-      <c r="U120" s="183"/>
-      <c r="V120" s="183"/>
-      <c r="W120" s="183"/>
-      <c r="X120" s="183"/>
-      <c r="Y120" s="183"/>
-      <c r="Z120" s="183"/>
-      <c r="AA120" s="183"/>
-      <c r="AB120" s="183"/>
-      <c r="AC120" s="183"/>
-      <c r="AD120" s="184"/>
+      <c r="A120" s="140"/>
+      <c r="B120" s="138"/>
+      <c r="C120" s="138"/>
+      <c r="D120" s="138"/>
+      <c r="E120" s="138"/>
+      <c r="F120" s="138"/>
+      <c r="G120" s="138"/>
+      <c r="H120" s="138"/>
+      <c r="I120" s="138"/>
+      <c r="J120" s="138"/>
+      <c r="K120" s="138"/>
+      <c r="L120" s="138"/>
+      <c r="M120" s="138"/>
+      <c r="N120" s="138"/>
+      <c r="O120" s="138"/>
+      <c r="P120" s="138"/>
+      <c r="Q120" s="138"/>
+      <c r="R120" s="138"/>
+      <c r="S120" s="138"/>
+      <c r="T120" s="138"/>
+      <c r="U120" s="138"/>
+      <c r="V120" s="138"/>
+      <c r="W120" s="138"/>
+      <c r="X120" s="138"/>
+      <c r="Y120" s="138"/>
+      <c r="Z120" s="138"/>
+      <c r="AA120" s="138"/>
+      <c r="AB120" s="138"/>
+      <c r="AC120" s="138"/>
+      <c r="AD120" s="139"/>
     </row>
     <row r="121" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="185"/>
-      <c r="B121" s="183"/>
-      <c r="C121" s="183"/>
-      <c r="D121" s="183"/>
-      <c r="E121" s="183"/>
-      <c r="F121" s="183"/>
-      <c r="G121" s="183"/>
-      <c r="H121" s="183"/>
-      <c r="I121" s="183"/>
-      <c r="J121" s="183"/>
-      <c r="K121" s="183"/>
-      <c r="L121" s="183"/>
-      <c r="M121" s="183"/>
-      <c r="N121" s="183"/>
-      <c r="O121" s="183"/>
-      <c r="P121" s="183"/>
-      <c r="Q121" s="183"/>
-      <c r="R121" s="183"/>
-      <c r="S121" s="183"/>
-      <c r="T121" s="183"/>
-      <c r="U121" s="183"/>
-      <c r="V121" s="183"/>
-      <c r="W121" s="183"/>
-      <c r="X121" s="183"/>
-      <c r="Y121" s="183"/>
-      <c r="Z121" s="183"/>
-      <c r="AA121" s="183"/>
-      <c r="AB121" s="183"/>
-      <c r="AC121" s="183"/>
-      <c r="AD121" s="184"/>
+      <c r="A121" s="140"/>
+      <c r="B121" s="138"/>
+      <c r="C121" s="138"/>
+      <c r="D121" s="138"/>
+      <c r="E121" s="138"/>
+      <c r="F121" s="138"/>
+      <c r="G121" s="138"/>
+      <c r="H121" s="138"/>
+      <c r="I121" s="138"/>
+      <c r="J121" s="138"/>
+      <c r="K121" s="138"/>
+      <c r="L121" s="138"/>
+      <c r="M121" s="138"/>
+      <c r="N121" s="138"/>
+      <c r="O121" s="138"/>
+      <c r="P121" s="138"/>
+      <c r="Q121" s="138"/>
+      <c r="R121" s="138"/>
+      <c r="S121" s="138"/>
+      <c r="T121" s="138"/>
+      <c r="U121" s="138"/>
+      <c r="V121" s="138"/>
+      <c r="W121" s="138"/>
+      <c r="X121" s="138"/>
+      <c r="Y121" s="138"/>
+      <c r="Z121" s="138"/>
+      <c r="AA121" s="138"/>
+      <c r="AB121" s="138"/>
+      <c r="AC121" s="138"/>
+      <c r="AD121" s="139"/>
     </row>
     <row r="122" spans="1:30" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="186"/>
-      <c r="B122" s="187"/>
-      <c r="C122" s="187"/>
-      <c r="D122" s="187"/>
-      <c r="E122" s="187"/>
-      <c r="F122" s="187"/>
-      <c r="G122" s="187"/>
-      <c r="H122" s="187"/>
-      <c r="I122" s="187"/>
-      <c r="J122" s="187"/>
-      <c r="K122" s="187"/>
-      <c r="L122" s="187"/>
-      <c r="M122" s="187"/>
-      <c r="N122" s="187"/>
-      <c r="O122" s="187"/>
-      <c r="P122" s="187"/>
-      <c r="Q122" s="187"/>
-      <c r="R122" s="187"/>
-      <c r="S122" s="187"/>
-      <c r="T122" s="187"/>
-      <c r="U122" s="187"/>
-      <c r="V122" s="187"/>
-      <c r="W122" s="187"/>
-      <c r="X122" s="187"/>
-      <c r="Y122" s="187"/>
-      <c r="Z122" s="187"/>
-      <c r="AA122" s="187"/>
-      <c r="AB122" s="187"/>
-      <c r="AC122" s="187"/>
-      <c r="AD122" s="188"/>
+      <c r="A122" s="141"/>
+      <c r="B122" s="142"/>
+      <c r="C122" s="142"/>
+      <c r="D122" s="142"/>
+      <c r="E122" s="142"/>
+      <c r="F122" s="142"/>
+      <c r="G122" s="142"/>
+      <c r="H122" s="142"/>
+      <c r="I122" s="142"/>
+      <c r="J122" s="142"/>
+      <c r="K122" s="142"/>
+      <c r="L122" s="142"/>
+      <c r="M122" s="142"/>
+      <c r="N122" s="142"/>
+      <c r="O122" s="142"/>
+      <c r="P122" s="142"/>
+      <c r="Q122" s="142"/>
+      <c r="R122" s="142"/>
+      <c r="S122" s="142"/>
+      <c r="T122" s="142"/>
+      <c r="U122" s="142"/>
+      <c r="V122" s="142"/>
+      <c r="W122" s="142"/>
+      <c r="X122" s="142"/>
+      <c r="Y122" s="142"/>
+      <c r="Z122" s="142"/>
+      <c r="AA122" s="142"/>
+      <c r="AB122" s="142"/>
+      <c r="AC122" s="142"/>
+      <c r="AD122" s="143"/>
     </row>
     <row r="123" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="89" t="s">
+      <c r="A123" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="B123" s="90"/>
-      <c r="C123" s="90"/>
-      <c r="D123" s="90"/>
-      <c r="E123" s="90"/>
-      <c r="F123" s="90"/>
-      <c r="G123" s="90"/>
-      <c r="H123" s="90"/>
-      <c r="I123" s="90"/>
-      <c r="J123" s="90"/>
-      <c r="K123" s="90"/>
-      <c r="L123" s="90"/>
-      <c r="M123" s="90"/>
-      <c r="N123" s="90"/>
-      <c r="O123" s="90"/>
-      <c r="P123" s="90"/>
-      <c r="Q123" s="90"/>
-      <c r="R123" s="90"/>
-      <c r="S123" s="90"/>
-      <c r="T123" s="90"/>
-      <c r="U123" s="90"/>
-      <c r="V123" s="90"/>
-      <c r="W123" s="90"/>
-      <c r="X123" s="90"/>
-      <c r="Y123" s="90"/>
-      <c r="Z123" s="90"/>
-      <c r="AA123" s="90"/>
-      <c r="AB123" s="90"/>
-      <c r="AC123" s="90"/>
-      <c r="AD123" s="91"/>
+      <c r="B123" s="145"/>
+      <c r="C123" s="145"/>
+      <c r="D123" s="145"/>
+      <c r="E123" s="145"/>
+      <c r="F123" s="145"/>
+      <c r="G123" s="145"/>
+      <c r="H123" s="145"/>
+      <c r="I123" s="145"/>
+      <c r="J123" s="145"/>
+      <c r="K123" s="145"/>
+      <c r="L123" s="145"/>
+      <c r="M123" s="145"/>
+      <c r="N123" s="145"/>
+      <c r="O123" s="145"/>
+      <c r="P123" s="145"/>
+      <c r="Q123" s="145"/>
+      <c r="R123" s="145"/>
+      <c r="S123" s="145"/>
+      <c r="T123" s="145"/>
+      <c r="U123" s="145"/>
+      <c r="V123" s="145"/>
+      <c r="W123" s="145"/>
+      <c r="X123" s="145"/>
+      <c r="Y123" s="145"/>
+      <c r="Z123" s="145"/>
+      <c r="AA123" s="145"/>
+      <c r="AB123" s="145"/>
+      <c r="AC123" s="145"/>
+      <c r="AD123" s="146"/>
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.25">
       <c r="AD126" s="7"/>
@@ -9160,15 +9162,66 @@
     <protectedRange sqref="A72:AD82" name="Rango1"/>
   </protectedRanges>
   <mergeCells count="85">
-    <mergeCell ref="A33:E35"/>
-    <mergeCell ref="G27:U27"/>
-    <mergeCell ref="H14:AD14"/>
-    <mergeCell ref="J24:AD24"/>
-    <mergeCell ref="J25:AD25"/>
-    <mergeCell ref="M26:U26"/>
-    <mergeCell ref="Z26:AD26"/>
-    <mergeCell ref="O15:AD15"/>
-    <mergeCell ref="A23:AD23"/>
+    <mergeCell ref="D9:Z9"/>
+    <mergeCell ref="N63:U63"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="W33:AB33"/>
+    <mergeCell ref="H30:AC30"/>
+    <mergeCell ref="H31:AD31"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="H37:R37"/>
+    <mergeCell ref="H38:R38"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H35:N35"/>
+    <mergeCell ref="N61:U61"/>
+    <mergeCell ref="N62:U62"/>
+    <mergeCell ref="H39:S39"/>
+    <mergeCell ref="H40:S40"/>
+    <mergeCell ref="C56:P56"/>
+    <mergeCell ref="C57:P57"/>
+    <mergeCell ref="S56:AD56"/>
+    <mergeCell ref="S57:AD57"/>
+    <mergeCell ref="A45:AD45"/>
+    <mergeCell ref="O50:U50"/>
+    <mergeCell ref="O51:U51"/>
+    <mergeCell ref="A42:E43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:O43"/>
+    <mergeCell ref="A112:AD112"/>
+    <mergeCell ref="A113:AD122"/>
+    <mergeCell ref="A123:AD123"/>
+    <mergeCell ref="A83:AD83"/>
+    <mergeCell ref="A84:AD94"/>
+    <mergeCell ref="A95:AD95"/>
+    <mergeCell ref="A96:AD105"/>
+    <mergeCell ref="A106:AD106"/>
+    <mergeCell ref="A107:AD111"/>
+    <mergeCell ref="A72:AD82"/>
+    <mergeCell ref="A64:AD64"/>
+    <mergeCell ref="A65:AD65"/>
+    <mergeCell ref="A70:AD70"/>
+    <mergeCell ref="A71:AD71"/>
+    <mergeCell ref="A66:J69"/>
+    <mergeCell ref="K66:AC67"/>
+    <mergeCell ref="AD66:AD67"/>
+    <mergeCell ref="K68:AC69"/>
+    <mergeCell ref="AD68:AD69"/>
+    <mergeCell ref="A17:E21"/>
+    <mergeCell ref="H17:Z17"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:W21"/>
+    <mergeCell ref="AA27:AD27"/>
+    <mergeCell ref="O49:U49"/>
+    <mergeCell ref="P42:T43"/>
+    <mergeCell ref="E55:O55"/>
+    <mergeCell ref="A28:AD28"/>
+    <mergeCell ref="H29:AD29"/>
+    <mergeCell ref="A29:E31"/>
+    <mergeCell ref="A37:E40"/>
     <mergeCell ref="U8:Z8"/>
     <mergeCell ref="A12:G14"/>
     <mergeCell ref="A1:J4"/>
@@ -9185,66 +9238,15 @@
     <mergeCell ref="H7:AD7"/>
     <mergeCell ref="H12:AD12"/>
     <mergeCell ref="H13:AD13"/>
-    <mergeCell ref="K66:AC67"/>
-    <mergeCell ref="AD66:AD67"/>
-    <mergeCell ref="K68:AC69"/>
-    <mergeCell ref="AD68:AD69"/>
-    <mergeCell ref="A17:E21"/>
-    <mergeCell ref="H17:Z17"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:W21"/>
-    <mergeCell ref="AA27:AD27"/>
-    <mergeCell ref="O49:U49"/>
-    <mergeCell ref="P42:T43"/>
-    <mergeCell ref="E55:O55"/>
-    <mergeCell ref="A28:AD28"/>
-    <mergeCell ref="H29:AD29"/>
-    <mergeCell ref="A29:E31"/>
-    <mergeCell ref="A37:E40"/>
-    <mergeCell ref="L42:O43"/>
-    <mergeCell ref="A112:AD112"/>
-    <mergeCell ref="A113:AD122"/>
-    <mergeCell ref="A123:AD123"/>
-    <mergeCell ref="A83:AD83"/>
-    <mergeCell ref="A84:AD94"/>
-    <mergeCell ref="A95:AD95"/>
-    <mergeCell ref="A96:AD105"/>
-    <mergeCell ref="A106:AD106"/>
-    <mergeCell ref="A107:AD111"/>
-    <mergeCell ref="A72:AD82"/>
-    <mergeCell ref="A64:AD64"/>
-    <mergeCell ref="A65:AD65"/>
-    <mergeCell ref="A70:AD70"/>
-    <mergeCell ref="A71:AD71"/>
-    <mergeCell ref="A66:J69"/>
-    <mergeCell ref="A42:E43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="C56:P56"/>
-    <mergeCell ref="C57:P57"/>
-    <mergeCell ref="S56:AD56"/>
-    <mergeCell ref="S57:AD57"/>
-    <mergeCell ref="A45:AD45"/>
-    <mergeCell ref="O50:U50"/>
-    <mergeCell ref="O51:U51"/>
-    <mergeCell ref="D9:Z9"/>
-    <mergeCell ref="N63:U63"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="W33:AB33"/>
-    <mergeCell ref="H30:AC30"/>
-    <mergeCell ref="H31:AD31"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="H37:R37"/>
-    <mergeCell ref="H38:R38"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H35:N35"/>
-    <mergeCell ref="N61:U61"/>
-    <mergeCell ref="N62:U62"/>
-    <mergeCell ref="H39:S39"/>
-    <mergeCell ref="H40:S40"/>
+    <mergeCell ref="A33:E35"/>
+    <mergeCell ref="G27:U27"/>
+    <mergeCell ref="H14:AD14"/>
+    <mergeCell ref="J24:AD24"/>
+    <mergeCell ref="J25:AD25"/>
+    <mergeCell ref="M26:U26"/>
+    <mergeCell ref="Z26:AD26"/>
+    <mergeCell ref="O15:AD15"/>
+    <mergeCell ref="A23:AD23"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" sqref="A72:AD82">

--- a/VAEE-RI-01 REGISTRO DE ESTANCIA Y ESTADÍA version 03.xlsx
+++ b/VAEE-RI-01 REGISTRO DE ESTANCIA Y ESTADÍA version 03.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t>REGISTRO DE PROYECTO</t>
   </si>
@@ -204,9 +204,6 @@
     <t>X</t>
   </si>
   <si>
-    <t>Sistema Web de Cursos Educativos con Ludificación</t>
-  </si>
-  <si>
     <t>Irma Yazmín Hernández Baez</t>
   </si>
   <si>
@@ -264,6 +261,15 @@
 Ludificación o mejor conocido por el anglicismo gamificación, en un sistema pedagógico, hace uso las mecánicas de los juegos, como puntos, niveles, insignias o tablas de clasificación y los aplica a la forma de enseñanza en un curso.
 La fusión de este sistema con la tecnología es, tal vez, el camino sencillo a la aplicación del mismo, pues el acceso que se tiene actualmente a los sistemas de información es relativamente completo. Contar con un sistema educativo que utilice el enfoque de gamificación a través de las tecnologías de la información (un sistema web) continua con la adaptación a nuestro entorno que parece seguir desarrollándose día con día. 
 </t>
+  </si>
+  <si>
+    <t>(777) 229 3506</t>
+  </si>
+  <si>
+    <t>Sistema web de cursos educativos con ludificación</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -1305,31 +1311,31 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1344,6 +1350,18 @@
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1393,39 +1411,39 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1498,18 +1516,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1893,10 +1899,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AE1167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113:AD122"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:AD94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,7 +2334,7 @@
       <c r="F12" s="84"/>
       <c r="G12" s="84"/>
       <c r="H12" s="120" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="I12" s="120"/>
       <c r="J12" s="120"/>
@@ -2432,7 +2441,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="77"/>
       <c r="Q15" s="77"/>
@@ -2729,7 +2738,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="72" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K24" s="72"/>
       <c r="L24" s="72"/>
@@ -2765,7 +2774,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="72" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K25" s="72"/>
       <c r="L25" s="72"/>
@@ -2804,7 +2813,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="74" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N26" s="74"/>
       <c r="O26" s="74"/>
@@ -2821,7 +2830,7 @@
       <c r="X26" s="29"/>
       <c r="Y26" s="29"/>
       <c r="Z26" s="75" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AA26" s="75"/>
       <c r="AB26" s="75"/>
@@ -2838,7 +2847,7 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="68" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H27" s="69"/>
       <c r="I27" s="69"/>
@@ -2861,7 +2870,9 @@
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="54"/>
-      <c r="AA27" s="75"/>
+      <c r="AA27" s="75" t="s">
+        <v>70</v>
+      </c>
       <c r="AB27" s="75"/>
       <c r="AC27" s="75"/>
       <c r="AD27" s="76"/>
@@ -3064,8 +3075,8 @@
       <c r="R33" s="123"/>
       <c r="S33" s="49"/>
       <c r="T33" s="16"/>
-      <c r="U33" s="185"/>
-      <c r="V33" s="185"/>
+      <c r="U33" s="188"/>
+      <c r="V33" s="188"/>
       <c r="W33" s="123"/>
       <c r="X33" s="123"/>
       <c r="Y33" s="123"/>
@@ -3073,7 +3084,9 @@
       <c r="AA33" s="123"/>
       <c r="AB33" s="123"/>
       <c r="AC33" s="35"/>
-      <c r="AD33" s="50"/>
+      <c r="AD33" s="50" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="34" spans="1:30" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="66"/>
@@ -3628,15 +3641,15 @@
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
-      <c r="O50" s="184" t="s">
+      <c r="O50" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="P50" s="184"/>
-      <c r="Q50" s="184"/>
-      <c r="R50" s="184"/>
-      <c r="S50" s="184"/>
-      <c r="T50" s="184"/>
-      <c r="U50" s="184"/>
+      <c r="P50" s="187"/>
+      <c r="Q50" s="187"/>
+      <c r="R50" s="187"/>
+      <c r="S50" s="187"/>
+      <c r="T50" s="187"/>
+      <c r="U50" s="187"/>
       <c r="V50" s="25"/>
       <c r="W50" s="22"/>
       <c r="X50" s="22"/>
@@ -3663,7 +3676,7 @@
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
       <c r="O51" s="88" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P51" s="88"/>
       <c r="Q51" s="88"/>
@@ -3812,74 +3825,74 @@
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
-      <c r="C56" s="178" t="s">
+      <c r="C56" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="178"/>
-      <c r="E56" s="178"/>
-      <c r="F56" s="178"/>
-      <c r="G56" s="178"/>
-      <c r="H56" s="178"/>
-      <c r="I56" s="178"/>
-      <c r="J56" s="178"/>
-      <c r="K56" s="178"/>
-      <c r="L56" s="178"/>
-      <c r="M56" s="178"/>
-      <c r="N56" s="178"/>
-      <c r="O56" s="178"/>
-      <c r="P56" s="178"/>
+      <c r="D56" s="181"/>
+      <c r="E56" s="181"/>
+      <c r="F56" s="181"/>
+      <c r="G56" s="181"/>
+      <c r="H56" s="181"/>
+      <c r="I56" s="181"/>
+      <c r="J56" s="181"/>
+      <c r="K56" s="181"/>
+      <c r="L56" s="181"/>
+      <c r="M56" s="181"/>
+      <c r="N56" s="181"/>
+      <c r="O56" s="181"/>
+      <c r="P56" s="181"/>
       <c r="Q56" s="22"/>
       <c r="R56" s="9"/>
-      <c r="S56" s="180" t="s">
+      <c r="S56" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="T56" s="180"/>
-      <c r="U56" s="180"/>
-      <c r="V56" s="180"/>
-      <c r="W56" s="180"/>
-      <c r="X56" s="181"/>
-      <c r="Y56" s="181"/>
-      <c r="Z56" s="181"/>
-      <c r="AA56" s="181"/>
-      <c r="AB56" s="181"/>
-      <c r="AC56" s="181"/>
-      <c r="AD56" s="182"/>
+      <c r="T56" s="183"/>
+      <c r="U56" s="183"/>
+      <c r="V56" s="183"/>
+      <c r="W56" s="183"/>
+      <c r="X56" s="184"/>
+      <c r="Y56" s="184"/>
+      <c r="Z56" s="184"/>
+      <c r="AA56" s="184"/>
+      <c r="AB56" s="184"/>
+      <c r="AC56" s="184"/>
+      <c r="AD56" s="185"/>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="9"/>
-      <c r="C57" s="179" t="s">
-        <v>60</v>
+      <c r="C57" s="182" t="s">
+        <v>59</v>
       </c>
-      <c r="D57" s="179"/>
-      <c r="E57" s="179"/>
-      <c r="F57" s="179"/>
-      <c r="G57" s="179"/>
-      <c r="H57" s="179"/>
-      <c r="I57" s="179"/>
-      <c r="J57" s="179"/>
-      <c r="K57" s="179"/>
-      <c r="L57" s="179"/>
-      <c r="M57" s="179"/>
-      <c r="N57" s="179"/>
-      <c r="O57" s="179"/>
-      <c r="P57" s="179"/>
+      <c r="D57" s="182"/>
+      <c r="E57" s="182"/>
+      <c r="F57" s="182"/>
+      <c r="G57" s="182"/>
+      <c r="H57" s="182"/>
+      <c r="I57" s="182"/>
+      <c r="J57" s="182"/>
+      <c r="K57" s="182"/>
+      <c r="L57" s="182"/>
+      <c r="M57" s="182"/>
+      <c r="N57" s="182"/>
+      <c r="O57" s="182"/>
+      <c r="P57" s="182"/>
       <c r="Q57" s="32"/>
       <c r="R57" s="9"/>
-      <c r="S57" s="179" t="s">
-        <v>65</v>
+      <c r="S57" s="182" t="s">
+        <v>64</v>
       </c>
-      <c r="T57" s="179"/>
-      <c r="U57" s="179"/>
-      <c r="V57" s="179"/>
-      <c r="W57" s="179"/>
-      <c r="X57" s="179"/>
-      <c r="Y57" s="179"/>
-      <c r="Z57" s="179"/>
-      <c r="AA57" s="179"/>
-      <c r="AB57" s="179"/>
-      <c r="AC57" s="179"/>
-      <c r="AD57" s="183"/>
+      <c r="T57" s="182"/>
+      <c r="U57" s="182"/>
+      <c r="V57" s="182"/>
+      <c r="W57" s="182"/>
+      <c r="X57" s="182"/>
+      <c r="Y57" s="182"/>
+      <c r="Z57" s="182"/>
+      <c r="AA57" s="182"/>
+      <c r="AB57" s="182"/>
+      <c r="AC57" s="182"/>
+      <c r="AD57" s="186"/>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -4023,16 +4036,16 @@
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
-      <c r="N62" s="184" t="s">
+      <c r="N62" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="O62" s="184"/>
-      <c r="P62" s="184"/>
-      <c r="Q62" s="184"/>
-      <c r="R62" s="184"/>
-      <c r="S62" s="184"/>
-      <c r="T62" s="184"/>
-      <c r="U62" s="184"/>
+      <c r="O62" s="187"/>
+      <c r="P62" s="187"/>
+      <c r="Q62" s="187"/>
+      <c r="R62" s="187"/>
+      <c r="S62" s="187"/>
+      <c r="T62" s="187"/>
+      <c r="U62" s="187"/>
       <c r="V62" s="25"/>
       <c r="W62" s="22"/>
       <c r="X62" s="22"/>
@@ -4057,16 +4070,16 @@
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
-      <c r="N63" s="179" t="s">
+      <c r="N63" s="182" t="s">
         <v>54</v>
       </c>
-      <c r="O63" s="179"/>
-      <c r="P63" s="179"/>
-      <c r="Q63" s="179"/>
-      <c r="R63" s="179"/>
-      <c r="S63" s="179"/>
-      <c r="T63" s="179"/>
-      <c r="U63" s="179"/>
+      <c r="O63" s="182"/>
+      <c r="P63" s="182"/>
+      <c r="Q63" s="182"/>
+      <c r="R63" s="182"/>
+      <c r="S63" s="182"/>
+      <c r="T63" s="182"/>
+      <c r="U63" s="182"/>
       <c r="V63" s="11"/>
       <c r="W63" s="32"/>
       <c r="X63" s="32"/>
@@ -4078,70 +4091,70 @@
       <c r="AD63" s="10"/>
     </row>
     <row r="64" spans="1:30" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="168" t="s">
+      <c r="A64" s="171" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="169"/>
-      <c r="C64" s="169"/>
-      <c r="D64" s="169"/>
-      <c r="E64" s="169"/>
-      <c r="F64" s="169"/>
-      <c r="G64" s="169"/>
-      <c r="H64" s="169"/>
-      <c r="I64" s="169"/>
-      <c r="J64" s="169"/>
-      <c r="K64" s="169"/>
-      <c r="L64" s="169"/>
-      <c r="M64" s="169"/>
-      <c r="N64" s="169"/>
-      <c r="O64" s="169"/>
-      <c r="P64" s="169"/>
-      <c r="Q64" s="169"/>
-      <c r="R64" s="169"/>
-      <c r="S64" s="169"/>
-      <c r="T64" s="169"/>
-      <c r="U64" s="169"/>
-      <c r="V64" s="169"/>
-      <c r="W64" s="169"/>
-      <c r="X64" s="169"/>
-      <c r="Y64" s="169"/>
-      <c r="Z64" s="169"/>
-      <c r="AA64" s="169"/>
-      <c r="AB64" s="169"/>
-      <c r="AC64" s="169"/>
-      <c r="AD64" s="170"/>
+      <c r="B64" s="172"/>
+      <c r="C64" s="172"/>
+      <c r="D64" s="172"/>
+      <c r="E64" s="172"/>
+      <c r="F64" s="172"/>
+      <c r="G64" s="172"/>
+      <c r="H64" s="172"/>
+      <c r="I64" s="172"/>
+      <c r="J64" s="172"/>
+      <c r="K64" s="172"/>
+      <c r="L64" s="172"/>
+      <c r="M64" s="172"/>
+      <c r="N64" s="172"/>
+      <c r="O64" s="172"/>
+      <c r="P64" s="172"/>
+      <c r="Q64" s="172"/>
+      <c r="R64" s="172"/>
+      <c r="S64" s="172"/>
+      <c r="T64" s="172"/>
+      <c r="U64" s="172"/>
+      <c r="V64" s="172"/>
+      <c r="W64" s="172"/>
+      <c r="X64" s="172"/>
+      <c r="Y64" s="172"/>
+      <c r="Z64" s="172"/>
+      <c r="AA64" s="172"/>
+      <c r="AB64" s="172"/>
+      <c r="AC64" s="172"/>
+      <c r="AD64" s="173"/>
     </row>
     <row r="65" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="171"/>
-      <c r="B65" s="171"/>
-      <c r="C65" s="171"/>
-      <c r="D65" s="171"/>
-      <c r="E65" s="171"/>
-      <c r="F65" s="171"/>
-      <c r="G65" s="171"/>
-      <c r="H65" s="171"/>
-      <c r="I65" s="171"/>
-      <c r="J65" s="171"/>
-      <c r="K65" s="171"/>
-      <c r="L65" s="171"/>
-      <c r="M65" s="171"/>
-      <c r="N65" s="171"/>
-      <c r="O65" s="171"/>
-      <c r="P65" s="171"/>
-      <c r="Q65" s="171"/>
-      <c r="R65" s="171"/>
-      <c r="S65" s="171"/>
-      <c r="T65" s="171"/>
-      <c r="U65" s="171"/>
-      <c r="V65" s="171"/>
-      <c r="W65" s="171"/>
-      <c r="X65" s="171"/>
-      <c r="Y65" s="171"/>
-      <c r="Z65" s="171"/>
-      <c r="AA65" s="171"/>
-      <c r="AB65" s="171"/>
-      <c r="AC65" s="171"/>
-      <c r="AD65" s="171"/>
+      <c r="A65" s="174"/>
+      <c r="B65" s="174"/>
+      <c r="C65" s="174"/>
+      <c r="D65" s="174"/>
+      <c r="E65" s="174"/>
+      <c r="F65" s="174"/>
+      <c r="G65" s="174"/>
+      <c r="H65" s="174"/>
+      <c r="I65" s="174"/>
+      <c r="J65" s="174"/>
+      <c r="K65" s="174"/>
+      <c r="L65" s="174"/>
+      <c r="M65" s="174"/>
+      <c r="N65" s="174"/>
+      <c r="O65" s="174"/>
+      <c r="P65" s="174"/>
+      <c r="Q65" s="174"/>
+      <c r="R65" s="174"/>
+      <c r="S65" s="174"/>
+      <c r="T65" s="174"/>
+      <c r="U65" s="174"/>
+      <c r="V65" s="174"/>
+      <c r="W65" s="174"/>
+      <c r="X65" s="174"/>
+      <c r="Y65" s="174"/>
+      <c r="Z65" s="174"/>
+      <c r="AA65" s="174"/>
+      <c r="AB65" s="174"/>
+      <c r="AC65" s="174"/>
+      <c r="AD65" s="174"/>
     </row>
     <row r="66" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="85"/>
@@ -4280,426 +4293,426 @@
       <c r="AD69" s="100"/>
     </row>
     <row r="70" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="172" t="s">
+      <c r="A70" s="175" t="s">
         <v>22</v>
       </c>
-      <c r="B70" s="173"/>
-      <c r="C70" s="173"/>
-      <c r="D70" s="173"/>
-      <c r="E70" s="173"/>
-      <c r="F70" s="173"/>
-      <c r="G70" s="173"/>
-      <c r="H70" s="173"/>
-      <c r="I70" s="173"/>
-      <c r="J70" s="173"/>
-      <c r="K70" s="173"/>
-      <c r="L70" s="173"/>
-      <c r="M70" s="173"/>
-      <c r="N70" s="173"/>
-      <c r="O70" s="173"/>
-      <c r="P70" s="173"/>
-      <c r="Q70" s="173"/>
-      <c r="R70" s="173"/>
-      <c r="S70" s="173"/>
-      <c r="T70" s="173"/>
-      <c r="U70" s="173"/>
-      <c r="V70" s="173"/>
-      <c r="W70" s="173"/>
-      <c r="X70" s="173"/>
-      <c r="Y70" s="173"/>
-      <c r="Z70" s="173"/>
-      <c r="AA70" s="173"/>
-      <c r="AB70" s="173"/>
-      <c r="AC70" s="173"/>
-      <c r="AD70" s="174"/>
+      <c r="B70" s="176"/>
+      <c r="C70" s="176"/>
+      <c r="D70" s="176"/>
+      <c r="E70" s="176"/>
+      <c r="F70" s="176"/>
+      <c r="G70" s="176"/>
+      <c r="H70" s="176"/>
+      <c r="I70" s="176"/>
+      <c r="J70" s="176"/>
+      <c r="K70" s="176"/>
+      <c r="L70" s="176"/>
+      <c r="M70" s="176"/>
+      <c r="N70" s="176"/>
+      <c r="O70" s="176"/>
+      <c r="P70" s="176"/>
+      <c r="Q70" s="176"/>
+      <c r="R70" s="176"/>
+      <c r="S70" s="176"/>
+      <c r="T70" s="176"/>
+      <c r="U70" s="176"/>
+      <c r="V70" s="176"/>
+      <c r="W70" s="176"/>
+      <c r="X70" s="176"/>
+      <c r="Y70" s="176"/>
+      <c r="Z70" s="176"/>
+      <c r="AA70" s="176"/>
+      <c r="AB70" s="176"/>
+      <c r="AC70" s="176"/>
+      <c r="AD70" s="177"/>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A71" s="175" t="s">
+      <c r="A71" s="178" t="s">
         <v>23</v>
       </c>
-      <c r="B71" s="176"/>
-      <c r="C71" s="176"/>
-      <c r="D71" s="176"/>
-      <c r="E71" s="176"/>
-      <c r="F71" s="176"/>
-      <c r="G71" s="176"/>
-      <c r="H71" s="176"/>
-      <c r="I71" s="176"/>
-      <c r="J71" s="176"/>
-      <c r="K71" s="176"/>
-      <c r="L71" s="176"/>
-      <c r="M71" s="176"/>
-      <c r="N71" s="176"/>
-      <c r="O71" s="176"/>
-      <c r="P71" s="176"/>
-      <c r="Q71" s="176"/>
-      <c r="R71" s="176"/>
-      <c r="S71" s="176"/>
-      <c r="T71" s="176"/>
-      <c r="U71" s="176"/>
-      <c r="V71" s="176"/>
-      <c r="W71" s="176"/>
-      <c r="X71" s="176"/>
-      <c r="Y71" s="176"/>
-      <c r="Z71" s="176"/>
-      <c r="AA71" s="176"/>
-      <c r="AB71" s="176"/>
-      <c r="AC71" s="176"/>
-      <c r="AD71" s="177"/>
+      <c r="B71" s="179"/>
+      <c r="C71" s="179"/>
+      <c r="D71" s="179"/>
+      <c r="E71" s="179"/>
+      <c r="F71" s="179"/>
+      <c r="G71" s="179"/>
+      <c r="H71" s="179"/>
+      <c r="I71" s="179"/>
+      <c r="J71" s="179"/>
+      <c r="K71" s="179"/>
+      <c r="L71" s="179"/>
+      <c r="M71" s="179"/>
+      <c r="N71" s="179"/>
+      <c r="O71" s="179"/>
+      <c r="P71" s="179"/>
+      <c r="Q71" s="179"/>
+      <c r="R71" s="179"/>
+      <c r="S71" s="179"/>
+      <c r="T71" s="179"/>
+      <c r="U71" s="179"/>
+      <c r="V71" s="179"/>
+      <c r="W71" s="179"/>
+      <c r="X71" s="179"/>
+      <c r="Y71" s="179"/>
+      <c r="Z71" s="179"/>
+      <c r="AA71" s="179"/>
+      <c r="AB71" s="179"/>
+      <c r="AC71" s="179"/>
+      <c r="AD71" s="180"/>
     </row>
     <row r="72" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="159" t="s">
-        <v>66</v>
+      <c r="A72" s="162" t="s">
+        <v>65</v>
       </c>
-      <c r="B72" s="160"/>
-      <c r="C72" s="160"/>
-      <c r="D72" s="160"/>
-      <c r="E72" s="160"/>
-      <c r="F72" s="160"/>
-      <c r="G72" s="160"/>
-      <c r="H72" s="160"/>
-      <c r="I72" s="160"/>
-      <c r="J72" s="160"/>
-      <c r="K72" s="160"/>
-      <c r="L72" s="160"/>
-      <c r="M72" s="160"/>
-      <c r="N72" s="160"/>
-      <c r="O72" s="160"/>
-      <c r="P72" s="160"/>
-      <c r="Q72" s="160"/>
-      <c r="R72" s="160"/>
-      <c r="S72" s="160"/>
-      <c r="T72" s="160"/>
-      <c r="U72" s="160"/>
-      <c r="V72" s="160"/>
-      <c r="W72" s="160"/>
-      <c r="X72" s="160"/>
-      <c r="Y72" s="160"/>
-      <c r="Z72" s="160"/>
-      <c r="AA72" s="160"/>
-      <c r="AB72" s="160"/>
-      <c r="AC72" s="160"/>
-      <c r="AD72" s="161"/>
+      <c r="B72" s="163"/>
+      <c r="C72" s="163"/>
+      <c r="D72" s="163"/>
+      <c r="E72" s="163"/>
+      <c r="F72" s="163"/>
+      <c r="G72" s="163"/>
+      <c r="H72" s="163"/>
+      <c r="I72" s="163"/>
+      <c r="J72" s="163"/>
+      <c r="K72" s="163"/>
+      <c r="L72" s="163"/>
+      <c r="M72" s="163"/>
+      <c r="N72" s="163"/>
+      <c r="O72" s="163"/>
+      <c r="P72" s="163"/>
+      <c r="Q72" s="163"/>
+      <c r="R72" s="163"/>
+      <c r="S72" s="163"/>
+      <c r="T72" s="163"/>
+      <c r="U72" s="163"/>
+      <c r="V72" s="163"/>
+      <c r="W72" s="163"/>
+      <c r="X72" s="163"/>
+      <c r="Y72" s="163"/>
+      <c r="Z72" s="163"/>
+      <c r="AA72" s="163"/>
+      <c r="AB72" s="163"/>
+      <c r="AC72" s="163"/>
+      <c r="AD72" s="164"/>
     </row>
     <row r="73" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="162"/>
-      <c r="B73" s="163"/>
-      <c r="C73" s="163"/>
-      <c r="D73" s="163"/>
-      <c r="E73" s="163"/>
-      <c r="F73" s="163"/>
-      <c r="G73" s="163"/>
-      <c r="H73" s="163"/>
-      <c r="I73" s="163"/>
-      <c r="J73" s="163"/>
-      <c r="K73" s="163"/>
-      <c r="L73" s="163"/>
-      <c r="M73" s="163"/>
-      <c r="N73" s="163"/>
-      <c r="O73" s="163"/>
-      <c r="P73" s="163"/>
-      <c r="Q73" s="163"/>
-      <c r="R73" s="163"/>
-      <c r="S73" s="163"/>
-      <c r="T73" s="163"/>
-      <c r="U73" s="163"/>
-      <c r="V73" s="163"/>
-      <c r="W73" s="163"/>
-      <c r="X73" s="163"/>
-      <c r="Y73" s="163"/>
-      <c r="Z73" s="163"/>
-      <c r="AA73" s="163"/>
-      <c r="AB73" s="163"/>
-      <c r="AC73" s="163"/>
-      <c r="AD73" s="164"/>
+      <c r="A73" s="165"/>
+      <c r="B73" s="166"/>
+      <c r="C73" s="166"/>
+      <c r="D73" s="166"/>
+      <c r="E73" s="166"/>
+      <c r="F73" s="166"/>
+      <c r="G73" s="166"/>
+      <c r="H73" s="166"/>
+      <c r="I73" s="166"/>
+      <c r="J73" s="166"/>
+      <c r="K73" s="166"/>
+      <c r="L73" s="166"/>
+      <c r="M73" s="166"/>
+      <c r="N73" s="166"/>
+      <c r="O73" s="166"/>
+      <c r="P73" s="166"/>
+      <c r="Q73" s="166"/>
+      <c r="R73" s="166"/>
+      <c r="S73" s="166"/>
+      <c r="T73" s="166"/>
+      <c r="U73" s="166"/>
+      <c r="V73" s="166"/>
+      <c r="W73" s="166"/>
+      <c r="X73" s="166"/>
+      <c r="Y73" s="166"/>
+      <c r="Z73" s="166"/>
+      <c r="AA73" s="166"/>
+      <c r="AB73" s="166"/>
+      <c r="AC73" s="166"/>
+      <c r="AD73" s="167"/>
     </row>
     <row r="74" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="162"/>
-      <c r="B74" s="163"/>
-      <c r="C74" s="163"/>
-      <c r="D74" s="163"/>
-      <c r="E74" s="163"/>
-      <c r="F74" s="163"/>
-      <c r="G74" s="163"/>
-      <c r="H74" s="163"/>
-      <c r="I74" s="163"/>
-      <c r="J74" s="163"/>
-      <c r="K74" s="163"/>
-      <c r="L74" s="163"/>
-      <c r="M74" s="163"/>
-      <c r="N74" s="163"/>
-      <c r="O74" s="163"/>
-      <c r="P74" s="163"/>
-      <c r="Q74" s="163"/>
-      <c r="R74" s="163"/>
-      <c r="S74" s="163"/>
-      <c r="T74" s="163"/>
-      <c r="U74" s="163"/>
-      <c r="V74" s="163"/>
-      <c r="W74" s="163"/>
-      <c r="X74" s="163"/>
-      <c r="Y74" s="163"/>
-      <c r="Z74" s="163"/>
-      <c r="AA74" s="163"/>
-      <c r="AB74" s="163"/>
-      <c r="AC74" s="163"/>
-      <c r="AD74" s="164"/>
+      <c r="A74" s="165"/>
+      <c r="B74" s="166"/>
+      <c r="C74" s="166"/>
+      <c r="D74" s="166"/>
+      <c r="E74" s="166"/>
+      <c r="F74" s="166"/>
+      <c r="G74" s="166"/>
+      <c r="H74" s="166"/>
+      <c r="I74" s="166"/>
+      <c r="J74" s="166"/>
+      <c r="K74" s="166"/>
+      <c r="L74" s="166"/>
+      <c r="M74" s="166"/>
+      <c r="N74" s="166"/>
+      <c r="O74" s="166"/>
+      <c r="P74" s="166"/>
+      <c r="Q74" s="166"/>
+      <c r="R74" s="166"/>
+      <c r="S74" s="166"/>
+      <c r="T74" s="166"/>
+      <c r="U74" s="166"/>
+      <c r="V74" s="166"/>
+      <c r="W74" s="166"/>
+      <c r="X74" s="166"/>
+      <c r="Y74" s="166"/>
+      <c r="Z74" s="166"/>
+      <c r="AA74" s="166"/>
+      <c r="AB74" s="166"/>
+      <c r="AC74" s="166"/>
+      <c r="AD74" s="167"/>
     </row>
     <row r="75" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="162"/>
-      <c r="B75" s="163"/>
-      <c r="C75" s="163"/>
-      <c r="D75" s="163"/>
-      <c r="E75" s="163"/>
-      <c r="F75" s="163"/>
-      <c r="G75" s="163"/>
-      <c r="H75" s="163"/>
-      <c r="I75" s="163"/>
-      <c r="J75" s="163"/>
-      <c r="K75" s="163"/>
-      <c r="L75" s="163"/>
-      <c r="M75" s="163"/>
-      <c r="N75" s="163"/>
-      <c r="O75" s="163"/>
-      <c r="P75" s="163"/>
-      <c r="Q75" s="163"/>
-      <c r="R75" s="163"/>
-      <c r="S75" s="163"/>
-      <c r="T75" s="163"/>
-      <c r="U75" s="163"/>
-      <c r="V75" s="163"/>
-      <c r="W75" s="163"/>
-      <c r="X75" s="163"/>
-      <c r="Y75" s="163"/>
-      <c r="Z75" s="163"/>
-      <c r="AA75" s="163"/>
-      <c r="AB75" s="163"/>
-      <c r="AC75" s="163"/>
-      <c r="AD75" s="164"/>
+      <c r="A75" s="165"/>
+      <c r="B75" s="166"/>
+      <c r="C75" s="166"/>
+      <c r="D75" s="166"/>
+      <c r="E75" s="166"/>
+      <c r="F75" s="166"/>
+      <c r="G75" s="166"/>
+      <c r="H75" s="166"/>
+      <c r="I75" s="166"/>
+      <c r="J75" s="166"/>
+      <c r="K75" s="166"/>
+      <c r="L75" s="166"/>
+      <c r="M75" s="166"/>
+      <c r="N75" s="166"/>
+      <c r="O75" s="166"/>
+      <c r="P75" s="166"/>
+      <c r="Q75" s="166"/>
+      <c r="R75" s="166"/>
+      <c r="S75" s="166"/>
+      <c r="T75" s="166"/>
+      <c r="U75" s="166"/>
+      <c r="V75" s="166"/>
+      <c r="W75" s="166"/>
+      <c r="X75" s="166"/>
+      <c r="Y75" s="166"/>
+      <c r="Z75" s="166"/>
+      <c r="AA75" s="166"/>
+      <c r="AB75" s="166"/>
+      <c r="AC75" s="166"/>
+      <c r="AD75" s="167"/>
     </row>
     <row r="76" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="162"/>
-      <c r="B76" s="163"/>
-      <c r="C76" s="163"/>
-      <c r="D76" s="163"/>
-      <c r="E76" s="163"/>
-      <c r="F76" s="163"/>
-      <c r="G76" s="163"/>
-      <c r="H76" s="163"/>
-      <c r="I76" s="163"/>
-      <c r="J76" s="163"/>
-      <c r="K76" s="163"/>
-      <c r="L76" s="163"/>
-      <c r="M76" s="163"/>
-      <c r="N76" s="163"/>
-      <c r="O76" s="163"/>
-      <c r="P76" s="163"/>
-      <c r="Q76" s="163"/>
-      <c r="R76" s="163"/>
-      <c r="S76" s="163"/>
-      <c r="T76" s="163"/>
-      <c r="U76" s="163"/>
-      <c r="V76" s="163"/>
-      <c r="W76" s="163"/>
-      <c r="X76" s="163"/>
-      <c r="Y76" s="163"/>
-      <c r="Z76" s="163"/>
-      <c r="AA76" s="163"/>
-      <c r="AB76" s="163"/>
-      <c r="AC76" s="163"/>
-      <c r="AD76" s="164"/>
+      <c r="A76" s="165"/>
+      <c r="B76" s="166"/>
+      <c r="C76" s="166"/>
+      <c r="D76" s="166"/>
+      <c r="E76" s="166"/>
+      <c r="F76" s="166"/>
+      <c r="G76" s="166"/>
+      <c r="H76" s="166"/>
+      <c r="I76" s="166"/>
+      <c r="J76" s="166"/>
+      <c r="K76" s="166"/>
+      <c r="L76" s="166"/>
+      <c r="M76" s="166"/>
+      <c r="N76" s="166"/>
+      <c r="O76" s="166"/>
+      <c r="P76" s="166"/>
+      <c r="Q76" s="166"/>
+      <c r="R76" s="166"/>
+      <c r="S76" s="166"/>
+      <c r="T76" s="166"/>
+      <c r="U76" s="166"/>
+      <c r="V76" s="166"/>
+      <c r="W76" s="166"/>
+      <c r="X76" s="166"/>
+      <c r="Y76" s="166"/>
+      <c r="Z76" s="166"/>
+      <c r="AA76" s="166"/>
+      <c r="AB76" s="166"/>
+      <c r="AC76" s="166"/>
+      <c r="AD76" s="167"/>
     </row>
     <row r="77" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="162"/>
-      <c r="B77" s="163"/>
-      <c r="C77" s="163"/>
-      <c r="D77" s="163"/>
-      <c r="E77" s="163"/>
-      <c r="F77" s="163"/>
-      <c r="G77" s="163"/>
-      <c r="H77" s="163"/>
-      <c r="I77" s="163"/>
-      <c r="J77" s="163"/>
-      <c r="K77" s="163"/>
-      <c r="L77" s="163"/>
-      <c r="M77" s="163"/>
-      <c r="N77" s="163"/>
-      <c r="O77" s="163"/>
-      <c r="P77" s="163"/>
-      <c r="Q77" s="163"/>
-      <c r="R77" s="163"/>
-      <c r="S77" s="163"/>
-      <c r="T77" s="163"/>
-      <c r="U77" s="163"/>
-      <c r="V77" s="163"/>
-      <c r="W77" s="163"/>
-      <c r="X77" s="163"/>
-      <c r="Y77" s="163"/>
-      <c r="Z77" s="163"/>
-      <c r="AA77" s="163"/>
-      <c r="AB77" s="163"/>
-      <c r="AC77" s="163"/>
-      <c r="AD77" s="164"/>
+      <c r="A77" s="165"/>
+      <c r="B77" s="166"/>
+      <c r="C77" s="166"/>
+      <c r="D77" s="166"/>
+      <c r="E77" s="166"/>
+      <c r="F77" s="166"/>
+      <c r="G77" s="166"/>
+      <c r="H77" s="166"/>
+      <c r="I77" s="166"/>
+      <c r="J77" s="166"/>
+      <c r="K77" s="166"/>
+      <c r="L77" s="166"/>
+      <c r="M77" s="166"/>
+      <c r="N77" s="166"/>
+      <c r="O77" s="166"/>
+      <c r="P77" s="166"/>
+      <c r="Q77" s="166"/>
+      <c r="R77" s="166"/>
+      <c r="S77" s="166"/>
+      <c r="T77" s="166"/>
+      <c r="U77" s="166"/>
+      <c r="V77" s="166"/>
+      <c r="W77" s="166"/>
+      <c r="X77" s="166"/>
+      <c r="Y77" s="166"/>
+      <c r="Z77" s="166"/>
+      <c r="AA77" s="166"/>
+      <c r="AB77" s="166"/>
+      <c r="AC77" s="166"/>
+      <c r="AD77" s="167"/>
     </row>
     <row r="78" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="162"/>
-      <c r="B78" s="163"/>
-      <c r="C78" s="163"/>
-      <c r="D78" s="163"/>
-      <c r="E78" s="163"/>
-      <c r="F78" s="163"/>
-      <c r="G78" s="163"/>
-      <c r="H78" s="163"/>
-      <c r="I78" s="163"/>
-      <c r="J78" s="163"/>
-      <c r="K78" s="163"/>
-      <c r="L78" s="163"/>
-      <c r="M78" s="163"/>
-      <c r="N78" s="163"/>
-      <c r="O78" s="163"/>
-      <c r="P78" s="163"/>
-      <c r="Q78" s="163"/>
-      <c r="R78" s="163"/>
-      <c r="S78" s="163"/>
-      <c r="T78" s="163"/>
-      <c r="U78" s="163"/>
-      <c r="V78" s="163"/>
-      <c r="W78" s="163"/>
-      <c r="X78" s="163"/>
-      <c r="Y78" s="163"/>
-      <c r="Z78" s="163"/>
-      <c r="AA78" s="163"/>
-      <c r="AB78" s="163"/>
-      <c r="AC78" s="163"/>
-      <c r="AD78" s="164"/>
+      <c r="A78" s="165"/>
+      <c r="B78" s="166"/>
+      <c r="C78" s="166"/>
+      <c r="D78" s="166"/>
+      <c r="E78" s="166"/>
+      <c r="F78" s="166"/>
+      <c r="G78" s="166"/>
+      <c r="H78" s="166"/>
+      <c r="I78" s="166"/>
+      <c r="J78" s="166"/>
+      <c r="K78" s="166"/>
+      <c r="L78" s="166"/>
+      <c r="M78" s="166"/>
+      <c r="N78" s="166"/>
+      <c r="O78" s="166"/>
+      <c r="P78" s="166"/>
+      <c r="Q78" s="166"/>
+      <c r="R78" s="166"/>
+      <c r="S78" s="166"/>
+      <c r="T78" s="166"/>
+      <c r="U78" s="166"/>
+      <c r="V78" s="166"/>
+      <c r="W78" s="166"/>
+      <c r="X78" s="166"/>
+      <c r="Y78" s="166"/>
+      <c r="Z78" s="166"/>
+      <c r="AA78" s="166"/>
+      <c r="AB78" s="166"/>
+      <c r="AC78" s="166"/>
+      <c r="AD78" s="167"/>
     </row>
     <row r="79" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="162"/>
-      <c r="B79" s="163"/>
-      <c r="C79" s="163"/>
-      <c r="D79" s="163"/>
-      <c r="E79" s="163"/>
-      <c r="F79" s="163"/>
-      <c r="G79" s="163"/>
-      <c r="H79" s="163"/>
-      <c r="I79" s="163"/>
-      <c r="J79" s="163"/>
-      <c r="K79" s="163"/>
-      <c r="L79" s="163"/>
-      <c r="M79" s="163"/>
-      <c r="N79" s="163"/>
-      <c r="O79" s="163"/>
-      <c r="P79" s="163"/>
-      <c r="Q79" s="163"/>
-      <c r="R79" s="163"/>
-      <c r="S79" s="163"/>
-      <c r="T79" s="163"/>
-      <c r="U79" s="163"/>
-      <c r="V79" s="163"/>
-      <c r="W79" s="163"/>
-      <c r="X79" s="163"/>
-      <c r="Y79" s="163"/>
-      <c r="Z79" s="163"/>
-      <c r="AA79" s="163"/>
-      <c r="AB79" s="163"/>
-      <c r="AC79" s="163"/>
-      <c r="AD79" s="164"/>
+      <c r="A79" s="165"/>
+      <c r="B79" s="166"/>
+      <c r="C79" s="166"/>
+      <c r="D79" s="166"/>
+      <c r="E79" s="166"/>
+      <c r="F79" s="166"/>
+      <c r="G79" s="166"/>
+      <c r="H79" s="166"/>
+      <c r="I79" s="166"/>
+      <c r="J79" s="166"/>
+      <c r="K79" s="166"/>
+      <c r="L79" s="166"/>
+      <c r="M79" s="166"/>
+      <c r="N79" s="166"/>
+      <c r="O79" s="166"/>
+      <c r="P79" s="166"/>
+      <c r="Q79" s="166"/>
+      <c r="R79" s="166"/>
+      <c r="S79" s="166"/>
+      <c r="T79" s="166"/>
+      <c r="U79" s="166"/>
+      <c r="V79" s="166"/>
+      <c r="W79" s="166"/>
+      <c r="X79" s="166"/>
+      <c r="Y79" s="166"/>
+      <c r="Z79" s="166"/>
+      <c r="AA79" s="166"/>
+      <c r="AB79" s="166"/>
+      <c r="AC79" s="166"/>
+      <c r="AD79" s="167"/>
     </row>
     <row r="80" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="162"/>
-      <c r="B80" s="163"/>
-      <c r="C80" s="163"/>
-      <c r="D80" s="163"/>
-      <c r="E80" s="163"/>
-      <c r="F80" s="163"/>
-      <c r="G80" s="163"/>
-      <c r="H80" s="163"/>
-      <c r="I80" s="163"/>
-      <c r="J80" s="163"/>
-      <c r="K80" s="163"/>
-      <c r="L80" s="163"/>
-      <c r="M80" s="163"/>
-      <c r="N80" s="163"/>
-      <c r="O80" s="163"/>
-      <c r="P80" s="163"/>
-      <c r="Q80" s="163"/>
-      <c r="R80" s="163"/>
-      <c r="S80" s="163"/>
-      <c r="T80" s="163"/>
-      <c r="U80" s="163"/>
-      <c r="V80" s="163"/>
-      <c r="W80" s="163"/>
-      <c r="X80" s="163"/>
-      <c r="Y80" s="163"/>
-      <c r="Z80" s="163"/>
-      <c r="AA80" s="163"/>
-      <c r="AB80" s="163"/>
-      <c r="AC80" s="163"/>
-      <c r="AD80" s="164"/>
+      <c r="A80" s="165"/>
+      <c r="B80" s="166"/>
+      <c r="C80" s="166"/>
+      <c r="D80" s="166"/>
+      <c r="E80" s="166"/>
+      <c r="F80" s="166"/>
+      <c r="G80" s="166"/>
+      <c r="H80" s="166"/>
+      <c r="I80" s="166"/>
+      <c r="J80" s="166"/>
+      <c r="K80" s="166"/>
+      <c r="L80" s="166"/>
+      <c r="M80" s="166"/>
+      <c r="N80" s="166"/>
+      <c r="O80" s="166"/>
+      <c r="P80" s="166"/>
+      <c r="Q80" s="166"/>
+      <c r="R80" s="166"/>
+      <c r="S80" s="166"/>
+      <c r="T80" s="166"/>
+      <c r="U80" s="166"/>
+      <c r="V80" s="166"/>
+      <c r="W80" s="166"/>
+      <c r="X80" s="166"/>
+      <c r="Y80" s="166"/>
+      <c r="Z80" s="166"/>
+      <c r="AA80" s="166"/>
+      <c r="AB80" s="166"/>
+      <c r="AC80" s="166"/>
+      <c r="AD80" s="167"/>
     </row>
     <row r="81" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="162"/>
-      <c r="B81" s="163"/>
-      <c r="C81" s="163"/>
-      <c r="D81" s="163"/>
-      <c r="E81" s="163"/>
-      <c r="F81" s="163"/>
-      <c r="G81" s="163"/>
-      <c r="H81" s="163"/>
-      <c r="I81" s="163"/>
-      <c r="J81" s="163"/>
-      <c r="K81" s="163"/>
-      <c r="L81" s="163"/>
-      <c r="M81" s="163"/>
-      <c r="N81" s="163"/>
-      <c r="O81" s="163"/>
-      <c r="P81" s="163"/>
-      <c r="Q81" s="163"/>
-      <c r="R81" s="163"/>
-      <c r="S81" s="163"/>
-      <c r="T81" s="163"/>
-      <c r="U81" s="163"/>
-      <c r="V81" s="163"/>
-      <c r="W81" s="163"/>
-      <c r="X81" s="163"/>
-      <c r="Y81" s="163"/>
-      <c r="Z81" s="163"/>
-      <c r="AA81" s="163"/>
-      <c r="AB81" s="163"/>
-      <c r="AC81" s="163"/>
-      <c r="AD81" s="164"/>
+      <c r="A81" s="165"/>
+      <c r="B81" s="166"/>
+      <c r="C81" s="166"/>
+      <c r="D81" s="166"/>
+      <c r="E81" s="166"/>
+      <c r="F81" s="166"/>
+      <c r="G81" s="166"/>
+      <c r="H81" s="166"/>
+      <c r="I81" s="166"/>
+      <c r="J81" s="166"/>
+      <c r="K81" s="166"/>
+      <c r="L81" s="166"/>
+      <c r="M81" s="166"/>
+      <c r="N81" s="166"/>
+      <c r="O81" s="166"/>
+      <c r="P81" s="166"/>
+      <c r="Q81" s="166"/>
+      <c r="R81" s="166"/>
+      <c r="S81" s="166"/>
+      <c r="T81" s="166"/>
+      <c r="U81" s="166"/>
+      <c r="V81" s="166"/>
+      <c r="W81" s="166"/>
+      <c r="X81" s="166"/>
+      <c r="Y81" s="166"/>
+      <c r="Z81" s="166"/>
+      <c r="AA81" s="166"/>
+      <c r="AB81" s="166"/>
+      <c r="AC81" s="166"/>
+      <c r="AD81" s="167"/>
     </row>
     <row r="82" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="165"/>
-      <c r="B82" s="166"/>
-      <c r="C82" s="166"/>
-      <c r="D82" s="166"/>
-      <c r="E82" s="166"/>
-      <c r="F82" s="166"/>
-      <c r="G82" s="166"/>
-      <c r="H82" s="166"/>
-      <c r="I82" s="166"/>
-      <c r="J82" s="166"/>
-      <c r="K82" s="166"/>
-      <c r="L82" s="166"/>
-      <c r="M82" s="166"/>
-      <c r="N82" s="166"/>
-      <c r="O82" s="166"/>
-      <c r="P82" s="166"/>
-      <c r="Q82" s="166"/>
-      <c r="R82" s="166"/>
-      <c r="S82" s="166"/>
-      <c r="T82" s="166"/>
-      <c r="U82" s="166"/>
-      <c r="V82" s="166"/>
-      <c r="W82" s="166"/>
-      <c r="X82" s="166"/>
-      <c r="Y82" s="166"/>
-      <c r="Z82" s="166"/>
-      <c r="AA82" s="166"/>
-      <c r="AB82" s="166"/>
-      <c r="AC82" s="166"/>
-      <c r="AD82" s="167"/>
+      <c r="A82" s="168"/>
+      <c r="B82" s="169"/>
+      <c r="C82" s="169"/>
+      <c r="D82" s="169"/>
+      <c r="E82" s="169"/>
+      <c r="F82" s="169"/>
+      <c r="G82" s="169"/>
+      <c r="H82" s="169"/>
+      <c r="I82" s="169"/>
+      <c r="J82" s="169"/>
+      <c r="K82" s="169"/>
+      <c r="L82" s="169"/>
+      <c r="M82" s="169"/>
+      <c r="N82" s="169"/>
+      <c r="O82" s="169"/>
+      <c r="P82" s="169"/>
+      <c r="Q82" s="169"/>
+      <c r="R82" s="169"/>
+      <c r="S82" s="169"/>
+      <c r="T82" s="169"/>
+      <c r="U82" s="169"/>
+      <c r="V82" s="169"/>
+      <c r="W82" s="169"/>
+      <c r="X82" s="169"/>
+      <c r="Y82" s="169"/>
+      <c r="Z82" s="169"/>
+      <c r="AA82" s="169"/>
+      <c r="AB82" s="169"/>
+      <c r="AC82" s="169"/>
+      <c r="AD82" s="170"/>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83" s="134" t="s">
@@ -4736,714 +4749,714 @@
       <c r="AD83" s="136"/>
     </row>
     <row r="84" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="186" t="s">
-        <v>70</v>
+      <c r="A84" s="147" t="s">
+        <v>69</v>
       </c>
-      <c r="B84" s="187"/>
-      <c r="C84" s="187"/>
-      <c r="D84" s="187"/>
-      <c r="E84" s="187"/>
-      <c r="F84" s="187"/>
-      <c r="G84" s="187"/>
-      <c r="H84" s="187"/>
-      <c r="I84" s="187"/>
-      <c r="J84" s="187"/>
-      <c r="K84" s="187"/>
-      <c r="L84" s="187"/>
-      <c r="M84" s="187"/>
-      <c r="N84" s="187"/>
-      <c r="O84" s="187"/>
-      <c r="P84" s="187"/>
-      <c r="Q84" s="187"/>
-      <c r="R84" s="187"/>
-      <c r="S84" s="187"/>
-      <c r="T84" s="187"/>
-      <c r="U84" s="187"/>
-      <c r="V84" s="187"/>
-      <c r="W84" s="187"/>
-      <c r="X84" s="187"/>
-      <c r="Y84" s="187"/>
-      <c r="Z84" s="187"/>
-      <c r="AA84" s="187"/>
-      <c r="AB84" s="187"/>
-      <c r="AC84" s="187"/>
-      <c r="AD84" s="188"/>
+      <c r="B84" s="148"/>
+      <c r="C84" s="148"/>
+      <c r="D84" s="148"/>
+      <c r="E84" s="148"/>
+      <c r="F84" s="148"/>
+      <c r="G84" s="148"/>
+      <c r="H84" s="148"/>
+      <c r="I84" s="148"/>
+      <c r="J84" s="148"/>
+      <c r="K84" s="148"/>
+      <c r="L84" s="148"/>
+      <c r="M84" s="148"/>
+      <c r="N84" s="148"/>
+      <c r="O84" s="148"/>
+      <c r="P84" s="148"/>
+      <c r="Q84" s="148"/>
+      <c r="R84" s="148"/>
+      <c r="S84" s="148"/>
+      <c r="T84" s="148"/>
+      <c r="U84" s="148"/>
+      <c r="V84" s="148"/>
+      <c r="W84" s="148"/>
+      <c r="X84" s="148"/>
+      <c r="Y84" s="148"/>
+      <c r="Z84" s="148"/>
+      <c r="AA84" s="148"/>
+      <c r="AB84" s="148"/>
+      <c r="AC84" s="148"/>
+      <c r="AD84" s="149"/>
     </row>
     <row r="85" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="186"/>
-      <c r="B85" s="187"/>
-      <c r="C85" s="187"/>
-      <c r="D85" s="187"/>
-      <c r="E85" s="187"/>
-      <c r="F85" s="187"/>
-      <c r="G85" s="187"/>
-      <c r="H85" s="187"/>
-      <c r="I85" s="187"/>
-      <c r="J85" s="187"/>
-      <c r="K85" s="187"/>
-      <c r="L85" s="187"/>
-      <c r="M85" s="187"/>
-      <c r="N85" s="187"/>
-      <c r="O85" s="187"/>
-      <c r="P85" s="187"/>
-      <c r="Q85" s="187"/>
-      <c r="R85" s="187"/>
-      <c r="S85" s="187"/>
-      <c r="T85" s="187"/>
-      <c r="U85" s="187"/>
-      <c r="V85" s="187"/>
-      <c r="W85" s="187"/>
-      <c r="X85" s="187"/>
-      <c r="Y85" s="187"/>
-      <c r="Z85" s="187"/>
-      <c r="AA85" s="187"/>
-      <c r="AB85" s="187"/>
-      <c r="AC85" s="187"/>
-      <c r="AD85" s="188"/>
+      <c r="A85" s="147"/>
+      <c r="B85" s="148"/>
+      <c r="C85" s="148"/>
+      <c r="D85" s="148"/>
+      <c r="E85" s="148"/>
+      <c r="F85" s="148"/>
+      <c r="G85" s="148"/>
+      <c r="H85" s="148"/>
+      <c r="I85" s="148"/>
+      <c r="J85" s="148"/>
+      <c r="K85" s="148"/>
+      <c r="L85" s="148"/>
+      <c r="M85" s="148"/>
+      <c r="N85" s="148"/>
+      <c r="O85" s="148"/>
+      <c r="P85" s="148"/>
+      <c r="Q85" s="148"/>
+      <c r="R85" s="148"/>
+      <c r="S85" s="148"/>
+      <c r="T85" s="148"/>
+      <c r="U85" s="148"/>
+      <c r="V85" s="148"/>
+      <c r="W85" s="148"/>
+      <c r="X85" s="148"/>
+      <c r="Y85" s="148"/>
+      <c r="Z85" s="148"/>
+      <c r="AA85" s="148"/>
+      <c r="AB85" s="148"/>
+      <c r="AC85" s="148"/>
+      <c r="AD85" s="149"/>
     </row>
     <row r="86" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="186"/>
-      <c r="B86" s="187"/>
-      <c r="C86" s="187"/>
-      <c r="D86" s="187"/>
-      <c r="E86" s="187"/>
-      <c r="F86" s="187"/>
-      <c r="G86" s="187"/>
-      <c r="H86" s="187"/>
-      <c r="I86" s="187"/>
-      <c r="J86" s="187"/>
-      <c r="K86" s="187"/>
-      <c r="L86" s="187"/>
-      <c r="M86" s="187"/>
-      <c r="N86" s="187"/>
-      <c r="O86" s="187"/>
-      <c r="P86" s="187"/>
-      <c r="Q86" s="187"/>
-      <c r="R86" s="187"/>
-      <c r="S86" s="187"/>
-      <c r="T86" s="187"/>
-      <c r="U86" s="187"/>
-      <c r="V86" s="187"/>
-      <c r="W86" s="187"/>
-      <c r="X86" s="187"/>
-      <c r="Y86" s="187"/>
-      <c r="Z86" s="187"/>
-      <c r="AA86" s="187"/>
-      <c r="AB86" s="187"/>
-      <c r="AC86" s="187"/>
-      <c r="AD86" s="188"/>
+      <c r="A86" s="147"/>
+      <c r="B86" s="148"/>
+      <c r="C86" s="148"/>
+      <c r="D86" s="148"/>
+      <c r="E86" s="148"/>
+      <c r="F86" s="148"/>
+      <c r="G86" s="148"/>
+      <c r="H86" s="148"/>
+      <c r="I86" s="148"/>
+      <c r="J86" s="148"/>
+      <c r="K86" s="148"/>
+      <c r="L86" s="148"/>
+      <c r="M86" s="148"/>
+      <c r="N86" s="148"/>
+      <c r="O86" s="148"/>
+      <c r="P86" s="148"/>
+      <c r="Q86" s="148"/>
+      <c r="R86" s="148"/>
+      <c r="S86" s="148"/>
+      <c r="T86" s="148"/>
+      <c r="U86" s="148"/>
+      <c r="V86" s="148"/>
+      <c r="W86" s="148"/>
+      <c r="X86" s="148"/>
+      <c r="Y86" s="148"/>
+      <c r="Z86" s="148"/>
+      <c r="AA86" s="148"/>
+      <c r="AB86" s="148"/>
+      <c r="AC86" s="148"/>
+      <c r="AD86" s="149"/>
     </row>
     <row r="87" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="186"/>
-      <c r="B87" s="187"/>
-      <c r="C87" s="187"/>
-      <c r="D87" s="187"/>
-      <c r="E87" s="187"/>
-      <c r="F87" s="187"/>
-      <c r="G87" s="187"/>
-      <c r="H87" s="187"/>
-      <c r="I87" s="187"/>
-      <c r="J87" s="187"/>
-      <c r="K87" s="187"/>
-      <c r="L87" s="187"/>
-      <c r="M87" s="187"/>
-      <c r="N87" s="187"/>
-      <c r="O87" s="187"/>
-      <c r="P87" s="187"/>
-      <c r="Q87" s="187"/>
-      <c r="R87" s="187"/>
-      <c r="S87" s="187"/>
-      <c r="T87" s="187"/>
-      <c r="U87" s="187"/>
-      <c r="V87" s="187"/>
-      <c r="W87" s="187"/>
-      <c r="X87" s="187"/>
-      <c r="Y87" s="187"/>
-      <c r="Z87" s="187"/>
-      <c r="AA87" s="187"/>
-      <c r="AB87" s="187"/>
-      <c r="AC87" s="187"/>
-      <c r="AD87" s="188"/>
+      <c r="A87" s="147"/>
+      <c r="B87" s="148"/>
+      <c r="C87" s="148"/>
+      <c r="D87" s="148"/>
+      <c r="E87" s="148"/>
+      <c r="F87" s="148"/>
+      <c r="G87" s="148"/>
+      <c r="H87" s="148"/>
+      <c r="I87" s="148"/>
+      <c r="J87" s="148"/>
+      <c r="K87" s="148"/>
+      <c r="L87" s="148"/>
+      <c r="M87" s="148"/>
+      <c r="N87" s="148"/>
+      <c r="O87" s="148"/>
+      <c r="P87" s="148"/>
+      <c r="Q87" s="148"/>
+      <c r="R87" s="148"/>
+      <c r="S87" s="148"/>
+      <c r="T87" s="148"/>
+      <c r="U87" s="148"/>
+      <c r="V87" s="148"/>
+      <c r="W87" s="148"/>
+      <c r="X87" s="148"/>
+      <c r="Y87" s="148"/>
+      <c r="Z87" s="148"/>
+      <c r="AA87" s="148"/>
+      <c r="AB87" s="148"/>
+      <c r="AC87" s="148"/>
+      <c r="AD87" s="149"/>
     </row>
     <row r="88" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="186"/>
-      <c r="B88" s="187"/>
-      <c r="C88" s="187"/>
-      <c r="D88" s="187"/>
-      <c r="E88" s="187"/>
-      <c r="F88" s="187"/>
-      <c r="G88" s="187"/>
-      <c r="H88" s="187"/>
-      <c r="I88" s="187"/>
-      <c r="J88" s="187"/>
-      <c r="K88" s="187"/>
-      <c r="L88" s="187"/>
-      <c r="M88" s="187"/>
-      <c r="N88" s="187"/>
-      <c r="O88" s="187"/>
-      <c r="P88" s="187"/>
-      <c r="Q88" s="187"/>
-      <c r="R88" s="187"/>
-      <c r="S88" s="187"/>
-      <c r="T88" s="187"/>
-      <c r="U88" s="187"/>
-      <c r="V88" s="187"/>
-      <c r="W88" s="187"/>
-      <c r="X88" s="187"/>
-      <c r="Y88" s="187"/>
-      <c r="Z88" s="187"/>
-      <c r="AA88" s="187"/>
-      <c r="AB88" s="187"/>
-      <c r="AC88" s="187"/>
-      <c r="AD88" s="188"/>
+      <c r="A88" s="147"/>
+      <c r="B88" s="148"/>
+      <c r="C88" s="148"/>
+      <c r="D88" s="148"/>
+      <c r="E88" s="148"/>
+      <c r="F88" s="148"/>
+      <c r="G88" s="148"/>
+      <c r="H88" s="148"/>
+      <c r="I88" s="148"/>
+      <c r="J88" s="148"/>
+      <c r="K88" s="148"/>
+      <c r="L88" s="148"/>
+      <c r="M88" s="148"/>
+      <c r="N88" s="148"/>
+      <c r="O88" s="148"/>
+      <c r="P88" s="148"/>
+      <c r="Q88" s="148"/>
+      <c r="R88" s="148"/>
+      <c r="S88" s="148"/>
+      <c r="T88" s="148"/>
+      <c r="U88" s="148"/>
+      <c r="V88" s="148"/>
+      <c r="W88" s="148"/>
+      <c r="X88" s="148"/>
+      <c r="Y88" s="148"/>
+      <c r="Z88" s="148"/>
+      <c r="AA88" s="148"/>
+      <c r="AB88" s="148"/>
+      <c r="AC88" s="148"/>
+      <c r="AD88" s="149"/>
     </row>
     <row r="89" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="186"/>
-      <c r="B89" s="187"/>
-      <c r="C89" s="187"/>
-      <c r="D89" s="187"/>
-      <c r="E89" s="187"/>
-      <c r="F89" s="187"/>
-      <c r="G89" s="187"/>
-      <c r="H89" s="187"/>
-      <c r="I89" s="187"/>
-      <c r="J89" s="187"/>
-      <c r="K89" s="187"/>
-      <c r="L89" s="187"/>
-      <c r="M89" s="187"/>
-      <c r="N89" s="187"/>
-      <c r="O89" s="187"/>
-      <c r="P89" s="187"/>
-      <c r="Q89" s="187"/>
-      <c r="R89" s="187"/>
-      <c r="S89" s="187"/>
-      <c r="T89" s="187"/>
-      <c r="U89" s="187"/>
-      <c r="V89" s="187"/>
-      <c r="W89" s="187"/>
-      <c r="X89" s="187"/>
-      <c r="Y89" s="187"/>
-      <c r="Z89" s="187"/>
-      <c r="AA89" s="187"/>
-      <c r="AB89" s="187"/>
-      <c r="AC89" s="187"/>
-      <c r="AD89" s="188"/>
+      <c r="A89" s="147"/>
+      <c r="B89" s="148"/>
+      <c r="C89" s="148"/>
+      <c r="D89" s="148"/>
+      <c r="E89" s="148"/>
+      <c r="F89" s="148"/>
+      <c r="G89" s="148"/>
+      <c r="H89" s="148"/>
+      <c r="I89" s="148"/>
+      <c r="J89" s="148"/>
+      <c r="K89" s="148"/>
+      <c r="L89" s="148"/>
+      <c r="M89" s="148"/>
+      <c r="N89" s="148"/>
+      <c r="O89" s="148"/>
+      <c r="P89" s="148"/>
+      <c r="Q89" s="148"/>
+      <c r="R89" s="148"/>
+      <c r="S89" s="148"/>
+      <c r="T89" s="148"/>
+      <c r="U89" s="148"/>
+      <c r="V89" s="148"/>
+      <c r="W89" s="148"/>
+      <c r="X89" s="148"/>
+      <c r="Y89" s="148"/>
+      <c r="Z89" s="148"/>
+      <c r="AA89" s="148"/>
+      <c r="AB89" s="148"/>
+      <c r="AC89" s="148"/>
+      <c r="AD89" s="149"/>
     </row>
     <row r="90" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="186"/>
-      <c r="B90" s="187"/>
-      <c r="C90" s="187"/>
-      <c r="D90" s="187"/>
-      <c r="E90" s="187"/>
-      <c r="F90" s="187"/>
-      <c r="G90" s="187"/>
-      <c r="H90" s="187"/>
-      <c r="I90" s="187"/>
-      <c r="J90" s="187"/>
-      <c r="K90" s="187"/>
-      <c r="L90" s="187"/>
-      <c r="M90" s="187"/>
-      <c r="N90" s="187"/>
-      <c r="O90" s="187"/>
-      <c r="P90" s="187"/>
-      <c r="Q90" s="187"/>
-      <c r="R90" s="187"/>
-      <c r="S90" s="187"/>
-      <c r="T90" s="187"/>
-      <c r="U90" s="187"/>
-      <c r="V90" s="187"/>
-      <c r="W90" s="187"/>
-      <c r="X90" s="187"/>
-      <c r="Y90" s="187"/>
-      <c r="Z90" s="187"/>
-      <c r="AA90" s="187"/>
-      <c r="AB90" s="187"/>
-      <c r="AC90" s="187"/>
-      <c r="AD90" s="188"/>
+      <c r="A90" s="147"/>
+      <c r="B90" s="148"/>
+      <c r="C90" s="148"/>
+      <c r="D90" s="148"/>
+      <c r="E90" s="148"/>
+      <c r="F90" s="148"/>
+      <c r="G90" s="148"/>
+      <c r="H90" s="148"/>
+      <c r="I90" s="148"/>
+      <c r="J90" s="148"/>
+      <c r="K90" s="148"/>
+      <c r="L90" s="148"/>
+      <c r="M90" s="148"/>
+      <c r="N90" s="148"/>
+      <c r="O90" s="148"/>
+      <c r="P90" s="148"/>
+      <c r="Q90" s="148"/>
+      <c r="R90" s="148"/>
+      <c r="S90" s="148"/>
+      <c r="T90" s="148"/>
+      <c r="U90" s="148"/>
+      <c r="V90" s="148"/>
+      <c r="W90" s="148"/>
+      <c r="X90" s="148"/>
+      <c r="Y90" s="148"/>
+      <c r="Z90" s="148"/>
+      <c r="AA90" s="148"/>
+      <c r="AB90" s="148"/>
+      <c r="AC90" s="148"/>
+      <c r="AD90" s="149"/>
     </row>
     <row r="91" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="186"/>
-      <c r="B91" s="187"/>
-      <c r="C91" s="187"/>
-      <c r="D91" s="187"/>
-      <c r="E91" s="187"/>
-      <c r="F91" s="187"/>
-      <c r="G91" s="187"/>
-      <c r="H91" s="187"/>
-      <c r="I91" s="187"/>
-      <c r="J91" s="187"/>
-      <c r="K91" s="187"/>
-      <c r="L91" s="187"/>
-      <c r="M91" s="187"/>
-      <c r="N91" s="187"/>
-      <c r="O91" s="187"/>
-      <c r="P91" s="187"/>
-      <c r="Q91" s="187"/>
-      <c r="R91" s="187"/>
-      <c r="S91" s="187"/>
-      <c r="T91" s="187"/>
-      <c r="U91" s="187"/>
-      <c r="V91" s="187"/>
-      <c r="W91" s="187"/>
-      <c r="X91" s="187"/>
-      <c r="Y91" s="187"/>
-      <c r="Z91" s="187"/>
-      <c r="AA91" s="187"/>
-      <c r="AB91" s="187"/>
-      <c r="AC91" s="187"/>
-      <c r="AD91" s="188"/>
+      <c r="A91" s="147"/>
+      <c r="B91" s="148"/>
+      <c r="C91" s="148"/>
+      <c r="D91" s="148"/>
+      <c r="E91" s="148"/>
+      <c r="F91" s="148"/>
+      <c r="G91" s="148"/>
+      <c r="H91" s="148"/>
+      <c r="I91" s="148"/>
+      <c r="J91" s="148"/>
+      <c r="K91" s="148"/>
+      <c r="L91" s="148"/>
+      <c r="M91" s="148"/>
+      <c r="N91" s="148"/>
+      <c r="O91" s="148"/>
+      <c r="P91" s="148"/>
+      <c r="Q91" s="148"/>
+      <c r="R91" s="148"/>
+      <c r="S91" s="148"/>
+      <c r="T91" s="148"/>
+      <c r="U91" s="148"/>
+      <c r="V91" s="148"/>
+      <c r="W91" s="148"/>
+      <c r="X91" s="148"/>
+      <c r="Y91" s="148"/>
+      <c r="Z91" s="148"/>
+      <c r="AA91" s="148"/>
+      <c r="AB91" s="148"/>
+      <c r="AC91" s="148"/>
+      <c r="AD91" s="149"/>
     </row>
     <row r="92" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="186"/>
-      <c r="B92" s="187"/>
-      <c r="C92" s="187"/>
-      <c r="D92" s="187"/>
-      <c r="E92" s="187"/>
-      <c r="F92" s="187"/>
-      <c r="G92" s="187"/>
-      <c r="H92" s="187"/>
-      <c r="I92" s="187"/>
-      <c r="J92" s="187"/>
-      <c r="K92" s="187"/>
-      <c r="L92" s="187"/>
-      <c r="M92" s="187"/>
-      <c r="N92" s="187"/>
-      <c r="O92" s="187"/>
-      <c r="P92" s="187"/>
-      <c r="Q92" s="187"/>
-      <c r="R92" s="187"/>
-      <c r="S92" s="187"/>
-      <c r="T92" s="187"/>
-      <c r="U92" s="187"/>
-      <c r="V92" s="187"/>
-      <c r="W92" s="187"/>
-      <c r="X92" s="187"/>
-      <c r="Y92" s="187"/>
-      <c r="Z92" s="187"/>
-      <c r="AA92" s="187"/>
-      <c r="AB92" s="187"/>
-      <c r="AC92" s="187"/>
-      <c r="AD92" s="188"/>
+      <c r="A92" s="147"/>
+      <c r="B92" s="148"/>
+      <c r="C92" s="148"/>
+      <c r="D92" s="148"/>
+      <c r="E92" s="148"/>
+      <c r="F92" s="148"/>
+      <c r="G92" s="148"/>
+      <c r="H92" s="148"/>
+      <c r="I92" s="148"/>
+      <c r="J92" s="148"/>
+      <c r="K92" s="148"/>
+      <c r="L92" s="148"/>
+      <c r="M92" s="148"/>
+      <c r="N92" s="148"/>
+      <c r="O92" s="148"/>
+      <c r="P92" s="148"/>
+      <c r="Q92" s="148"/>
+      <c r="R92" s="148"/>
+      <c r="S92" s="148"/>
+      <c r="T92" s="148"/>
+      <c r="U92" s="148"/>
+      <c r="V92" s="148"/>
+      <c r="W92" s="148"/>
+      <c r="X92" s="148"/>
+      <c r="Y92" s="148"/>
+      <c r="Z92" s="148"/>
+      <c r="AA92" s="148"/>
+      <c r="AB92" s="148"/>
+      <c r="AC92" s="148"/>
+      <c r="AD92" s="149"/>
     </row>
     <row r="93" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="186"/>
-      <c r="B93" s="187"/>
-      <c r="C93" s="187"/>
-      <c r="D93" s="187"/>
-      <c r="E93" s="187"/>
-      <c r="F93" s="187"/>
-      <c r="G93" s="187"/>
-      <c r="H93" s="187"/>
-      <c r="I93" s="187"/>
-      <c r="J93" s="187"/>
-      <c r="K93" s="187"/>
-      <c r="L93" s="187"/>
-      <c r="M93" s="187"/>
-      <c r="N93" s="187"/>
-      <c r="O93" s="187"/>
-      <c r="P93" s="187"/>
-      <c r="Q93" s="187"/>
-      <c r="R93" s="187"/>
-      <c r="S93" s="187"/>
-      <c r="T93" s="187"/>
-      <c r="U93" s="187"/>
-      <c r="V93" s="187"/>
-      <c r="W93" s="187"/>
-      <c r="X93" s="187"/>
-      <c r="Y93" s="187"/>
-      <c r="Z93" s="187"/>
-      <c r="AA93" s="187"/>
-      <c r="AB93" s="187"/>
-      <c r="AC93" s="187"/>
-      <c r="AD93" s="188"/>
+      <c r="A93" s="147"/>
+      <c r="B93" s="148"/>
+      <c r="C93" s="148"/>
+      <c r="D93" s="148"/>
+      <c r="E93" s="148"/>
+      <c r="F93" s="148"/>
+      <c r="G93" s="148"/>
+      <c r="H93" s="148"/>
+      <c r="I93" s="148"/>
+      <c r="J93" s="148"/>
+      <c r="K93" s="148"/>
+      <c r="L93" s="148"/>
+      <c r="M93" s="148"/>
+      <c r="N93" s="148"/>
+      <c r="O93" s="148"/>
+      <c r="P93" s="148"/>
+      <c r="Q93" s="148"/>
+      <c r="R93" s="148"/>
+      <c r="S93" s="148"/>
+      <c r="T93" s="148"/>
+      <c r="U93" s="148"/>
+      <c r="V93" s="148"/>
+      <c r="W93" s="148"/>
+      <c r="X93" s="148"/>
+      <c r="Y93" s="148"/>
+      <c r="Z93" s="148"/>
+      <c r="AA93" s="148"/>
+      <c r="AB93" s="148"/>
+      <c r="AC93" s="148"/>
+      <c r="AD93" s="149"/>
     </row>
     <row r="94" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="186"/>
-      <c r="B94" s="187"/>
-      <c r="C94" s="187"/>
-      <c r="D94" s="187"/>
-      <c r="E94" s="187"/>
-      <c r="F94" s="187"/>
-      <c r="G94" s="187"/>
-      <c r="H94" s="187"/>
-      <c r="I94" s="187"/>
-      <c r="J94" s="187"/>
-      <c r="K94" s="187"/>
-      <c r="L94" s="187"/>
-      <c r="M94" s="187"/>
-      <c r="N94" s="187"/>
-      <c r="O94" s="187"/>
-      <c r="P94" s="187"/>
-      <c r="Q94" s="187"/>
-      <c r="R94" s="187"/>
-      <c r="S94" s="187"/>
-      <c r="T94" s="187"/>
-      <c r="U94" s="187"/>
-      <c r="V94" s="187"/>
-      <c r="W94" s="187"/>
-      <c r="X94" s="187"/>
-      <c r="Y94" s="187"/>
-      <c r="Z94" s="187"/>
-      <c r="AA94" s="187"/>
-      <c r="AB94" s="187"/>
-      <c r="AC94" s="187"/>
-      <c r="AD94" s="188"/>
+      <c r="A94" s="147"/>
+      <c r="B94" s="148"/>
+      <c r="C94" s="148"/>
+      <c r="D94" s="148"/>
+      <c r="E94" s="148"/>
+      <c r="F94" s="148"/>
+      <c r="G94" s="148"/>
+      <c r="H94" s="148"/>
+      <c r="I94" s="148"/>
+      <c r="J94" s="148"/>
+      <c r="K94" s="148"/>
+      <c r="L94" s="148"/>
+      <c r="M94" s="148"/>
+      <c r="N94" s="148"/>
+      <c r="O94" s="148"/>
+      <c r="P94" s="148"/>
+      <c r="Q94" s="148"/>
+      <c r="R94" s="148"/>
+      <c r="S94" s="148"/>
+      <c r="T94" s="148"/>
+      <c r="U94" s="148"/>
+      <c r="V94" s="148"/>
+      <c r="W94" s="148"/>
+      <c r="X94" s="148"/>
+      <c r="Y94" s="148"/>
+      <c r="Z94" s="148"/>
+      <c r="AA94" s="148"/>
+      <c r="AB94" s="148"/>
+      <c r="AC94" s="148"/>
+      <c r="AD94" s="149"/>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A95" s="147" t="s">
+      <c r="A95" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="B95" s="148"/>
-      <c r="C95" s="148"/>
-      <c r="D95" s="148"/>
-      <c r="E95" s="148"/>
-      <c r="F95" s="148"/>
-      <c r="G95" s="148"/>
-      <c r="H95" s="148"/>
-      <c r="I95" s="148"/>
-      <c r="J95" s="148"/>
-      <c r="K95" s="148"/>
-      <c r="L95" s="148"/>
-      <c r="M95" s="148"/>
-      <c r="N95" s="148"/>
-      <c r="O95" s="148"/>
-      <c r="P95" s="148"/>
-      <c r="Q95" s="148"/>
-      <c r="R95" s="148"/>
-      <c r="S95" s="148"/>
-      <c r="T95" s="148"/>
-      <c r="U95" s="148"/>
-      <c r="V95" s="148"/>
-      <c r="W95" s="148"/>
-      <c r="X95" s="148"/>
-      <c r="Y95" s="148"/>
-      <c r="Z95" s="148"/>
-      <c r="AA95" s="148"/>
-      <c r="AB95" s="148"/>
-      <c r="AC95" s="148"/>
-      <c r="AD95" s="149"/>
+      <c r="B95" s="151"/>
+      <c r="C95" s="151"/>
+      <c r="D95" s="151"/>
+      <c r="E95" s="151"/>
+      <c r="F95" s="151"/>
+      <c r="G95" s="151"/>
+      <c r="H95" s="151"/>
+      <c r="I95" s="151"/>
+      <c r="J95" s="151"/>
+      <c r="K95" s="151"/>
+      <c r="L95" s="151"/>
+      <c r="M95" s="151"/>
+      <c r="N95" s="151"/>
+      <c r="O95" s="151"/>
+      <c r="P95" s="151"/>
+      <c r="Q95" s="151"/>
+      <c r="R95" s="151"/>
+      <c r="S95" s="151"/>
+      <c r="T95" s="151"/>
+      <c r="U95" s="151"/>
+      <c r="V95" s="151"/>
+      <c r="W95" s="151"/>
+      <c r="X95" s="151"/>
+      <c r="Y95" s="151"/>
+      <c r="Z95" s="151"/>
+      <c r="AA95" s="151"/>
+      <c r="AB95" s="151"/>
+      <c r="AC95" s="151"/>
+      <c r="AD95" s="152"/>
     </row>
     <row r="96" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="150" t="s">
-        <v>67</v>
+      <c r="A96" s="153" t="s">
+        <v>66</v>
       </c>
-      <c r="B96" s="151"/>
-      <c r="C96" s="151"/>
-      <c r="D96" s="151"/>
-      <c r="E96" s="151"/>
-      <c r="F96" s="151"/>
-      <c r="G96" s="151"/>
-      <c r="H96" s="151"/>
-      <c r="I96" s="151"/>
-      <c r="J96" s="151"/>
-      <c r="K96" s="151"/>
-      <c r="L96" s="151"/>
-      <c r="M96" s="151"/>
-      <c r="N96" s="151"/>
-      <c r="O96" s="151"/>
-      <c r="P96" s="151"/>
-      <c r="Q96" s="151"/>
-      <c r="R96" s="151"/>
-      <c r="S96" s="151"/>
-      <c r="T96" s="151"/>
-      <c r="U96" s="151"/>
-      <c r="V96" s="151"/>
-      <c r="W96" s="151"/>
-      <c r="X96" s="151"/>
-      <c r="Y96" s="151"/>
-      <c r="Z96" s="151"/>
-      <c r="AA96" s="151"/>
-      <c r="AB96" s="151"/>
-      <c r="AC96" s="151"/>
-      <c r="AD96" s="152"/>
+      <c r="B96" s="154"/>
+      <c r="C96" s="154"/>
+      <c r="D96" s="154"/>
+      <c r="E96" s="154"/>
+      <c r="F96" s="154"/>
+      <c r="G96" s="154"/>
+      <c r="H96" s="154"/>
+      <c r="I96" s="154"/>
+      <c r="J96" s="154"/>
+      <c r="K96" s="154"/>
+      <c r="L96" s="154"/>
+      <c r="M96" s="154"/>
+      <c r="N96" s="154"/>
+      <c r="O96" s="154"/>
+      <c r="P96" s="154"/>
+      <c r="Q96" s="154"/>
+      <c r="R96" s="154"/>
+      <c r="S96" s="154"/>
+      <c r="T96" s="154"/>
+      <c r="U96" s="154"/>
+      <c r="V96" s="154"/>
+      <c r="W96" s="154"/>
+      <c r="X96" s="154"/>
+      <c r="Y96" s="154"/>
+      <c r="Z96" s="154"/>
+      <c r="AA96" s="154"/>
+      <c r="AB96" s="154"/>
+      <c r="AC96" s="154"/>
+      <c r="AD96" s="155"/>
     </row>
     <row r="97" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="153"/>
-      <c r="B97" s="154"/>
-      <c r="C97" s="154"/>
-      <c r="D97" s="154"/>
-      <c r="E97" s="154"/>
-      <c r="F97" s="154"/>
-      <c r="G97" s="154"/>
-      <c r="H97" s="154"/>
-      <c r="I97" s="154"/>
-      <c r="J97" s="154"/>
-      <c r="K97" s="154"/>
-      <c r="L97" s="154"/>
-      <c r="M97" s="154"/>
-      <c r="N97" s="154"/>
-      <c r="O97" s="154"/>
-      <c r="P97" s="154"/>
-      <c r="Q97" s="154"/>
-      <c r="R97" s="154"/>
-      <c r="S97" s="154"/>
-      <c r="T97" s="154"/>
-      <c r="U97" s="154"/>
-      <c r="V97" s="154"/>
-      <c r="W97" s="154"/>
-      <c r="X97" s="154"/>
-      <c r="Y97" s="154"/>
-      <c r="Z97" s="154"/>
-      <c r="AA97" s="154"/>
-      <c r="AB97" s="154"/>
-      <c r="AC97" s="154"/>
-      <c r="AD97" s="155"/>
+      <c r="A97" s="156"/>
+      <c r="B97" s="157"/>
+      <c r="C97" s="157"/>
+      <c r="D97" s="157"/>
+      <c r="E97" s="157"/>
+      <c r="F97" s="157"/>
+      <c r="G97" s="157"/>
+      <c r="H97" s="157"/>
+      <c r="I97" s="157"/>
+      <c r="J97" s="157"/>
+      <c r="K97" s="157"/>
+      <c r="L97" s="157"/>
+      <c r="M97" s="157"/>
+      <c r="N97" s="157"/>
+      <c r="O97" s="157"/>
+      <c r="P97" s="157"/>
+      <c r="Q97" s="157"/>
+      <c r="R97" s="157"/>
+      <c r="S97" s="157"/>
+      <c r="T97" s="157"/>
+      <c r="U97" s="157"/>
+      <c r="V97" s="157"/>
+      <c r="W97" s="157"/>
+      <c r="X97" s="157"/>
+      <c r="Y97" s="157"/>
+      <c r="Z97" s="157"/>
+      <c r="AA97" s="157"/>
+      <c r="AB97" s="157"/>
+      <c r="AC97" s="157"/>
+      <c r="AD97" s="158"/>
     </row>
     <row r="98" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="153"/>
-      <c r="B98" s="154"/>
-      <c r="C98" s="154"/>
-      <c r="D98" s="154"/>
-      <c r="E98" s="154"/>
-      <c r="F98" s="154"/>
-      <c r="G98" s="154"/>
-      <c r="H98" s="154"/>
-      <c r="I98" s="154"/>
-      <c r="J98" s="154"/>
-      <c r="K98" s="154"/>
-      <c r="L98" s="154"/>
-      <c r="M98" s="154"/>
-      <c r="N98" s="154"/>
-      <c r="O98" s="154"/>
-      <c r="P98" s="154"/>
-      <c r="Q98" s="154"/>
-      <c r="R98" s="154"/>
-      <c r="S98" s="154"/>
-      <c r="T98" s="154"/>
-      <c r="U98" s="154"/>
-      <c r="V98" s="154"/>
-      <c r="W98" s="154"/>
-      <c r="X98" s="154"/>
-      <c r="Y98" s="154"/>
-      <c r="Z98" s="154"/>
-      <c r="AA98" s="154"/>
-      <c r="AB98" s="154"/>
-      <c r="AC98" s="154"/>
-      <c r="AD98" s="155"/>
+      <c r="A98" s="156"/>
+      <c r="B98" s="157"/>
+      <c r="C98" s="157"/>
+      <c r="D98" s="157"/>
+      <c r="E98" s="157"/>
+      <c r="F98" s="157"/>
+      <c r="G98" s="157"/>
+      <c r="H98" s="157"/>
+      <c r="I98" s="157"/>
+      <c r="J98" s="157"/>
+      <c r="K98" s="157"/>
+      <c r="L98" s="157"/>
+      <c r="M98" s="157"/>
+      <c r="N98" s="157"/>
+      <c r="O98" s="157"/>
+      <c r="P98" s="157"/>
+      <c r="Q98" s="157"/>
+      <c r="R98" s="157"/>
+      <c r="S98" s="157"/>
+      <c r="T98" s="157"/>
+      <c r="U98" s="157"/>
+      <c r="V98" s="157"/>
+      <c r="W98" s="157"/>
+      <c r="X98" s="157"/>
+      <c r="Y98" s="157"/>
+      <c r="Z98" s="157"/>
+      <c r="AA98" s="157"/>
+      <c r="AB98" s="157"/>
+      <c r="AC98" s="157"/>
+      <c r="AD98" s="158"/>
     </row>
     <row r="99" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="153"/>
-      <c r="B99" s="154"/>
-      <c r="C99" s="154"/>
-      <c r="D99" s="154"/>
-      <c r="E99" s="154"/>
-      <c r="F99" s="154"/>
-      <c r="G99" s="154"/>
-      <c r="H99" s="154"/>
-      <c r="I99" s="154"/>
-      <c r="J99" s="154"/>
-      <c r="K99" s="154"/>
-      <c r="L99" s="154"/>
-      <c r="M99" s="154"/>
-      <c r="N99" s="154"/>
-      <c r="O99" s="154"/>
-      <c r="P99" s="154"/>
-      <c r="Q99" s="154"/>
-      <c r="R99" s="154"/>
-      <c r="S99" s="154"/>
-      <c r="T99" s="154"/>
-      <c r="U99" s="154"/>
-      <c r="V99" s="154"/>
-      <c r="W99" s="154"/>
-      <c r="X99" s="154"/>
-      <c r="Y99" s="154"/>
-      <c r="Z99" s="154"/>
-      <c r="AA99" s="154"/>
-      <c r="AB99" s="154"/>
-      <c r="AC99" s="154"/>
-      <c r="AD99" s="155"/>
+      <c r="A99" s="156"/>
+      <c r="B99" s="157"/>
+      <c r="C99" s="157"/>
+      <c r="D99" s="157"/>
+      <c r="E99" s="157"/>
+      <c r="F99" s="157"/>
+      <c r="G99" s="157"/>
+      <c r="H99" s="157"/>
+      <c r="I99" s="157"/>
+      <c r="J99" s="157"/>
+      <c r="K99" s="157"/>
+      <c r="L99" s="157"/>
+      <c r="M99" s="157"/>
+      <c r="N99" s="157"/>
+      <c r="O99" s="157"/>
+      <c r="P99" s="157"/>
+      <c r="Q99" s="157"/>
+      <c r="R99" s="157"/>
+      <c r="S99" s="157"/>
+      <c r="T99" s="157"/>
+      <c r="U99" s="157"/>
+      <c r="V99" s="157"/>
+      <c r="W99" s="157"/>
+      <c r="X99" s="157"/>
+      <c r="Y99" s="157"/>
+      <c r="Z99" s="157"/>
+      <c r="AA99" s="157"/>
+      <c r="AB99" s="157"/>
+      <c r="AC99" s="157"/>
+      <c r="AD99" s="158"/>
     </row>
     <row r="100" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="153"/>
-      <c r="B100" s="154"/>
-      <c r="C100" s="154"/>
-      <c r="D100" s="154"/>
-      <c r="E100" s="154"/>
-      <c r="F100" s="154"/>
-      <c r="G100" s="154"/>
-      <c r="H100" s="154"/>
-      <c r="I100" s="154"/>
-      <c r="J100" s="154"/>
-      <c r="K100" s="154"/>
-      <c r="L100" s="154"/>
-      <c r="M100" s="154"/>
-      <c r="N100" s="154"/>
-      <c r="O100" s="154"/>
-      <c r="P100" s="154"/>
-      <c r="Q100" s="154"/>
-      <c r="R100" s="154"/>
-      <c r="S100" s="154"/>
-      <c r="T100" s="154"/>
-      <c r="U100" s="154"/>
-      <c r="V100" s="154"/>
-      <c r="W100" s="154"/>
-      <c r="X100" s="154"/>
-      <c r="Y100" s="154"/>
-      <c r="Z100" s="154"/>
-      <c r="AA100" s="154"/>
-      <c r="AB100" s="154"/>
-      <c r="AC100" s="154"/>
-      <c r="AD100" s="155"/>
+      <c r="A100" s="156"/>
+      <c r="B100" s="157"/>
+      <c r="C100" s="157"/>
+      <c r="D100" s="157"/>
+      <c r="E100" s="157"/>
+      <c r="F100" s="157"/>
+      <c r="G100" s="157"/>
+      <c r="H100" s="157"/>
+      <c r="I100" s="157"/>
+      <c r="J100" s="157"/>
+      <c r="K100" s="157"/>
+      <c r="L100" s="157"/>
+      <c r="M100" s="157"/>
+      <c r="N100" s="157"/>
+      <c r="O100" s="157"/>
+      <c r="P100" s="157"/>
+      <c r="Q100" s="157"/>
+      <c r="R100" s="157"/>
+      <c r="S100" s="157"/>
+      <c r="T100" s="157"/>
+      <c r="U100" s="157"/>
+      <c r="V100" s="157"/>
+      <c r="W100" s="157"/>
+      <c r="X100" s="157"/>
+      <c r="Y100" s="157"/>
+      <c r="Z100" s="157"/>
+      <c r="AA100" s="157"/>
+      <c r="AB100" s="157"/>
+      <c r="AC100" s="157"/>
+      <c r="AD100" s="158"/>
     </row>
     <row r="101" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="153"/>
-      <c r="B101" s="154"/>
-      <c r="C101" s="154"/>
-      <c r="D101" s="154"/>
-      <c r="E101" s="154"/>
-      <c r="F101" s="154"/>
-      <c r="G101" s="154"/>
-      <c r="H101" s="154"/>
-      <c r="I101" s="154"/>
-      <c r="J101" s="154"/>
-      <c r="K101" s="154"/>
-      <c r="L101" s="154"/>
-      <c r="M101" s="154"/>
-      <c r="N101" s="154"/>
-      <c r="O101" s="154"/>
-      <c r="P101" s="154"/>
-      <c r="Q101" s="154"/>
-      <c r="R101" s="154"/>
-      <c r="S101" s="154"/>
-      <c r="T101" s="154"/>
-      <c r="U101" s="154"/>
-      <c r="V101" s="154"/>
-      <c r="W101" s="154"/>
-      <c r="X101" s="154"/>
-      <c r="Y101" s="154"/>
-      <c r="Z101" s="154"/>
-      <c r="AA101" s="154"/>
-      <c r="AB101" s="154"/>
-      <c r="AC101" s="154"/>
-      <c r="AD101" s="155"/>
+      <c r="A101" s="156"/>
+      <c r="B101" s="157"/>
+      <c r="C101" s="157"/>
+      <c r="D101" s="157"/>
+      <c r="E101" s="157"/>
+      <c r="F101" s="157"/>
+      <c r="G101" s="157"/>
+      <c r="H101" s="157"/>
+      <c r="I101" s="157"/>
+      <c r="J101" s="157"/>
+      <c r="K101" s="157"/>
+      <c r="L101" s="157"/>
+      <c r="M101" s="157"/>
+      <c r="N101" s="157"/>
+      <c r="O101" s="157"/>
+      <c r="P101" s="157"/>
+      <c r="Q101" s="157"/>
+      <c r="R101" s="157"/>
+      <c r="S101" s="157"/>
+      <c r="T101" s="157"/>
+      <c r="U101" s="157"/>
+      <c r="V101" s="157"/>
+      <c r="W101" s="157"/>
+      <c r="X101" s="157"/>
+      <c r="Y101" s="157"/>
+      <c r="Z101" s="157"/>
+      <c r="AA101" s="157"/>
+      <c r="AB101" s="157"/>
+      <c r="AC101" s="157"/>
+      <c r="AD101" s="158"/>
     </row>
     <row r="102" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="153"/>
-      <c r="B102" s="154"/>
-      <c r="C102" s="154"/>
-      <c r="D102" s="154"/>
-      <c r="E102" s="154"/>
-      <c r="F102" s="154"/>
-      <c r="G102" s="154"/>
-      <c r="H102" s="154"/>
-      <c r="I102" s="154"/>
-      <c r="J102" s="154"/>
-      <c r="K102" s="154"/>
-      <c r="L102" s="154"/>
-      <c r="M102" s="154"/>
-      <c r="N102" s="154"/>
-      <c r="O102" s="154"/>
-      <c r="P102" s="154"/>
-      <c r="Q102" s="154"/>
-      <c r="R102" s="154"/>
-      <c r="S102" s="154"/>
-      <c r="T102" s="154"/>
-      <c r="U102" s="154"/>
-      <c r="V102" s="154"/>
-      <c r="W102" s="154"/>
-      <c r="X102" s="154"/>
-      <c r="Y102" s="154"/>
-      <c r="Z102" s="154"/>
-      <c r="AA102" s="154"/>
-      <c r="AB102" s="154"/>
-      <c r="AC102" s="154"/>
-      <c r="AD102" s="155"/>
+      <c r="A102" s="156"/>
+      <c r="B102" s="157"/>
+      <c r="C102" s="157"/>
+      <c r="D102" s="157"/>
+      <c r="E102" s="157"/>
+      <c r="F102" s="157"/>
+      <c r="G102" s="157"/>
+      <c r="H102" s="157"/>
+      <c r="I102" s="157"/>
+      <c r="J102" s="157"/>
+      <c r="K102" s="157"/>
+      <c r="L102" s="157"/>
+      <c r="M102" s="157"/>
+      <c r="N102" s="157"/>
+      <c r="O102" s="157"/>
+      <c r="P102" s="157"/>
+      <c r="Q102" s="157"/>
+      <c r="R102" s="157"/>
+      <c r="S102" s="157"/>
+      <c r="T102" s="157"/>
+      <c r="U102" s="157"/>
+      <c r="V102" s="157"/>
+      <c r="W102" s="157"/>
+      <c r="X102" s="157"/>
+      <c r="Y102" s="157"/>
+      <c r="Z102" s="157"/>
+      <c r="AA102" s="157"/>
+      <c r="AB102" s="157"/>
+      <c r="AC102" s="157"/>
+      <c r="AD102" s="158"/>
     </row>
     <row r="103" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="153"/>
-      <c r="B103" s="154"/>
-      <c r="C103" s="154"/>
-      <c r="D103" s="154"/>
-      <c r="E103" s="154"/>
-      <c r="F103" s="154"/>
-      <c r="G103" s="154"/>
-      <c r="H103" s="154"/>
-      <c r="I103" s="154"/>
-      <c r="J103" s="154"/>
-      <c r="K103" s="154"/>
-      <c r="L103" s="154"/>
-      <c r="M103" s="154"/>
-      <c r="N103" s="154"/>
-      <c r="O103" s="154"/>
-      <c r="P103" s="154"/>
-      <c r="Q103" s="154"/>
-      <c r="R103" s="154"/>
-      <c r="S103" s="154"/>
-      <c r="T103" s="154"/>
-      <c r="U103" s="154"/>
-      <c r="V103" s="154"/>
-      <c r="W103" s="154"/>
-      <c r="X103" s="154"/>
-      <c r="Y103" s="154"/>
-      <c r="Z103" s="154"/>
-      <c r="AA103" s="154"/>
-      <c r="AB103" s="154"/>
-      <c r="AC103" s="154"/>
-      <c r="AD103" s="155"/>
+      <c r="A103" s="156"/>
+      <c r="B103" s="157"/>
+      <c r="C103" s="157"/>
+      <c r="D103" s="157"/>
+      <c r="E103" s="157"/>
+      <c r="F103" s="157"/>
+      <c r="G103" s="157"/>
+      <c r="H103" s="157"/>
+      <c r="I103" s="157"/>
+      <c r="J103" s="157"/>
+      <c r="K103" s="157"/>
+      <c r="L103" s="157"/>
+      <c r="M103" s="157"/>
+      <c r="N103" s="157"/>
+      <c r="O103" s="157"/>
+      <c r="P103" s="157"/>
+      <c r="Q103" s="157"/>
+      <c r="R103" s="157"/>
+      <c r="S103" s="157"/>
+      <c r="T103" s="157"/>
+      <c r="U103" s="157"/>
+      <c r="V103" s="157"/>
+      <c r="W103" s="157"/>
+      <c r="X103" s="157"/>
+      <c r="Y103" s="157"/>
+      <c r="Z103" s="157"/>
+      <c r="AA103" s="157"/>
+      <c r="AB103" s="157"/>
+      <c r="AC103" s="157"/>
+      <c r="AD103" s="158"/>
     </row>
     <row r="104" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="153"/>
-      <c r="B104" s="154"/>
-      <c r="C104" s="154"/>
-      <c r="D104" s="154"/>
-      <c r="E104" s="154"/>
-      <c r="F104" s="154"/>
-      <c r="G104" s="154"/>
-      <c r="H104" s="154"/>
-      <c r="I104" s="154"/>
-      <c r="J104" s="154"/>
-      <c r="K104" s="154"/>
-      <c r="L104" s="154"/>
-      <c r="M104" s="154"/>
-      <c r="N104" s="154"/>
-      <c r="O104" s="154"/>
-      <c r="P104" s="154"/>
-      <c r="Q104" s="154"/>
-      <c r="R104" s="154"/>
-      <c r="S104" s="154"/>
-      <c r="T104" s="154"/>
-      <c r="U104" s="154"/>
-      <c r="V104" s="154"/>
-      <c r="W104" s="154"/>
-      <c r="X104" s="154"/>
-      <c r="Y104" s="154"/>
-      <c r="Z104" s="154"/>
-      <c r="AA104" s="154"/>
-      <c r="AB104" s="154"/>
-      <c r="AC104" s="154"/>
-      <c r="AD104" s="155"/>
+      <c r="A104" s="156"/>
+      <c r="B104" s="157"/>
+      <c r="C104" s="157"/>
+      <c r="D104" s="157"/>
+      <c r="E104" s="157"/>
+      <c r="F104" s="157"/>
+      <c r="G104" s="157"/>
+      <c r="H104" s="157"/>
+      <c r="I104" s="157"/>
+      <c r="J104" s="157"/>
+      <c r="K104" s="157"/>
+      <c r="L104" s="157"/>
+      <c r="M104" s="157"/>
+      <c r="N104" s="157"/>
+      <c r="O104" s="157"/>
+      <c r="P104" s="157"/>
+      <c r="Q104" s="157"/>
+      <c r="R104" s="157"/>
+      <c r="S104" s="157"/>
+      <c r="T104" s="157"/>
+      <c r="U104" s="157"/>
+      <c r="V104" s="157"/>
+      <c r="W104" s="157"/>
+      <c r="X104" s="157"/>
+      <c r="Y104" s="157"/>
+      <c r="Z104" s="157"/>
+      <c r="AA104" s="157"/>
+      <c r="AB104" s="157"/>
+      <c r="AC104" s="157"/>
+      <c r="AD104" s="158"/>
     </row>
     <row r="105" spans="1:30" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="156"/>
-      <c r="B105" s="157"/>
-      <c r="C105" s="157"/>
-      <c r="D105" s="157"/>
-      <c r="E105" s="157"/>
-      <c r="F105" s="157"/>
-      <c r="G105" s="157"/>
-      <c r="H105" s="157"/>
-      <c r="I105" s="157"/>
-      <c r="J105" s="157"/>
-      <c r="K105" s="157"/>
-      <c r="L105" s="157"/>
-      <c r="M105" s="157"/>
-      <c r="N105" s="157"/>
-      <c r="O105" s="157"/>
-      <c r="P105" s="157"/>
-      <c r="Q105" s="157"/>
-      <c r="R105" s="157"/>
-      <c r="S105" s="157"/>
-      <c r="T105" s="157"/>
-      <c r="U105" s="157"/>
-      <c r="V105" s="157"/>
-      <c r="W105" s="157"/>
-      <c r="X105" s="157"/>
-      <c r="Y105" s="157"/>
-      <c r="Z105" s="157"/>
-      <c r="AA105" s="157"/>
-      <c r="AB105" s="157"/>
-      <c r="AC105" s="157"/>
-      <c r="AD105" s="158"/>
+      <c r="A105" s="159"/>
+      <c r="B105" s="160"/>
+      <c r="C105" s="160"/>
+      <c r="D105" s="160"/>
+      <c r="E105" s="160"/>
+      <c r="F105" s="160"/>
+      <c r="G105" s="160"/>
+      <c r="H105" s="160"/>
+      <c r="I105" s="160"/>
+      <c r="J105" s="160"/>
+      <c r="K105" s="160"/>
+      <c r="L105" s="160"/>
+      <c r="M105" s="160"/>
+      <c r="N105" s="160"/>
+      <c r="O105" s="160"/>
+      <c r="P105" s="160"/>
+      <c r="Q105" s="160"/>
+      <c r="R105" s="160"/>
+      <c r="S105" s="160"/>
+      <c r="T105" s="160"/>
+      <c r="U105" s="160"/>
+      <c r="V105" s="160"/>
+      <c r="W105" s="160"/>
+      <c r="X105" s="160"/>
+      <c r="Y105" s="160"/>
+      <c r="Z105" s="160"/>
+      <c r="AA105" s="160"/>
+      <c r="AB105" s="160"/>
+      <c r="AC105" s="160"/>
+      <c r="AD105" s="161"/>
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A106" s="134" t="s">
@@ -5480,166 +5493,166 @@
       <c r="AD106" s="136"/>
     </row>
     <row r="107" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="159" t="s">
-        <v>68</v>
+      <c r="A107" s="162" t="s">
+        <v>67</v>
       </c>
-      <c r="B107" s="160"/>
-      <c r="C107" s="160"/>
-      <c r="D107" s="160"/>
-      <c r="E107" s="160"/>
-      <c r="F107" s="160"/>
-      <c r="G107" s="160"/>
-      <c r="H107" s="160"/>
-      <c r="I107" s="160"/>
-      <c r="J107" s="160"/>
-      <c r="K107" s="160"/>
-      <c r="L107" s="160"/>
-      <c r="M107" s="160"/>
-      <c r="N107" s="160"/>
-      <c r="O107" s="160"/>
-      <c r="P107" s="160"/>
-      <c r="Q107" s="160"/>
-      <c r="R107" s="160"/>
-      <c r="S107" s="160"/>
-      <c r="T107" s="160"/>
-      <c r="U107" s="160"/>
-      <c r="V107" s="160"/>
-      <c r="W107" s="160"/>
-      <c r="X107" s="160"/>
-      <c r="Y107" s="160"/>
-      <c r="Z107" s="160"/>
-      <c r="AA107" s="160"/>
-      <c r="AB107" s="160"/>
-      <c r="AC107" s="160"/>
-      <c r="AD107" s="161"/>
+      <c r="B107" s="163"/>
+      <c r="C107" s="163"/>
+      <c r="D107" s="163"/>
+      <c r="E107" s="163"/>
+      <c r="F107" s="163"/>
+      <c r="G107" s="163"/>
+      <c r="H107" s="163"/>
+      <c r="I107" s="163"/>
+      <c r="J107" s="163"/>
+      <c r="K107" s="163"/>
+      <c r="L107" s="163"/>
+      <c r="M107" s="163"/>
+      <c r="N107" s="163"/>
+      <c r="O107" s="163"/>
+      <c r="P107" s="163"/>
+      <c r="Q107" s="163"/>
+      <c r="R107" s="163"/>
+      <c r="S107" s="163"/>
+      <c r="T107" s="163"/>
+      <c r="U107" s="163"/>
+      <c r="V107" s="163"/>
+      <c r="W107" s="163"/>
+      <c r="X107" s="163"/>
+      <c r="Y107" s="163"/>
+      <c r="Z107" s="163"/>
+      <c r="AA107" s="163"/>
+      <c r="AB107" s="163"/>
+      <c r="AC107" s="163"/>
+      <c r="AD107" s="164"/>
     </row>
     <row r="108" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="162"/>
-      <c r="B108" s="163"/>
-      <c r="C108" s="163"/>
-      <c r="D108" s="163"/>
-      <c r="E108" s="163"/>
-      <c r="F108" s="163"/>
-      <c r="G108" s="163"/>
-      <c r="H108" s="163"/>
-      <c r="I108" s="163"/>
-      <c r="J108" s="163"/>
-      <c r="K108" s="163"/>
-      <c r="L108" s="163"/>
-      <c r="M108" s="163"/>
-      <c r="N108" s="163"/>
-      <c r="O108" s="163"/>
-      <c r="P108" s="163"/>
-      <c r="Q108" s="163"/>
-      <c r="R108" s="163"/>
-      <c r="S108" s="163"/>
-      <c r="T108" s="163"/>
-      <c r="U108" s="163"/>
-      <c r="V108" s="163"/>
-      <c r="W108" s="163"/>
-      <c r="X108" s="163"/>
-      <c r="Y108" s="163"/>
-      <c r="Z108" s="163"/>
-      <c r="AA108" s="163"/>
-      <c r="AB108" s="163"/>
-      <c r="AC108" s="163"/>
-      <c r="AD108" s="164"/>
+      <c r="A108" s="165"/>
+      <c r="B108" s="166"/>
+      <c r="C108" s="166"/>
+      <c r="D108" s="166"/>
+      <c r="E108" s="166"/>
+      <c r="F108" s="166"/>
+      <c r="G108" s="166"/>
+      <c r="H108" s="166"/>
+      <c r="I108" s="166"/>
+      <c r="J108" s="166"/>
+      <c r="K108" s="166"/>
+      <c r="L108" s="166"/>
+      <c r="M108" s="166"/>
+      <c r="N108" s="166"/>
+      <c r="O108" s="166"/>
+      <c r="P108" s="166"/>
+      <c r="Q108" s="166"/>
+      <c r="R108" s="166"/>
+      <c r="S108" s="166"/>
+      <c r="T108" s="166"/>
+      <c r="U108" s="166"/>
+      <c r="V108" s="166"/>
+      <c r="W108" s="166"/>
+      <c r="X108" s="166"/>
+      <c r="Y108" s="166"/>
+      <c r="Z108" s="166"/>
+      <c r="AA108" s="166"/>
+      <c r="AB108" s="166"/>
+      <c r="AC108" s="166"/>
+      <c r="AD108" s="167"/>
     </row>
     <row r="109" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="162"/>
-      <c r="B109" s="163"/>
-      <c r="C109" s="163"/>
-      <c r="D109" s="163"/>
-      <c r="E109" s="163"/>
-      <c r="F109" s="163"/>
-      <c r="G109" s="163"/>
-      <c r="H109" s="163"/>
-      <c r="I109" s="163"/>
-      <c r="J109" s="163"/>
-      <c r="K109" s="163"/>
-      <c r="L109" s="163"/>
-      <c r="M109" s="163"/>
-      <c r="N109" s="163"/>
-      <c r="O109" s="163"/>
-      <c r="P109" s="163"/>
-      <c r="Q109" s="163"/>
-      <c r="R109" s="163"/>
-      <c r="S109" s="163"/>
-      <c r="T109" s="163"/>
-      <c r="U109" s="163"/>
-      <c r="V109" s="163"/>
-      <c r="W109" s="163"/>
-      <c r="X109" s="163"/>
-      <c r="Y109" s="163"/>
-      <c r="Z109" s="163"/>
-      <c r="AA109" s="163"/>
-      <c r="AB109" s="163"/>
-      <c r="AC109" s="163"/>
-      <c r="AD109" s="164"/>
+      <c r="A109" s="165"/>
+      <c r="B109" s="166"/>
+      <c r="C109" s="166"/>
+      <c r="D109" s="166"/>
+      <c r="E109" s="166"/>
+      <c r="F109" s="166"/>
+      <c r="G109" s="166"/>
+      <c r="H109" s="166"/>
+      <c r="I109" s="166"/>
+      <c r="J109" s="166"/>
+      <c r="K109" s="166"/>
+      <c r="L109" s="166"/>
+      <c r="M109" s="166"/>
+      <c r="N109" s="166"/>
+      <c r="O109" s="166"/>
+      <c r="P109" s="166"/>
+      <c r="Q109" s="166"/>
+      <c r="R109" s="166"/>
+      <c r="S109" s="166"/>
+      <c r="T109" s="166"/>
+      <c r="U109" s="166"/>
+      <c r="V109" s="166"/>
+      <c r="W109" s="166"/>
+      <c r="X109" s="166"/>
+      <c r="Y109" s="166"/>
+      <c r="Z109" s="166"/>
+      <c r="AA109" s="166"/>
+      <c r="AB109" s="166"/>
+      <c r="AC109" s="166"/>
+      <c r="AD109" s="167"/>
     </row>
     <row r="110" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="162"/>
-      <c r="B110" s="163"/>
-      <c r="C110" s="163"/>
-      <c r="D110" s="163"/>
-      <c r="E110" s="163"/>
-      <c r="F110" s="163"/>
-      <c r="G110" s="163"/>
-      <c r="H110" s="163"/>
-      <c r="I110" s="163"/>
-      <c r="J110" s="163"/>
-      <c r="K110" s="163"/>
-      <c r="L110" s="163"/>
-      <c r="M110" s="163"/>
-      <c r="N110" s="163"/>
-      <c r="O110" s="163"/>
-      <c r="P110" s="163"/>
-      <c r="Q110" s="163"/>
-      <c r="R110" s="163"/>
-      <c r="S110" s="163"/>
-      <c r="T110" s="163"/>
-      <c r="U110" s="163"/>
-      <c r="V110" s="163"/>
-      <c r="W110" s="163"/>
-      <c r="X110" s="163"/>
-      <c r="Y110" s="163"/>
-      <c r="Z110" s="163"/>
-      <c r="AA110" s="163"/>
-      <c r="AB110" s="163"/>
-      <c r="AC110" s="163"/>
-      <c r="AD110" s="164"/>
+      <c r="A110" s="165"/>
+      <c r="B110" s="166"/>
+      <c r="C110" s="166"/>
+      <c r="D110" s="166"/>
+      <c r="E110" s="166"/>
+      <c r="F110" s="166"/>
+      <c r="G110" s="166"/>
+      <c r="H110" s="166"/>
+      <c r="I110" s="166"/>
+      <c r="J110" s="166"/>
+      <c r="K110" s="166"/>
+      <c r="L110" s="166"/>
+      <c r="M110" s="166"/>
+      <c r="N110" s="166"/>
+      <c r="O110" s="166"/>
+      <c r="P110" s="166"/>
+      <c r="Q110" s="166"/>
+      <c r="R110" s="166"/>
+      <c r="S110" s="166"/>
+      <c r="T110" s="166"/>
+      <c r="U110" s="166"/>
+      <c r="V110" s="166"/>
+      <c r="W110" s="166"/>
+      <c r="X110" s="166"/>
+      <c r="Y110" s="166"/>
+      <c r="Z110" s="166"/>
+      <c r="AA110" s="166"/>
+      <c r="AB110" s="166"/>
+      <c r="AC110" s="166"/>
+      <c r="AD110" s="167"/>
     </row>
     <row r="111" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="165"/>
-      <c r="B111" s="166"/>
-      <c r="C111" s="166"/>
-      <c r="D111" s="166"/>
-      <c r="E111" s="166"/>
-      <c r="F111" s="166"/>
-      <c r="G111" s="166"/>
-      <c r="H111" s="166"/>
-      <c r="I111" s="166"/>
-      <c r="J111" s="166"/>
-      <c r="K111" s="166"/>
-      <c r="L111" s="166"/>
-      <c r="M111" s="166"/>
-      <c r="N111" s="166"/>
-      <c r="O111" s="166"/>
-      <c r="P111" s="166"/>
-      <c r="Q111" s="166"/>
-      <c r="R111" s="166"/>
-      <c r="S111" s="166"/>
-      <c r="T111" s="166"/>
-      <c r="U111" s="166"/>
-      <c r="V111" s="166"/>
-      <c r="W111" s="166"/>
-      <c r="X111" s="166"/>
-      <c r="Y111" s="166"/>
-      <c r="Z111" s="166"/>
-      <c r="AA111" s="166"/>
-      <c r="AB111" s="166"/>
-      <c r="AC111" s="166"/>
-      <c r="AD111" s="167"/>
+      <c r="A111" s="168"/>
+      <c r="B111" s="169"/>
+      <c r="C111" s="169"/>
+      <c r="D111" s="169"/>
+      <c r="E111" s="169"/>
+      <c r="F111" s="169"/>
+      <c r="G111" s="169"/>
+      <c r="H111" s="169"/>
+      <c r="I111" s="169"/>
+      <c r="J111" s="169"/>
+      <c r="K111" s="169"/>
+      <c r="L111" s="169"/>
+      <c r="M111" s="169"/>
+      <c r="N111" s="169"/>
+      <c r="O111" s="169"/>
+      <c r="P111" s="169"/>
+      <c r="Q111" s="169"/>
+      <c r="R111" s="169"/>
+      <c r="S111" s="169"/>
+      <c r="T111" s="169"/>
+      <c r="U111" s="169"/>
+      <c r="V111" s="169"/>
+      <c r="W111" s="169"/>
+      <c r="X111" s="169"/>
+      <c r="Y111" s="169"/>
+      <c r="Z111" s="169"/>
+      <c r="AA111" s="169"/>
+      <c r="AB111" s="169"/>
+      <c r="AC111" s="169"/>
+      <c r="AD111" s="170"/>
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A112" s="134" t="s">
@@ -5675,9 +5688,9 @@
       <c r="AC112" s="135"/>
       <c r="AD112" s="136"/>
     </row>
-    <row r="113" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="137" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B113" s="138"/>
       <c r="C113" s="138"/>
@@ -5709,7 +5722,7 @@
       <c r="AC113" s="138"/>
       <c r="AD113" s="139"/>
     </row>
-    <row r="114" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="140"/>
       <c r="B114" s="138"/>
       <c r="C114" s="138"/>
@@ -5741,7 +5754,7 @@
       <c r="AC114" s="138"/>
       <c r="AD114" s="139"/>
     </row>
-    <row r="115" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="140"/>
       <c r="B115" s="138"/>
       <c r="C115" s="138"/>
@@ -5773,7 +5786,7 @@
       <c r="AC115" s="138"/>
       <c r="AD115" s="139"/>
     </row>
-    <row r="116" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="140"/>
       <c r="B116" s="138"/>
       <c r="C116" s="138"/>
@@ -5805,7 +5818,7 @@
       <c r="AC116" s="138"/>
       <c r="AD116" s="139"/>
     </row>
-    <row r="117" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="140"/>
       <c r="B117" s="138"/>
       <c r="C117" s="138"/>
@@ -5837,7 +5850,7 @@
       <c r="AC117" s="138"/>
       <c r="AD117" s="139"/>
     </row>
-    <row r="118" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="140"/>
       <c r="B118" s="138"/>
       <c r="C118" s="138"/>
@@ -5869,7 +5882,7 @@
       <c r="AC118" s="138"/>
       <c r="AD118" s="139"/>
     </row>
-    <row r="119" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="140"/>
       <c r="B119" s="138"/>
       <c r="C119" s="138"/>
@@ -5901,7 +5914,7 @@
       <c r="AC119" s="138"/>
       <c r="AD119" s="139"/>
     </row>
-    <row r="120" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="140"/>
       <c r="B120" s="138"/>
       <c r="C120" s="138"/>
@@ -5933,7 +5946,7 @@
       <c r="AC120" s="138"/>
       <c r="AD120" s="139"/>
     </row>
-    <row r="121" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:31" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="140"/>
       <c r="B121" s="138"/>
       <c r="C121" s="138"/>
@@ -5965,7 +5978,7 @@
       <c r="AC121" s="138"/>
       <c r="AD121" s="139"/>
     </row>
-    <row r="122" spans="1:30" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:31" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="141"/>
       <c r="B122" s="142"/>
       <c r="C122" s="142"/>
@@ -5997,7 +6010,7 @@
       <c r="AC122" s="142"/>
       <c r="AD122" s="143"/>
     </row>
-    <row r="123" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="144" t="s">
         <v>21</v>
       </c>
@@ -6031,13 +6044,21 @@
       <c r="AC123" s="145"/>
       <c r="AD123" s="146"/>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD124" s="7"/>
+      <c r="AE124" s="7"/>
+    </row>
+    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD125" s="7"/>
+      <c r="AE125" s="7"/>
+    </row>
+    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AD126" s="7"/>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AD127" s="7"/>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
       <c r="AD128" s="7"/>
     </row>
     <row r="129" spans="30:30" x14ac:dyDescent="0.25">
@@ -9257,8 +9278,8 @@
   <hyperlinks>
     <hyperlink ref="G27" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.54" right="0.19" top="0.69" bottom="0.48" header="0.44" footer="0.17"/>
-  <pageSetup scale="69" orientation="portrait" verticalDpi="4294967293" r:id="rId2"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="35" orientation="portrait" verticalDpi="4294967293" r:id="rId2"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="64" max="16383" man="1"/>
   </rowBreaks>
